--- a/Leon_Contribution_102424.xlsx
+++ b/Leon_Contribution_102424.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987D1796-1EFD-46C9-91EF-749132CF0F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E669C-3400-45AD-BE6C-CBC764BC9C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="191">
   <si>
     <t>Name:</t>
   </si>
@@ -724,6 +724,102 @@
   </si>
   <si>
     <t>10.1016/j.jallcom.2021.159190</t>
+  </si>
+  <si>
+    <t>Ti30.3 Zr30.3 Nb30.3 Ta3.0 Al6.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti32.3 Zr32.3 Nb32.3 Ta3.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCC+Al3Zr5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti40 Zr20 Nb20 Hf20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti38.6 Zr19.2 Nb19.2 Hf19.2 V3.8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti37.0 Zr18.5 Nb18.5 Hf18.5 V7.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti35.6 Zr17.9 Nb17.9 Hf17.9 V10.7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti34.6 Zr17.2 Nb17.2 Hf17.2 V13.8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti33.3 Zr16.7 Nb16.7 Hf16.7 V16.7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti20 Zr20 Nb20 Mo20 V20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti27.20 Zr18.2 Nb18.2 Mo18.20 V18.20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti33.20 Zr16.7 Nb16.7 Mo16.70 V16.70</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al10 Nb20 Ti20 V40 Zr10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al9.1 Nb18.2 Ti18.2 V26.3 Zr18.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al9.1 Nb9.1 Ti18.2 V36.4 Zr27.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al11.1 Nb22.2 Ti22.2 V44.5 Zr11.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al10. Nb20.0 Ti20.0 V40.0 Zr10.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf20 Nb20 Ta20 Ti20 Zr20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al5.5 Hf18.9 Nb18.9 Ta18.9 Ti18.9 Zr18.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al9 Hf18.2 Nb18.2 Ta18.2 Ti18.2 Zr18.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al13.0 Hf17.4 Nb17.4 Ta17.4 Ti17.4 Zr17.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al16.7 Hf16.7 Nb16.7 Ta16.7 Ti16.6 Zr16.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf12.5 Mo12.5 Nb25 Ti25 Zr25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1464,32 +1560,8 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1542,8 +1614,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1828,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1865,19 +1961,19 @@
       <c r="B2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1887,17 +1983,17 @@
       <c r="B3" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1915,43 +2011,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="67" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1962,19 +2058,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="49"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2019,7 +2115,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="50"/>
+      <c r="O7" s="69"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2032,35 +2128,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="72"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="P8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="53"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="72"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2325,7 +2421,7 @@
         <v>81</v>
       </c>
       <c r="E15" s="19"/>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -2403,7 +2499,7 @@
         <v>81</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G17" s="40" t="s">
@@ -2481,7 +2577,7 @@
         <v>81</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G19" s="40" t="s">
@@ -2559,7 +2655,7 @@
         <v>84</v>
       </c>
       <c r="E21" s="19"/>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G21" s="40" t="s">
@@ -2597,7 +2693,7 @@
       <c r="E22" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G22" s="40" t="s">
@@ -2635,7 +2731,7 @@
       <c r="E23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="40" t="s">
@@ -2895,7 +2991,7 @@
         <v>81</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G30" s="40" t="s">
@@ -2933,7 +3029,7 @@
         <v>81</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G31" s="40" t="s">
@@ -3047,7 +3143,7 @@
         <v>81</v>
       </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G34" s="40" t="s">
@@ -3085,7 +3181,7 @@
         <v>81</v>
       </c>
       <c r="E35" s="19"/>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="48" t="s">
         <v>145</v>
       </c>
       <c r="G35" s="40" t="s">
@@ -6740,965 +6836,2020 @@
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" ht="16.3">
       <c r="A134" s="35"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="32"/>
+      <c r="B134" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D134" s="32"/>
       <c r="E134" s="19"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
+      <c r="F134" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G134" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H134" s="32"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="31"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="I134" s="34">
+        <v>298</v>
+      </c>
+      <c r="J134" s="31">
+        <v>1022000000</v>
+      </c>
+      <c r="K134" s="31">
+        <v>51000000</v>
+      </c>
+      <c r="L134" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M134" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N134" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="16.3">
       <c r="A135" s="35"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="32"/>
+      <c r="B135" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D135" s="32"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
+      <c r="F135" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G135" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H135" s="32"/>
-      <c r="I135" s="34"/>
-      <c r="J135" s="31"/>
+      <c r="I135" s="34">
+        <v>298</v>
+      </c>
+      <c r="J135" s="31">
+        <v>6.74</v>
+      </c>
       <c r="K135" s="31"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="A136" s="35"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="31"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="L135" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M135" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N135" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="16.3">
+      <c r="B136" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G136" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I136" s="34">
+        <v>298</v>
+      </c>
+      <c r="J136" s="31">
+        <v>1037000000</v>
+      </c>
+      <c r="K136" s="31">
+        <v>178000000</v>
+      </c>
+      <c r="L136" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M136" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N136" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="16.3">
       <c r="A137" s="35"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="32"/>
+      <c r="B137" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="D137" s="32"/>
       <c r="E137" s="19"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
+      <c r="F137" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G137" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H137" s="32"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="31"/>
+      <c r="I137" s="34">
+        <v>298</v>
+      </c>
+      <c r="J137" s="31">
+        <v>6</v>
+      </c>
       <c r="K137" s="31"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="L137" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M137" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N137" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="16.3">
       <c r="A138" s="35"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="32"/>
+      <c r="B138" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="D138" s="32"/>
       <c r="E138" s="19"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
+      <c r="F138" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G138" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H138" s="32"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="31"/>
+      <c r="I138" s="34">
+        <v>298</v>
+      </c>
+      <c r="J138" s="31">
+        <v>6.11</v>
+      </c>
       <c r="K138" s="31"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="L138" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M138" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N138" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="16.3">
       <c r="A139" s="35"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="32"/>
+      <c r="B139" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D139" s="32"/>
       <c r="E139" s="19"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
+      <c r="F139" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G139" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H139" s="32"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="31"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="I139" s="34">
+        <v>298</v>
+      </c>
+      <c r="J139" s="31">
+        <v>1022000000</v>
+      </c>
+      <c r="K139" s="31">
+        <v>51000000</v>
+      </c>
+      <c r="L139" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M139" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N139" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="16.3">
       <c r="A140" s="35"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="32"/>
+      <c r="B140" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D140" s="32"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
+      <c r="F140" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G140" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H140" s="32"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="31"/>
+      <c r="I140" s="34">
+        <v>298</v>
+      </c>
+      <c r="J140" s="31">
+        <v>6.74</v>
+      </c>
       <c r="K140" s="31"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="L140" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M140" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N140" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="16.3">
       <c r="A141" s="35"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="32"/>
+      <c r="B141" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D141" s="32"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
+      <c r="F141" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G141" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H141" s="32"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="31"/>
+      <c r="I141" s="34">
+        <v>298</v>
+      </c>
+      <c r="J141" s="31">
+        <v>613000000</v>
+      </c>
       <c r="K141" s="31"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="L141" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M141" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N141" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="16.3">
       <c r="A142" s="35"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="32"/>
+      <c r="B142" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D142" s="32"/>
       <c r="E142" s="19"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
+      <c r="F142" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G142" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H142" s="32"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="31"/>
+      <c r="I142" s="34">
+        <v>298</v>
+      </c>
+      <c r="J142" s="31">
+        <v>7.7</v>
+      </c>
       <c r="K142" s="31"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="L142" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M142" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N142" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="16.3">
       <c r="A143" s="35"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="32"/>
+      <c r="B143" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D143" s="32"/>
       <c r="E143" s="19"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
+      <c r="F143" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G143" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H143" s="32"/>
-      <c r="I143" s="34"/>
-      <c r="J143" s="31"/>
+      <c r="I143" s="34">
+        <v>298</v>
+      </c>
+      <c r="J143" s="31">
+        <v>709000000</v>
+      </c>
       <c r="K143" s="31"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="L143" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M143" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N143" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="16.3">
       <c r="A144" s="35"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="32"/>
+      <c r="B144" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D144" s="32"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
+      <c r="F144" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G144" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H144" s="32"/>
-      <c r="I144" s="34"/>
-      <c r="J144" s="31"/>
+      <c r="I144" s="34">
+        <v>298</v>
+      </c>
+      <c r="J144" s="31">
+        <v>7.66</v>
+      </c>
       <c r="K144" s="31"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="L144" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M144" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N144" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="16.3">
       <c r="A145" s="35"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="32"/>
+      <c r="B145" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D145" s="32"/>
       <c r="E145" s="19"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
+      <c r="F145" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G145" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H145" s="32"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="31"/>
+      <c r="I145" s="34">
+        <v>298</v>
+      </c>
+      <c r="J145" s="31">
+        <v>829000000</v>
+      </c>
       <c r="K145" s="31"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="L145" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M145" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N145" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="16.3">
       <c r="A146" s="35"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="32"/>
+      <c r="B146" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D146" s="32"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
+      <c r="F146" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G146" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H146" s="32"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="31"/>
+      <c r="I146" s="34">
+        <v>298</v>
+      </c>
+      <c r="J146" s="31">
+        <v>7.63</v>
+      </c>
       <c r="K146" s="31"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="L146" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M146" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N146" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="16.3">
       <c r="A147" s="35"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="32"/>
+      <c r="B147" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D147" s="32"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
+      <c r="F147" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G147" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H147" s="32"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="31"/>
+      <c r="I147" s="34">
+        <v>298</v>
+      </c>
+      <c r="J147" s="31">
+        <v>859000000</v>
+      </c>
       <c r="K147" s="31"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="L147" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M147" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N147" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="16.3">
       <c r="A148" s="35"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="32"/>
+      <c r="B148" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D148" s="32"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
+      <c r="F148" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G148" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H148" s="32"/>
-      <c r="I148" s="34"/>
-      <c r="J148" s="31"/>
+      <c r="I148" s="34">
+        <v>298</v>
+      </c>
+      <c r="J148" s="31">
+        <v>7.59</v>
+      </c>
       <c r="K148" s="31"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="L148" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M148" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N148" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="16.3">
       <c r="A149" s="35"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="32"/>
+      <c r="B149" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D149" s="32"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
+      <c r="F149" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G149" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H149" s="32"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="31"/>
+      <c r="I149" s="34">
+        <v>298</v>
+      </c>
+      <c r="J149" s="31">
+        <v>946000000</v>
+      </c>
       <c r="K149" s="31"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="L149" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M149" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N149" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="16.3">
       <c r="A150" s="35"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="32"/>
+      <c r="B150" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D150" s="32"/>
       <c r="E150" s="19"/>
-      <c r="F150" s="32"/>
-      <c r="G150" s="32"/>
+      <c r="F150" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G150" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H150" s="32"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="31"/>
+      <c r="I150" s="34">
+        <v>298</v>
+      </c>
+      <c r="J150" s="31">
+        <v>7.54</v>
+      </c>
       <c r="K150" s="31"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="L150" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M150" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N150" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="16.3">
       <c r="A151" s="35"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="32"/>
+      <c r="B151" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D151" s="32"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="32"/>
+      <c r="F151" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G151" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H151" s="32"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="31"/>
+      <c r="I151" s="34">
+        <v>298</v>
+      </c>
+      <c r="J151" s="31">
+        <v>1007000000</v>
+      </c>
       <c r="K151" s="31"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19"/>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="L151" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M151" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N151" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="16.3">
       <c r="A152" s="35"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="32"/>
+      <c r="B152" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D152" s="32"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="32"/>
-      <c r="G152" s="32"/>
+      <c r="F152" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G152" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H152" s="32"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="31"/>
+      <c r="I152" s="34">
+        <v>298</v>
+      </c>
+      <c r="J152" s="31">
+        <v>7510</v>
+      </c>
       <c r="K152" s="31"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-    </row>
-    <row r="153" spans="1:14">
-      <c r="A153" s="35"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="32"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="31"/>
+      <c r="L152" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M152" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N152" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="16.3">
+      <c r="B153" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F153" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G153" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I153" s="34">
+        <v>298</v>
+      </c>
+      <c r="J153" s="31">
+        <v>2222000000</v>
+      </c>
       <c r="K153" s="31"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="L153" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M153" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N153" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="16.3">
       <c r="A154" s="35"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="32"/>
+      <c r="B154" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="D154" s="32"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="32"/>
-      <c r="G154" s="32"/>
+      <c r="F154" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G154" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H154" s="32"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="31"/>
+      <c r="I154" s="34">
+        <v>298</v>
+      </c>
+      <c r="J154" s="31">
+        <v>20.5</v>
+      </c>
       <c r="K154" s="31"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="L154" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M154" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N154" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="16.3">
       <c r="A155" s="35"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="32"/>
+      <c r="B155" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="D155" s="32"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="32"/>
-      <c r="G155" s="32"/>
+      <c r="F155" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G155" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H155" s="32"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="31"/>
+      <c r="I155" s="34">
+        <v>298</v>
+      </c>
+      <c r="J155" s="31">
+        <v>7.13</v>
+      </c>
       <c r="K155" s="31"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" s="35"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="32"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="31"/>
+      <c r="L155" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M155" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N155" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="16.3">
+      <c r="B156" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F156" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G156" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I156" s="34">
+        <v>298</v>
+      </c>
+      <c r="J156" s="31">
+        <v>1691000000</v>
+      </c>
       <c r="K156" s="31"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
-    </row>
-    <row r="157" spans="1:14">
+      <c r="L156" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M156" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N156" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="16.3">
       <c r="A157" s="35"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="32"/>
+      <c r="B157" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="D157" s="32"/>
       <c r="E157" s="19"/>
-      <c r="F157" s="32"/>
-      <c r="G157" s="32"/>
+      <c r="F157" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G157" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H157" s="32"/>
-      <c r="I157" s="34"/>
-      <c r="J157" s="31"/>
+      <c r="I157" s="34">
+        <v>298</v>
+      </c>
+      <c r="J157" s="31">
+        <v>23.2</v>
+      </c>
       <c r="K157" s="31"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
-    </row>
-    <row r="158" spans="1:14">
+      <c r="L157" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M157" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N157" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="16.3">
       <c r="A158" s="35"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="32"/>
+      <c r="B158" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="D158" s="32"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="32"/>
+      <c r="F158" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G158" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H158" s="32"/>
-      <c r="I158" s="34"/>
-      <c r="J158" s="31"/>
+      <c r="I158" s="34">
+        <v>298</v>
+      </c>
+      <c r="J158" s="31">
+        <v>6890</v>
+      </c>
       <c r="K158" s="31"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" s="35"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="32"/>
-      <c r="H159" s="32"/>
-      <c r="I159" s="34"/>
-      <c r="J159" s="31"/>
+      <c r="L158" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M158" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N158" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="16.3">
+      <c r="B159" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F159" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I159" s="34">
+        <v>298</v>
+      </c>
+      <c r="J159" s="31">
+        <v>1588000000</v>
+      </c>
       <c r="K159" s="31"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="L159" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M159" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N159" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="16.3">
       <c r="A160" s="35"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="32"/>
+      <c r="B160" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="D160" s="32"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="32"/>
-      <c r="G160" s="32"/>
+      <c r="F160" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G160" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H160" s="32"/>
-      <c r="I160" s="34"/>
-      <c r="J160" s="31"/>
+      <c r="I160" s="34">
+        <v>298</v>
+      </c>
+      <c r="J160" s="31">
+        <v>25.8</v>
+      </c>
       <c r="K160" s="31"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-    </row>
-    <row r="161" spans="1:14">
+      <c r="L160" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M160" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N160" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="16.3">
       <c r="A161" s="35"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="32"/>
+      <c r="B161" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="D161" s="32"/>
       <c r="E161" s="19"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="32"/>
+      <c r="F161" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G161" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H161" s="32"/>
-      <c r="I161" s="34"/>
-      <c r="J161" s="31"/>
+      <c r="I161" s="34">
+        <v>298</v>
+      </c>
+      <c r="J161" s="31">
+        <v>2.69</v>
+      </c>
       <c r="K161" s="31"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-    </row>
-    <row r="162" spans="1:14">
-      <c r="A162" s="35"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="32"/>
-      <c r="I162" s="34"/>
-      <c r="J162" s="31"/>
-      <c r="K162" s="31"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-    </row>
-    <row r="163" spans="1:14">
+      <c r="L161" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M161" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N161" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="16.3">
+      <c r="B162" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F162" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G162" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I162" s="34">
+        <v>298</v>
+      </c>
+      <c r="J162" s="31">
+        <v>1390000000</v>
+      </c>
+      <c r="K162" s="31">
+        <v>11000000</v>
+      </c>
+      <c r="L162" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M162" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N162" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="16.3">
       <c r="A163" s="35"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="32"/>
+      <c r="B163" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D163" s="32"/>
       <c r="E163" s="19"/>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
+      <c r="F163" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G163" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H163" s="32"/>
-      <c r="I163" s="34"/>
-      <c r="J163" s="31"/>
+      <c r="I163" s="34">
+        <v>298</v>
+      </c>
+      <c r="J163" s="31">
+        <v>16.899999999999999</v>
+      </c>
       <c r="K163" s="31"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
-    </row>
-    <row r="164" spans="1:14">
+      <c r="L163" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M163" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N163" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="16.3">
       <c r="A164" s="35"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="32"/>
+      <c r="B164" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D164" s="32"/>
       <c r="E164" s="19"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
+      <c r="F164" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G164" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H164" s="32"/>
-      <c r="I164" s="34"/>
-      <c r="J164" s="31"/>
+      <c r="I164" s="34">
+        <v>298</v>
+      </c>
+      <c r="J164" s="31">
+        <v>6.06</v>
+      </c>
       <c r="K164" s="31"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165" s="35"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="32"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="31"/>
-      <c r="K165" s="31"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-    </row>
-    <row r="166" spans="1:14">
+      <c r="L164" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M164" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N164" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="16.3">
+      <c r="B165" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F165" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G165" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I165" s="34">
+        <v>298</v>
+      </c>
+      <c r="J165" s="31">
+        <v>1028000000</v>
+      </c>
+      <c r="K165" s="31">
+        <v>25000000</v>
+      </c>
+      <c r="L165" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M165" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N165" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="16.3">
       <c r="A166" s="35"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="32"/>
+      <c r="B166" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D166" s="32"/>
       <c r="E166" s="19"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
+      <c r="F166" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G166" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H166" s="32"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="31"/>
+      <c r="I166" s="34">
+        <v>298</v>
+      </c>
+      <c r="J166" s="31">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="K166" s="31"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-    </row>
-    <row r="167" spans="1:14">
+      <c r="L166" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M166" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N166" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="16.3">
       <c r="A167" s="35"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="32"/>
+      <c r="B167" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D167" s="32"/>
       <c r="E167" s="19"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="32"/>
+      <c r="F167" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G167" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H167" s="32"/>
-      <c r="I167" s="34"/>
-      <c r="J167" s="31"/>
+      <c r="I167" s="34">
+        <v>298</v>
+      </c>
+      <c r="J167" s="31">
+        <v>6100</v>
+      </c>
       <c r="K167" s="31"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168" s="35"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="32"/>
-      <c r="I168" s="34"/>
-      <c r="J168" s="31"/>
-      <c r="K168" s="31"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="L167" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M167" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N167" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="16.3">
+      <c r="B168" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F168" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G168" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I168" s="34">
+        <v>298</v>
+      </c>
+      <c r="J168" s="31">
+        <v>1480000000</v>
+      </c>
+      <c r="K168" s="31">
+        <v>19000000</v>
+      </c>
+      <c r="L168" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M168" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N168" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="16.3">
       <c r="A169" s="35"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="32"/>
+      <c r="B169" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D169" s="32"/>
       <c r="E169" s="19"/>
-      <c r="F169" s="32"/>
-      <c r="G169" s="32"/>
+      <c r="F169" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G169" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H169" s="32"/>
-      <c r="I169" s="34"/>
-      <c r="J169" s="31"/>
+      <c r="I169" s="34">
+        <v>298</v>
+      </c>
+      <c r="J169" s="31">
+        <v>14.1</v>
+      </c>
       <c r="K169" s="31"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-    </row>
-    <row r="170" spans="1:14">
+      <c r="L169" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M169" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N169" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="16.3">
       <c r="A170" s="35"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="32"/>
+      <c r="B170" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D170" s="32"/>
       <c r="E170" s="19"/>
-      <c r="F170" s="32"/>
-      <c r="G170" s="32"/>
+      <c r="F170" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G170" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H170" s="32"/>
-      <c r="I170" s="34"/>
-      <c r="J170" s="31"/>
+      <c r="I170" s="34">
+        <v>298</v>
+      </c>
+      <c r="J170" s="31">
+        <v>5760</v>
+      </c>
       <c r="K170" s="31"/>
-      <c r="L170" s="19"/>
-      <c r="M170" s="19"/>
-      <c r="N170" s="19"/>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="A171" s="35"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="32"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="34"/>
-      <c r="J171" s="31"/>
-      <c r="K171" s="31"/>
-      <c r="L171" s="19"/>
-      <c r="M171" s="19"/>
-      <c r="N171" s="19"/>
-    </row>
-    <row r="172" spans="1:14">
+      <c r="L170" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M170" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N170" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="16.3">
+      <c r="B171" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F171" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G171" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I171" s="34">
+        <v>298</v>
+      </c>
+      <c r="J171" s="31">
+        <v>1251000000</v>
+      </c>
+      <c r="K171" s="31">
+        <v>2000000</v>
+      </c>
+      <c r="L171" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M171" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N171" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="16.3">
       <c r="A172" s="35"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="32"/>
+      <c r="B172" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D172" s="32"/>
       <c r="E172" s="19"/>
-      <c r="F172" s="32"/>
-      <c r="G172" s="32"/>
+      <c r="F172" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G172" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H172" s="32"/>
-      <c r="I172" s="34"/>
-      <c r="J172" s="31"/>
+      <c r="I172" s="34">
+        <v>298</v>
+      </c>
+      <c r="J172" s="31">
+        <v>7.3</v>
+      </c>
       <c r="K172" s="31"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19"/>
-      <c r="N172" s="19"/>
-    </row>
-    <row r="173" spans="1:14">
+      <c r="L172" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M172" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N172" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="16.3">
       <c r="A173" s="35"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="32"/>
+      <c r="B173" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D173" s="32"/>
       <c r="E173" s="19"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
+      <c r="F173" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G173" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H173" s="32"/>
-      <c r="I173" s="34"/>
-      <c r="J173" s="31"/>
+      <c r="I173" s="34">
+        <v>298</v>
+      </c>
+      <c r="J173" s="31">
+        <v>5850</v>
+      </c>
       <c r="K173" s="31"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="19"/>
-      <c r="N173" s="19"/>
-    </row>
-    <row r="174" spans="1:14">
+      <c r="L173" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M173" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N173" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="16.3">
       <c r="A174" s="35"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="32"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="32"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="32"/>
-      <c r="I174" s="34"/>
-      <c r="J174" s="31"/>
-      <c r="K174" s="31"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
-      <c r="N174" s="19"/>
-    </row>
-    <row r="175" spans="1:14">
+      <c r="B174" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F174" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G174" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I174" s="34">
+        <v>298</v>
+      </c>
+      <c r="J174" s="31">
+        <v>797000000</v>
+      </c>
+      <c r="K174" s="31">
+        <v>3000000</v>
+      </c>
+      <c r="L174" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M174" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N174" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="16.3">
       <c r="A175" s="35"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="32"/>
+      <c r="B175" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D175" s="32"/>
       <c r="E175" s="19"/>
-      <c r="F175" s="32"/>
-      <c r="G175" s="32"/>
+      <c r="F175" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G175" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H175" s="32"/>
-      <c r="I175" s="34"/>
-      <c r="J175" s="31"/>
+      <c r="I175" s="34">
+        <v>298</v>
+      </c>
+      <c r="J175" s="31">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="K175" s="31"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="19"/>
-      <c r="N175" s="19"/>
-    </row>
-    <row r="176" spans="1:14">
+      <c r="L175" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M175" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N175" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="16.3">
       <c r="A176" s="35"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="32"/>
+      <c r="B176" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C176" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="D176" s="32"/>
       <c r="E176" s="19"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="32"/>
+      <c r="F176" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G176" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H176" s="32"/>
-      <c r="I176" s="34"/>
-      <c r="J176" s="31"/>
+      <c r="I176" s="34">
+        <v>298</v>
+      </c>
+      <c r="J176" s="31">
+        <v>5960</v>
+      </c>
       <c r="K176" s="31"/>
-      <c r="L176" s="19"/>
-      <c r="M176" s="19"/>
-      <c r="N176" s="19"/>
-    </row>
-    <row r="177" spans="1:14">
+      <c r="L176" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M176" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N176" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="16.3">
       <c r="A177" s="35"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="32"/>
+      <c r="B177" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C177" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D177" s="32"/>
       <c r="E177" s="19"/>
-      <c r="F177" s="32"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="32"/>
-      <c r="I177" s="34"/>
-      <c r="J177" s="31"/>
+      <c r="F177" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G177" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I177" s="34">
+        <v>298</v>
+      </c>
+      <c r="J177" s="31">
+        <v>1489000000</v>
+      </c>
       <c r="K177" s="31"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-    </row>
-    <row r="178" spans="1:14">
+      <c r="L177" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M177" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N177" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="16.3">
       <c r="A178" s="35"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="32"/>
+      <c r="B178" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D178" s="32"/>
       <c r="E178" s="19"/>
-      <c r="F178" s="32"/>
-      <c r="G178" s="32"/>
+      <c r="F178" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G178" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H178" s="32"/>
-      <c r="I178" s="34"/>
-      <c r="J178" s="31"/>
+      <c r="I178" s="34">
+        <v>298</v>
+      </c>
+      <c r="J178" s="31">
+        <v>21</v>
+      </c>
       <c r="K178" s="31"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-    </row>
-    <row r="179" spans="1:14">
+      <c r="L178" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M178" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N178" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="16.3">
       <c r="A179" s="35"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="32"/>
+      <c r="B179" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C179" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D179" s="32"/>
       <c r="E179" s="19"/>
-      <c r="F179" s="32"/>
-      <c r="G179" s="32"/>
+      <c r="F179" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G179" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H179" s="32"/>
-      <c r="I179" s="34"/>
-      <c r="J179" s="31"/>
+      <c r="I179" s="34">
+        <v>298</v>
+      </c>
+      <c r="J179" s="31">
+        <v>8900</v>
+      </c>
       <c r="K179" s="31"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
-      <c r="N179" s="19"/>
-    </row>
-    <row r="180" spans="1:14">
+      <c r="L179" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M179" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N179" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="16.3">
       <c r="A180" s="35"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="32"/>
+      <c r="B180" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C180" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D180" s="32"/>
       <c r="E180" s="19"/>
-      <c r="F180" s="32"/>
-      <c r="G180" s="32"/>
-      <c r="H180" s="32"/>
-      <c r="I180" s="34"/>
-      <c r="J180" s="31"/>
+      <c r="F180" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G180" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I180" s="34">
+        <v>298</v>
+      </c>
+      <c r="J180" s="31">
+        <v>1188000000</v>
+      </c>
       <c r="K180" s="31"/>
-      <c r="L180" s="19"/>
-      <c r="M180" s="19"/>
-      <c r="N180" s="19"/>
-    </row>
-    <row r="181" spans="1:14">
+      <c r="L180" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M180" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N180" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="16.3">
       <c r="A181" s="35"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="32"/>
+      <c r="B181" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D181" s="32"/>
       <c r="E181" s="19"/>
-      <c r="F181" s="32"/>
-      <c r="G181" s="32"/>
+      <c r="F181" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G181" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H181" s="32"/>
-      <c r="I181" s="34"/>
-      <c r="J181" s="31"/>
+      <c r="I181" s="34">
+        <v>298</v>
+      </c>
+      <c r="J181" s="31">
+        <v>9.6</v>
+      </c>
       <c r="K181" s="31"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="19"/>
-      <c r="N181" s="19"/>
-    </row>
-    <row r="182" spans="1:14">
+      <c r="L181" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M181" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N181" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="16.3">
       <c r="A182" s="35"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="32"/>
+      <c r="B182" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D182" s="32"/>
       <c r="E182" s="19"/>
-      <c r="F182" s="32"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="32"/>
-      <c r="I182" s="34"/>
-      <c r="J182" s="31"/>
+      <c r="F182" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G182" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I182" s="34">
+        <v>298</v>
+      </c>
+      <c r="J182" s="31">
+        <v>2350000000</v>
+      </c>
       <c r="K182" s="31"/>
-      <c r="L182" s="19"/>
-      <c r="M182" s="19"/>
-      <c r="N182" s="19"/>
-    </row>
-    <row r="183" spans="1:14">
+      <c r="L182" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M182" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N182" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="16.3">
       <c r="A183" s="35"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="32"/>
+      <c r="B183" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D183" s="32"/>
       <c r="E183" s="19"/>
-      <c r="F183" s="32"/>
-      <c r="G183" s="32"/>
+      <c r="F183" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G183" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H183" s="32"/>
-      <c r="I183" s="34"/>
-      <c r="J183" s="31"/>
+      <c r="I183" s="34">
+        <v>298</v>
+      </c>
+      <c r="J183" s="31">
+        <v>46</v>
+      </c>
       <c r="K183" s="31"/>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19"/>
-      <c r="N183" s="19"/>
-    </row>
-    <row r="184" spans="1:14">
+      <c r="L183" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M183" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N183" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="16.3">
       <c r="A184" s="35"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="32"/>
+      <c r="B184" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D184" s="32"/>
       <c r="E184" s="19"/>
-      <c r="F184" s="32"/>
-      <c r="G184" s="32"/>
+      <c r="F184" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G184" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H184" s="32"/>
-      <c r="I184" s="34"/>
-      <c r="J184" s="31"/>
+      <c r="I184" s="34">
+        <v>298</v>
+      </c>
+      <c r="J184" s="31">
+        <v>9300</v>
+      </c>
       <c r="K184" s="31"/>
-      <c r="L184" s="19"/>
-      <c r="M184" s="19"/>
-      <c r="N184" s="19"/>
-    </row>
-    <row r="185" spans="1:14">
+      <c r="L184" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M184" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N184" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="16.3">
       <c r="A185" s="35"/>
-      <c r="B185" s="19"/>
-      <c r="C185" s="32"/>
+      <c r="B185" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D185" s="32"/>
       <c r="E185" s="19"/>
-      <c r="F185" s="32"/>
-      <c r="G185" s="32"/>
-      <c r="H185" s="32"/>
-      <c r="I185" s="34"/>
-      <c r="J185" s="31"/>
+      <c r="F185" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G185" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I185" s="34">
+        <v>298</v>
+      </c>
+      <c r="J185" s="31">
+        <v>1415000000</v>
+      </c>
       <c r="K185" s="31"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
-      <c r="N185" s="19"/>
-    </row>
-    <row r="186" spans="1:14">
+      <c r="L185" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M185" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N185" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="16.3">
       <c r="A186" s="35"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="32"/>
+      <c r="B186" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D186" s="32"/>
       <c r="E186" s="19"/>
-      <c r="F186" s="32"/>
-      <c r="G186" s="32"/>
+      <c r="F186" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G186" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H186" s="32"/>
-      <c r="I186" s="34"/>
-      <c r="J186" s="31"/>
+      <c r="I186" s="34">
+        <v>298</v>
+      </c>
+      <c r="J186" s="31">
+        <v>30</v>
+      </c>
       <c r="K186" s="31"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="L186" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M186" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N186" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="16.3">
       <c r="A187" s="35"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="32"/>
+      <c r="B187" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D187" s="32"/>
       <c r="E187" s="19"/>
-      <c r="F187" s="32"/>
-      <c r="G187" s="32"/>
+      <c r="F187" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G187" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H187" s="32"/>
-      <c r="I187" s="34"/>
-      <c r="J187" s="31"/>
+      <c r="I187" s="34">
+        <v>298</v>
+      </c>
+      <c r="J187" s="31">
+        <v>9100</v>
+      </c>
       <c r="K187" s="31"/>
-      <c r="L187" s="19"/>
-      <c r="M187" s="19"/>
-      <c r="N187" s="19"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="L187" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M187" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N187" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="16.3">
       <c r="A188" s="35"/>
-      <c r="B188" s="19"/>
-      <c r="C188" s="32"/>
+      <c r="B188" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D188" s="32"/>
       <c r="E188" s="19"/>
-      <c r="F188" s="32"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="32"/>
-      <c r="I188" s="34"/>
-      <c r="J188" s="31"/>
+      <c r="F188" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G188" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I188" s="34">
+        <v>298</v>
+      </c>
+      <c r="J188" s="31">
+        <v>1489000000</v>
+      </c>
       <c r="K188" s="31"/>
-      <c r="L188" s="19"/>
-      <c r="M188" s="19"/>
-      <c r="N188" s="19"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="L188" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M188" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N188" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="16.3">
       <c r="A189" s="35"/>
-      <c r="B189" s="19"/>
-      <c r="C189" s="32"/>
+      <c r="B189" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D189" s="32"/>
       <c r="E189" s="19"/>
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
+      <c r="F189" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G189" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H189" s="32"/>
-      <c r="I189" s="34"/>
-      <c r="J189" s="31"/>
+      <c r="I189" s="34">
+        <v>298</v>
+      </c>
+      <c r="J189" s="31">
+        <v>21</v>
+      </c>
       <c r="K189" s="31"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="19"/>
-      <c r="N189" s="19"/>
-    </row>
-    <row r="190" spans="1:14">
+      <c r="L189" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M189" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N189" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="16.3">
       <c r="A190" s="35"/>
-      <c r="B190" s="19"/>
-      <c r="C190" s="32"/>
+      <c r="B190" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D190" s="32"/>
       <c r="E190" s="19"/>
-      <c r="F190" s="32"/>
-      <c r="G190" s="32"/>
+      <c r="F190" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G190" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H190" s="32"/>
-      <c r="I190" s="34"/>
-      <c r="J190" s="31"/>
+      <c r="I190" s="34">
+        <v>298</v>
+      </c>
+      <c r="J190" s="31">
+        <v>8900</v>
+      </c>
       <c r="K190" s="31"/>
-      <c r="L190" s="19"/>
-      <c r="M190" s="19"/>
-      <c r="N190" s="19"/>
-    </row>
-    <row r="191" spans="1:14">
+      <c r="L190" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M190" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N190" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="16.3">
       <c r="A191" s="35"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="32"/>
+      <c r="B191" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C191" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D191" s="32"/>
       <c r="E191" s="19"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="34"/>
-      <c r="J191" s="31"/>
+      <c r="F191" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G191" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I191" s="34">
+        <v>298</v>
+      </c>
+      <c r="J191" s="31">
+        <v>1176000000</v>
+      </c>
       <c r="K191" s="31"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-    </row>
-    <row r="192" spans="1:14">
+      <c r="L191" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M191" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N191" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="16.3">
       <c r="A192" s="35"/>
-      <c r="B192" s="19"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C192" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D192" s="32"/>
       <c r="E192" s="19"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="32"/>
+      <c r="F192" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G192" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H192" s="32"/>
-      <c r="I192" s="34"/>
-      <c r="J192" s="31"/>
+      <c r="I192" s="34">
+        <v>298</v>
+      </c>
+      <c r="J192" s="31">
+        <v>24.6</v>
+      </c>
       <c r="K192" s="31"/>
-      <c r="L192" s="19"/>
-      <c r="M192" s="19"/>
-      <c r="N192" s="19"/>
-    </row>
-    <row r="193" spans="1:14">
+      <c r="L192" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M192" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N192" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="16.3">
       <c r="A193" s="35"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C193" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="D193" s="32"/>
       <c r="E193" s="19"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
+      <c r="F193" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G193" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H193" s="32"/>
-      <c r="I193" s="34"/>
-      <c r="J193" s="31"/>
+      <c r="I193" s="34">
+        <v>298</v>
+      </c>
+      <c r="J193" s="31">
+        <v>7900</v>
+      </c>
       <c r="K193" s="31"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
-      <c r="N193" s="19"/>
+      <c r="L193" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M193" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N193" s="19" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="35"/>
@@ -11025,6 +12176,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -11039,11 +12195,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -11116,9 +12267,46 @@
     <hyperlink ref="N130" r:id="rId67" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{D3707E56-1D51-485F-85A3-BFF52FD35166}"/>
     <hyperlink ref="N131" r:id="rId68" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{CA061733-25C9-4E53-AC1C-41CCC894DAED}"/>
     <hyperlink ref="N133" r:id="rId69" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{8EE5F968-7532-47E2-A8CC-3CA851BC4AB3}"/>
+    <hyperlink ref="N134" r:id="rId70" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{5249B3BF-0D48-4A10-957F-2DAC1FABE30E}"/>
+    <hyperlink ref="N136" r:id="rId71" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{A3A01AD6-2334-494E-A515-B2683BD8002B}"/>
+    <hyperlink ref="N137" r:id="rId72" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{6D01FFA0-851E-40CE-9026-2BBF07C2E6EA}"/>
+    <hyperlink ref="N139" r:id="rId73" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{A60B14C3-BA9A-498E-A81D-069F84E2DD1A}"/>
+    <hyperlink ref="N141" r:id="rId74" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{2EBA25C4-C78B-4161-95AA-A303FFDFBA5D}"/>
+    <hyperlink ref="N143" r:id="rId75" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{86CE4D8F-0739-476F-9CE6-9D30DF33143D}"/>
+    <hyperlink ref="N145" r:id="rId76" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{4CF8A3C4-EEF6-4BEB-A022-E5550A2C93D8}"/>
+    <hyperlink ref="N147" r:id="rId77" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{B24189AC-7B6C-4313-9FCF-D37392201112}"/>
+    <hyperlink ref="N149" r:id="rId78" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{86D25217-9B5E-490F-AC28-C2AC1E890DFA}"/>
+    <hyperlink ref="N151" r:id="rId79" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{E199ACBF-F56D-49CC-B2F1-EF6220C9ABAF}"/>
+    <hyperlink ref="N153" r:id="rId80" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{B8F23B65-2CE8-40B8-A467-6C4C7A914560}"/>
+    <hyperlink ref="N154" r:id="rId81" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{28C55008-F2C1-4390-8CD4-2F8C773C5C08}"/>
+    <hyperlink ref="N156" r:id="rId82" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{BF799803-70F5-479F-B573-DE393471DA1E}"/>
+    <hyperlink ref="N157" r:id="rId83" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{49996F34-6548-46F6-81AA-B6AA5D5A22DF}"/>
+    <hyperlink ref="N159" r:id="rId84" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{8AD99ED2-107A-4C95-A9EF-8CD15ECD6EA6}"/>
+    <hyperlink ref="N160" r:id="rId85" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{0BC337B2-62E5-4720-8169-36E5440ECBF7}"/>
+    <hyperlink ref="N162" r:id="rId86" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{2C3D2B4A-F36A-43C9-AE31-EED6D0F7258F}"/>
+    <hyperlink ref="N163" r:id="rId87" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{47FC2407-3EAA-4E23-AFC9-A4408375F789}"/>
+    <hyperlink ref="N165" r:id="rId88" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{001EBAE8-E17D-4E28-A780-88E3B7369ACC}"/>
+    <hyperlink ref="N166" r:id="rId89" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{ED13FAFA-820E-43A2-9C52-94C120790E7A}"/>
+    <hyperlink ref="N168" r:id="rId90" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{76947404-35A2-483A-9FC0-7881E81FCD71}"/>
+    <hyperlink ref="N169" r:id="rId91" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{43B849CD-C732-4162-93D2-7D6EC095700A}"/>
+    <hyperlink ref="N171" r:id="rId92" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{72978B36-60E3-45B5-AF53-C4D63222E6F4}"/>
+    <hyperlink ref="N172" r:id="rId93" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{5C680370-EAD0-40C7-B33C-35859C2BE180}"/>
+    <hyperlink ref="N174" r:id="rId94" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{CFA77A49-2418-44FE-8D80-319D9E79C714}"/>
+    <hyperlink ref="N175" r:id="rId95" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{60DCEF0E-9D41-4302-81BB-70E121F492E7}"/>
+    <hyperlink ref="N177" r:id="rId96" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{21C6870E-F106-4264-819B-752E87EC8621}"/>
+    <hyperlink ref="N178" r:id="rId97" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{418418FD-8B4B-42A8-BA1E-63A798E22EFC}"/>
+    <hyperlink ref="N180" r:id="rId98" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{8A000BC9-4054-4CE4-962B-23A992565745}"/>
+    <hyperlink ref="N182" r:id="rId99" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{52040ADC-AAE3-44B6-AB76-903174A50048}"/>
+    <hyperlink ref="N183" r:id="rId100" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{FBA34C8F-142A-4A70-B7E4-0AB4B7CA9E86}"/>
+    <hyperlink ref="N185" r:id="rId101" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{2BC46676-94AF-4336-ACF5-FDF76982C81A}"/>
+    <hyperlink ref="N186" r:id="rId102" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{1F14366E-7900-4777-9D7D-5CF95E1888F8}"/>
+    <hyperlink ref="N188" r:id="rId103" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{4B44F4BA-9DC5-40D3-BDB8-164720E28B39}"/>
+    <hyperlink ref="N189" r:id="rId104" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{969FF046-F30A-41E4-9A88-4CEEE2E4E4E0}"/>
+    <hyperlink ref="N191" r:id="rId105" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{B2F87050-D518-428C-BFA8-CD635A88F898}"/>
+    <hyperlink ref="N192" r:id="rId106" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{25BE3EE0-57A2-47D3-8FF3-E003D53D27D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId70"/>
+  <pageSetup orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
 
@@ -11127,7 +12315,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -11142,38 +12330,41 @@
         <v>61</v>
       </c>
       <c r="B2">
-        <v>18.5</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>18.5</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3">
         <f>B2/SUM(B2:J2)</f>
-        <v>0.185</v>
+        <v>0.125</v>
       </c>
       <c r="C3">
         <f>C2/SUM(B2:J2)</f>
-        <v>0.48</v>
+        <v>0.125</v>
       </c>
       <c r="D3">
         <f>D2/SUM(B2:J2)</f>
-        <v>0.185</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
         <f>E2/SUM(B2:J2)</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
         <f>F2/SUM(B2:J2)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
         <f>G2/SUM(B2:J2)</f>
@@ -11198,23 +12389,23 @@
       </c>
       <c r="B4" s="38">
         <f>B3*100</f>
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="C4" s="38">
         <f t="shared" ref="C4:J4" si="0">C3*100</f>
-        <v>48</v>
+        <v>12.5</v>
       </c>
       <c r="D4" s="38">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="E4" s="38">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F4" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" si="0"/>

--- a/Leon_Contribution_102424.xlsx
+++ b/Leon_Contribution_102424.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E669C-3400-45AD-BE6C-CBC764BC9C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839927AA-1772-4B93-9015-D74760B7BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="218">
   <si>
     <t>Name:</t>
   </si>
@@ -819,6 +819,110 @@
   </si>
   <si>
     <t>Hf12.5 Mo12.5 Nb25 Ti25 Zr25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2.4 Hf12.2 Mo12.2 Nb24.4 Ti24.4 Zr24.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCC+MC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7 Hf11.6 Mo11.6 Nb23.3 Ti23.3 Zr23.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf12.2 Mo12.2 Nb24.4 Ti24.4 Zr24.4 Si2.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCC+M5Si3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf11.5 Mo11.6 Nb23.3 Ti23.3 Zr23.3 Si7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf11.1 Mo11.1 Nb22.2 Ti22.2 Zr22.3 Si11.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf10.6 Mo10.6 Nb21.3 Ti21.3 Zr21.3 Si14.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf10.2 Mo10.2 Nb20.4 Ti20.4 Zr20.4 Si18.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf19.1 Mo4.8 Nb19.1 Ti19 Ta19 Zr19</t>
+  </si>
+  <si>
+    <t>Hf18.1 Mo9.1 Nb18.2 Ti18.2 Ta18.2 Zr18.2</t>
+  </si>
+  <si>
+    <t>Hf17.4 Mo13 Nb17.4 Ti17.4 Ta17.4 Zr17.4</t>
+  </si>
+  <si>
+    <t>Hf16.7 Mo16.7 Nb16.7 Ti16.7 Ta16.6 Zr16.6</t>
+  </si>
+  <si>
+    <t>Hf19.1 Mo4.8 Nb19.1 Ti19 Ta19 Zr19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf23.2 Mo11.6 Nb23.3 Si7 Ti23.3 V11.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf21.3 Mo10.6 Nb21.3 Si14.9 Ti21.3 V10.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf22.2 Nb22.2 Si22.2 Ti22.2 V11.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf18.2 Nb18.2 Si18.2 Ti18.2 V9.1 Zr18.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCC+M5Si3+Laves</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf20 Mo20 Nb20 Ti20 Zr20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo20 Ta20 Nb20 Ti20 V20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo16.6 Ta16.6 W16.7 Nb16.7 Ti16.7 V16.7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo20 Ta20 Nb20 Ti20 Zr20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nb20 Ta20 Ti20 V20 W20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAC</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1563,6 +1667,33 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1612,33 +1743,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1924,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView topLeftCell="A245" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -1961,19 +2065,19 @@
       <c r="B2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -1983,17 +2087,17 @@
       <c r="B3" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -2011,43 +2115,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="49" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2058,19 +2162,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="68"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2115,7 +2219,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="51"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2128,35 +2232,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63" t="s">
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="64"/>
+      <c r="N8" s="73"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="70" t="s">
+      <c r="P8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="72"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="54"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -6635,7 +6739,7 @@
         <v>298</v>
       </c>
       <c r="J128" s="31">
-        <v>6.47</v>
+        <v>6470</v>
       </c>
       <c r="K128" s="31"/>
       <c r="L128" s="19" t="s">
@@ -6785,7 +6889,7 @@
         <v>298</v>
       </c>
       <c r="J132" s="31">
-        <v>6.43</v>
+        <v>6430</v>
       </c>
       <c r="K132" s="31"/>
       <c r="L132" s="19" t="s">
@@ -6844,7 +6948,9 @@
       <c r="C134" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D134" s="32"/>
+      <c r="D134" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="E134" s="19"/>
       <c r="F134" s="32" t="s">
         <v>143</v>
@@ -6868,8 +6974,8 @@
       <c r="M134" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N134" s="44" t="s">
-        <v>166</v>
+      <c r="N134" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="16.3">
@@ -6880,7 +6986,9 @@
       <c r="C135" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D135" s="32"/>
+      <c r="D135" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="E135" s="19"/>
       <c r="F135" s="32" t="s">
         <v>144</v>
@@ -6893,7 +7001,7 @@
         <v>298</v>
       </c>
       <c r="J135" s="31">
-        <v>6.74</v>
+        <v>6740</v>
       </c>
       <c r="K135" s="31"/>
       <c r="L135" s="19" t="s">
@@ -6913,6 +7021,9 @@
       <c r="C136" s="32" t="s">
         <v>169</v>
       </c>
+      <c r="D136" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="F136" s="32" t="s">
         <v>143</v>
       </c>
@@ -6934,8 +7045,8 @@
       <c r="M136" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N136" s="44" t="s">
-        <v>166</v>
+      <c r="N136" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="16.3">
@@ -6946,7 +7057,9 @@
       <c r="C137" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D137" s="32"/>
+      <c r="D137" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="E137" s="19"/>
       <c r="F137" s="32" t="s">
         <v>70</v>
@@ -6968,8 +7081,8 @@
       <c r="M137" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N137" s="44" t="s">
-        <v>166</v>
+      <c r="N137" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="16.3">
@@ -6980,7 +7093,9 @@
       <c r="C138" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D138" s="32"/>
+      <c r="D138" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="E138" s="19"/>
       <c r="F138" s="32" t="s">
         <v>144</v>
@@ -6993,7 +7108,7 @@
         <v>298</v>
       </c>
       <c r="J138" s="31">
-        <v>6.11</v>
+        <v>6110</v>
       </c>
       <c r="K138" s="31"/>
       <c r="L138" s="19" t="s">
@@ -7014,7 +7129,9 @@
       <c r="C139" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D139" s="32"/>
+      <c r="D139" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E139" s="19"/>
       <c r="F139" s="32" t="s">
         <v>143</v>
@@ -7038,8 +7155,8 @@
       <c r="M139" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N139" s="44" t="s">
-        <v>166</v>
+      <c r="N139" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="16.3">
@@ -7050,7 +7167,9 @@
       <c r="C140" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D140" s="32"/>
+      <c r="D140" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E140" s="19"/>
       <c r="F140" s="32" t="s">
         <v>144</v>
@@ -7063,7 +7182,7 @@
         <v>298</v>
       </c>
       <c r="J140" s="31">
-        <v>6.74</v>
+        <v>6740</v>
       </c>
       <c r="K140" s="31"/>
       <c r="L140" s="19" t="s">
@@ -7084,7 +7203,9 @@
       <c r="C141" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D141" s="32"/>
+      <c r="D141" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E141" s="19"/>
       <c r="F141" s="32" t="s">
         <v>143</v>
@@ -7106,8 +7227,8 @@
       <c r="M141" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N141" s="44" t="s">
-        <v>166</v>
+      <c r="N141" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="16.3">
@@ -7118,7 +7239,9 @@
       <c r="C142" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D142" s="32"/>
+      <c r="D142" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E142" s="19"/>
       <c r="F142" s="32" t="s">
         <v>144</v>
@@ -7131,7 +7254,7 @@
         <v>298</v>
       </c>
       <c r="J142" s="31">
-        <v>7.7</v>
+        <v>7700</v>
       </c>
       <c r="K142" s="31"/>
       <c r="L142" s="19" t="s">
@@ -7152,7 +7275,9 @@
       <c r="C143" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D143" s="32"/>
+      <c r="D143" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E143" s="19"/>
       <c r="F143" s="32" t="s">
         <v>143</v>
@@ -7174,8 +7299,8 @@
       <c r="M143" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N143" s="44" t="s">
-        <v>166</v>
+      <c r="N143" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="16.3">
@@ -7186,7 +7311,9 @@
       <c r="C144" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D144" s="32"/>
+      <c r="D144" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E144" s="19"/>
       <c r="F144" s="32" t="s">
         <v>144</v>
@@ -7199,7 +7326,7 @@
         <v>298</v>
       </c>
       <c r="J144" s="31">
-        <v>7.66</v>
+        <v>7660</v>
       </c>
       <c r="K144" s="31"/>
       <c r="L144" s="19" t="s">
@@ -7220,7 +7347,9 @@
       <c r="C145" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D145" s="32"/>
+      <c r="D145" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E145" s="19"/>
       <c r="F145" s="32" t="s">
         <v>143</v>
@@ -7242,8 +7371,8 @@
       <c r="M145" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N145" s="44" t="s">
-        <v>166</v>
+      <c r="N145" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="16.3">
@@ -7254,7 +7383,9 @@
       <c r="C146" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D146" s="32"/>
+      <c r="D146" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E146" s="19"/>
       <c r="F146" s="32" t="s">
         <v>144</v>
@@ -7267,7 +7398,7 @@
         <v>298</v>
       </c>
       <c r="J146" s="31">
-        <v>7.63</v>
+        <v>7630</v>
       </c>
       <c r="K146" s="31"/>
       <c r="L146" s="19" t="s">
@@ -7288,7 +7419,9 @@
       <c r="C147" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D147" s="32"/>
+      <c r="D147" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E147" s="19"/>
       <c r="F147" s="32" t="s">
         <v>143</v>
@@ -7310,8 +7443,8 @@
       <c r="M147" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N147" s="44" t="s">
-        <v>166</v>
+      <c r="N147" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="16.3">
@@ -7322,7 +7455,9 @@
       <c r="C148" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D148" s="32"/>
+      <c r="D148" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E148" s="19"/>
       <c r="F148" s="32" t="s">
         <v>144</v>
@@ -7335,7 +7470,7 @@
         <v>298</v>
       </c>
       <c r="J148" s="31">
-        <v>7.59</v>
+        <v>7590</v>
       </c>
       <c r="K148" s="31"/>
       <c r="L148" s="19" t="s">
@@ -7356,7 +7491,9 @@
       <c r="C149" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D149" s="32"/>
+      <c r="D149" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E149" s="19"/>
       <c r="F149" s="32" t="s">
         <v>143</v>
@@ -7378,8 +7515,8 @@
       <c r="M149" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N149" s="44" t="s">
-        <v>166</v>
+      <c r="N149" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="16.3">
@@ -7390,7 +7527,9 @@
       <c r="C150" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D150" s="32"/>
+      <c r="D150" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E150" s="19"/>
       <c r="F150" s="32" t="s">
         <v>144</v>
@@ -7403,7 +7542,7 @@
         <v>298</v>
       </c>
       <c r="J150" s="31">
-        <v>7.54</v>
+        <v>7540</v>
       </c>
       <c r="K150" s="31"/>
       <c r="L150" s="19" t="s">
@@ -7424,7 +7563,9 @@
       <c r="C151" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D151" s="32"/>
+      <c r="D151" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E151" s="19"/>
       <c r="F151" s="32" t="s">
         <v>143</v>
@@ -7446,8 +7587,8 @@
       <c r="M151" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N151" s="44" t="s">
-        <v>166</v>
+      <c r="N151" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="16.3">
@@ -7458,7 +7599,9 @@
       <c r="C152" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D152" s="32"/>
+      <c r="D152" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E152" s="19"/>
       <c r="F152" s="32" t="s">
         <v>144</v>
@@ -7491,6 +7634,9 @@
       <c r="C153" s="32" t="s">
         <v>103</v>
       </c>
+      <c r="D153" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F153" s="32" t="s">
         <v>143</v>
       </c>
@@ -7510,8 +7656,8 @@
       <c r="M153" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N153" s="44" t="s">
-        <v>166</v>
+      <c r="N153" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="16.3">
@@ -7522,7 +7668,9 @@
       <c r="C154" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D154" s="32"/>
+      <c r="D154" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E154" s="19"/>
       <c r="F154" s="32" t="s">
         <v>70</v>
@@ -7544,8 +7692,8 @@
       <c r="M154" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N154" s="44" t="s">
-        <v>166</v>
+      <c r="N154" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16.3">
@@ -7556,7 +7704,9 @@
       <c r="C155" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D155" s="32"/>
+      <c r="D155" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E155" s="19"/>
       <c r="F155" s="32" t="s">
         <v>144</v>
@@ -7569,7 +7719,7 @@
         <v>298</v>
       </c>
       <c r="J155" s="31">
-        <v>7.13</v>
+        <v>7130</v>
       </c>
       <c r="K155" s="31"/>
       <c r="L155" s="19" t="s">
@@ -7589,6 +7739,9 @@
       <c r="C156" s="32" t="s">
         <v>103</v>
       </c>
+      <c r="D156" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F156" s="32" t="s">
         <v>143</v>
       </c>
@@ -7608,8 +7761,8 @@
       <c r="M156" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N156" s="44" t="s">
-        <v>166</v>
+      <c r="N156" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="16.3">
@@ -7620,7 +7773,9 @@
       <c r="C157" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D157" s="32"/>
+      <c r="D157" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E157" s="19"/>
       <c r="F157" s="32" t="s">
         <v>70</v>
@@ -7642,8 +7797,8 @@
       <c r="M157" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N157" s="44" t="s">
-        <v>166</v>
+      <c r="N157" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="16.3">
@@ -7654,7 +7809,9 @@
       <c r="C158" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D158" s="32"/>
+      <c r="D158" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E158" s="19"/>
       <c r="F158" s="32" t="s">
         <v>144</v>
@@ -7687,6 +7844,9 @@
       <c r="C159" s="32" t="s">
         <v>103</v>
       </c>
+      <c r="D159" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F159" s="32" t="s">
         <v>143</v>
       </c>
@@ -7706,8 +7866,8 @@
       <c r="M159" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N159" s="44" t="s">
-        <v>166</v>
+      <c r="N159" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="16.3">
@@ -7718,7 +7878,9 @@
       <c r="C160" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D160" s="32"/>
+      <c r="D160" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E160" s="19"/>
       <c r="F160" s="32" t="s">
         <v>70</v>
@@ -7740,8 +7902,8 @@
       <c r="M160" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N160" s="44" t="s">
-        <v>166</v>
+      <c r="N160" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="16.3">
@@ -7752,7 +7914,9 @@
       <c r="C161" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="32"/>
+      <c r="D161" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E161" s="19"/>
       <c r="F161" s="32" t="s">
         <v>144</v>
@@ -7765,7 +7929,7 @@
         <v>298</v>
       </c>
       <c r="J161" s="31">
-        <v>2.69</v>
+        <v>6690</v>
       </c>
       <c r="K161" s="31"/>
       <c r="L161" s="19" t="s">
@@ -7785,6 +7949,9 @@
       <c r="C162" s="32" t="s">
         <v>64</v>
       </c>
+      <c r="D162" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F162" s="32" t="s">
         <v>143</v>
       </c>
@@ -7806,8 +7973,8 @@
       <c r="M162" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N162" s="44" t="s">
-        <v>166</v>
+      <c r="N162" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="16.3">
@@ -7818,7 +7985,9 @@
       <c r="C163" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D163" s="32"/>
+      <c r="D163" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E163" s="19"/>
       <c r="F163" s="32" t="s">
         <v>70</v>
@@ -7840,8 +8009,8 @@
       <c r="M163" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N163" s="44" t="s">
-        <v>166</v>
+      <c r="N163" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="16.3">
@@ -7852,7 +8021,9 @@
       <c r="C164" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D164" s="32"/>
+      <c r="D164" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E164" s="19"/>
       <c r="F164" s="32" t="s">
         <v>144</v>
@@ -7865,7 +8036,7 @@
         <v>298</v>
       </c>
       <c r="J164" s="31">
-        <v>6.06</v>
+        <v>6060</v>
       </c>
       <c r="K164" s="31"/>
       <c r="L164" s="19" t="s">
@@ -7885,6 +8056,9 @@
       <c r="C165" s="32" t="s">
         <v>64</v>
       </c>
+      <c r="D165" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F165" s="32" t="s">
         <v>143</v>
       </c>
@@ -7906,8 +8080,8 @@
       <c r="M165" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N165" s="44" t="s">
-        <v>166</v>
+      <c r="N165" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="16.3">
@@ -7918,7 +8092,9 @@
       <c r="C166" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D166" s="32"/>
+      <c r="D166" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E166" s="19"/>
       <c r="F166" s="32" t="s">
         <v>70</v>
@@ -7940,8 +8116,8 @@
       <c r="M166" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N166" s="44" t="s">
-        <v>166</v>
+      <c r="N166" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="16.3">
@@ -7952,7 +8128,9 @@
       <c r="C167" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D167" s="32"/>
+      <c r="D167" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E167" s="19"/>
       <c r="F167" s="32" t="s">
         <v>144</v>
@@ -7985,6 +8163,9 @@
       <c r="C168" s="32" t="s">
         <v>64</v>
       </c>
+      <c r="D168" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F168" s="32" t="s">
         <v>143</v>
       </c>
@@ -8006,8 +8187,8 @@
       <c r="M168" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N168" s="44" t="s">
-        <v>166</v>
+      <c r="N168" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="16.3">
@@ -8018,7 +8199,9 @@
       <c r="C169" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D169" s="32"/>
+      <c r="D169" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E169" s="19"/>
       <c r="F169" s="32" t="s">
         <v>70</v>
@@ -8040,8 +8223,8 @@
       <c r="M169" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N169" s="44" t="s">
-        <v>166</v>
+      <c r="N169" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="16.3">
@@ -8052,7 +8235,9 @@
       <c r="C170" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D170" s="32"/>
+      <c r="D170" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E170" s="19"/>
       <c r="F170" s="32" t="s">
         <v>144</v>
@@ -8085,6 +8270,9 @@
       <c r="C171" s="32" t="s">
         <v>64</v>
       </c>
+      <c r="D171" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F171" s="32" t="s">
         <v>143</v>
       </c>
@@ -8106,8 +8294,8 @@
       <c r="M171" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N171" s="44" t="s">
-        <v>166</v>
+      <c r="N171" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="16.3">
@@ -8118,7 +8306,9 @@
       <c r="C172" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D172" s="32"/>
+      <c r="D172" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E172" s="19"/>
       <c r="F172" s="32" t="s">
         <v>70</v>
@@ -8140,8 +8330,8 @@
       <c r="M172" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N172" s="44" t="s">
-        <v>166</v>
+      <c r="N172" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="16.3">
@@ -8152,7 +8342,9 @@
       <c r="C173" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D173" s="32"/>
+      <c r="D173" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E173" s="19"/>
       <c r="F173" s="32" t="s">
         <v>144</v>
@@ -8186,6 +8378,9 @@
       <c r="C174" s="32" t="s">
         <v>64</v>
       </c>
+      <c r="D174" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F174" s="32" t="s">
         <v>143</v>
       </c>
@@ -8207,8 +8402,8 @@
       <c r="M174" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N174" s="44" t="s">
-        <v>166</v>
+      <c r="N174" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.3">
@@ -8219,7 +8414,9 @@
       <c r="C175" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D175" s="32"/>
+      <c r="D175" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E175" s="19"/>
       <c r="F175" s="32" t="s">
         <v>70</v>
@@ -8241,8 +8438,8 @@
       <c r="M175" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N175" s="44" t="s">
-        <v>166</v>
+      <c r="N175" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="16.3">
@@ -8253,7 +8450,9 @@
       <c r="C176" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D176" s="32"/>
+      <c r="D176" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E176" s="19"/>
       <c r="F176" s="32" t="s">
         <v>144</v>
@@ -8287,7 +8486,9 @@
       <c r="C177" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D177" s="32"/>
+      <c r="D177" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E177" s="19"/>
       <c r="F177" s="32" t="s">
         <v>143</v>
@@ -8308,8 +8509,8 @@
       <c r="M177" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N177" s="44" t="s">
-        <v>166</v>
+      <c r="N177" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="16.3">
@@ -8320,7 +8521,9 @@
       <c r="C178" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D178" s="32"/>
+      <c r="D178" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E178" s="19"/>
       <c r="F178" s="32" t="s">
         <v>70</v>
@@ -8342,8 +8545,8 @@
       <c r="M178" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N178" s="44" t="s">
-        <v>166</v>
+      <c r="N178" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="16.3">
@@ -8354,7 +8557,9 @@
       <c r="C179" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D179" s="32"/>
+      <c r="D179" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E179" s="19"/>
       <c r="F179" s="32" t="s">
         <v>144</v>
@@ -8388,7 +8593,9 @@
       <c r="C180" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D180" s="32"/>
+      <c r="D180" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E180" s="19"/>
       <c r="F180" s="32" t="s">
         <v>143</v>
@@ -8409,8 +8616,8 @@
       <c r="M180" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N180" s="44" t="s">
-        <v>166</v>
+      <c r="N180" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="16.3">
@@ -8421,7 +8628,9 @@
       <c r="C181" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D181" s="32"/>
+      <c r="D181" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E181" s="19"/>
       <c r="F181" s="32" t="s">
         <v>144</v>
@@ -8455,7 +8664,9 @@
       <c r="C182" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D182" s="32"/>
+      <c r="D182" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E182" s="19"/>
       <c r="F182" s="32" t="s">
         <v>143</v>
@@ -8476,8 +8687,8 @@
       <c r="M182" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N182" s="44" t="s">
-        <v>166</v>
+      <c r="N182" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="16.3">
@@ -8488,7 +8699,9 @@
       <c r="C183" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D183" s="32"/>
+      <c r="D183" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E183" s="19"/>
       <c r="F183" s="32" t="s">
         <v>70</v>
@@ -8510,8 +8723,8 @@
       <c r="M183" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N183" s="44" t="s">
-        <v>166</v>
+      <c r="N183" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="16.3">
@@ -8522,7 +8735,9 @@
       <c r="C184" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D184" s="32"/>
+      <c r="D184" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E184" s="19"/>
       <c r="F184" s="32" t="s">
         <v>144</v>
@@ -8556,7 +8771,9 @@
       <c r="C185" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D185" s="32"/>
+      <c r="D185" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E185" s="19"/>
       <c r="F185" s="32" t="s">
         <v>143</v>
@@ -8577,8 +8794,8 @@
       <c r="M185" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N185" s="44" t="s">
-        <v>166</v>
+      <c r="N185" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="16.3">
@@ -8589,7 +8806,9 @@
       <c r="C186" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D186" s="32"/>
+      <c r="D186" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E186" s="19"/>
       <c r="F186" s="32" t="s">
         <v>70</v>
@@ -8611,8 +8830,8 @@
       <c r="M186" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N186" s="44" t="s">
-        <v>166</v>
+      <c r="N186" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="16.3">
@@ -8623,7 +8842,9 @@
       <c r="C187" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D187" s="32"/>
+      <c r="D187" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E187" s="19"/>
       <c r="F187" s="32" t="s">
         <v>144</v>
@@ -8657,7 +8878,9 @@
       <c r="C188" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D188" s="32"/>
+      <c r="D188" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E188" s="19"/>
       <c r="F188" s="32" t="s">
         <v>143</v>
@@ -8678,8 +8901,8 @@
       <c r="M188" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N188" s="44" t="s">
-        <v>166</v>
+      <c r="N188" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="16.3">
@@ -8690,7 +8913,9 @@
       <c r="C189" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D189" s="32"/>
+      <c r="D189" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E189" s="19"/>
       <c r="F189" s="32" t="s">
         <v>70</v>
@@ -8712,8 +8937,8 @@
       <c r="M189" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N189" s="44" t="s">
-        <v>166</v>
+      <c r="N189" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="16.3">
@@ -8724,7 +8949,9 @@
       <c r="C190" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D190" s="32"/>
+      <c r="D190" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E190" s="19"/>
       <c r="F190" s="32" t="s">
         <v>144</v>
@@ -8758,7 +8985,9 @@
       <c r="C191" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D191" s="32"/>
+      <c r="D191" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E191" s="19"/>
       <c r="F191" s="32" t="s">
         <v>143</v>
@@ -8779,8 +9008,8 @@
       <c r="M191" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N191" s="44" t="s">
-        <v>166</v>
+      <c r="N191" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="16.3">
@@ -8791,7 +9020,9 @@
       <c r="C192" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D192" s="32"/>
+      <c r="D192" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E192" s="19"/>
       <c r="F192" s="32" t="s">
         <v>70</v>
@@ -8813,8 +9044,8 @@
       <c r="M192" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N192" s="44" t="s">
-        <v>166</v>
+      <c r="N192" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="16.3">
@@ -8825,7 +9056,9 @@
       <c r="C193" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D193" s="32"/>
+      <c r="D193" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E193" s="19"/>
       <c r="F193" s="32" t="s">
         <v>144</v>
@@ -8851,1013 +9084,2222 @@
         <v>141</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" ht="16.3">
       <c r="A194" s="35"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
+      <c r="B194" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D194" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E194" s="19"/>
-      <c r="F194" s="32"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="34"/>
-      <c r="J194" s="31"/>
+      <c r="F194" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G194" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I194" s="34">
+        <v>298</v>
+      </c>
+      <c r="J194" s="31">
+        <v>1183000000</v>
+      </c>
       <c r="K194" s="31"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
-    </row>
-    <row r="195" spans="1:14">
+      <c r="L194" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M194" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N194" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="16.3">
       <c r="A195" s="35"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
+      <c r="B195" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D195" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E195" s="19"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
+      <c r="F195" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G195" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H195" s="32"/>
-      <c r="I195" s="34"/>
-      <c r="J195" s="31"/>
+      <c r="I195" s="34">
+        <v>298</v>
+      </c>
+      <c r="J195" s="31">
+        <v>35</v>
+      </c>
       <c r="K195" s="31"/>
-      <c r="L195" s="19"/>
-      <c r="M195" s="19"/>
-      <c r="N195" s="19"/>
-    </row>
-    <row r="196" spans="1:14">
+      <c r="L195" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M195" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N195" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="16.3">
       <c r="A196" s="35"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
+      <c r="B196" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D196" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E196" s="19"/>
-      <c r="F196" s="32"/>
-      <c r="G196" s="32"/>
+      <c r="F196" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G196" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H196" s="32"/>
-      <c r="I196" s="34"/>
-      <c r="J196" s="31"/>
+      <c r="I196" s="34">
+        <v>298</v>
+      </c>
+      <c r="J196" s="31">
+        <v>7800</v>
+      </c>
       <c r="K196" s="31"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
-      <c r="N196" s="19"/>
-    </row>
-    <row r="197" spans="1:14">
+      <c r="L196" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M196" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N196" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="16.3">
       <c r="A197" s="35"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
+      <c r="B197" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C197" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D197" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E197" s="19"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
-      <c r="I197" s="34"/>
-      <c r="J197" s="31"/>
+      <c r="F197" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G197" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I197" s="34">
+        <v>298</v>
+      </c>
+      <c r="J197" s="31">
+        <v>1201000000</v>
+      </c>
       <c r="K197" s="31"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
-      <c r="N197" s="19"/>
-    </row>
-    <row r="198" spans="1:14">
+      <c r="L197" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M197" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N197" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="16.3">
       <c r="A198" s="35"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
+      <c r="B198" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D198" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E198" s="19"/>
-      <c r="F198" s="32"/>
-      <c r="G198" s="32"/>
+      <c r="F198" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G198" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H198" s="32"/>
-      <c r="I198" s="34"/>
-      <c r="J198" s="31"/>
+      <c r="I198" s="34">
+        <v>298</v>
+      </c>
+      <c r="J198" s="31">
+        <v>27</v>
+      </c>
       <c r="K198" s="31"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
-      <c r="N198" s="19"/>
-    </row>
-    <row r="199" spans="1:14">
+      <c r="L198" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M198" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N198" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="16.3">
       <c r="A199" s="35"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
+      <c r="B199" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D199" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E199" s="19"/>
-      <c r="F199" s="32"/>
-      <c r="G199" s="32"/>
+      <c r="F199" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G199" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H199" s="32"/>
-      <c r="I199" s="34"/>
-      <c r="J199" s="31"/>
+      <c r="I199" s="34">
+        <v>298</v>
+      </c>
+      <c r="J199" s="31">
+        <v>7700</v>
+      </c>
       <c r="K199" s="31"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-      <c r="N199" s="19"/>
-    </row>
-    <row r="200" spans="1:14">
-      <c r="A200" s="35"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
+      <c r="L199" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M199" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N199" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="16.3">
+      <c r="A200" s="19"/>
+      <c r="B200" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C200" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D200" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E200" s="19"/>
-      <c r="F200" s="32"/>
-      <c r="G200" s="32"/>
-      <c r="H200" s="32"/>
-      <c r="I200" s="34"/>
-      <c r="J200" s="31"/>
+      <c r="F200" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G200" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I200" s="34">
+        <v>298</v>
+      </c>
+      <c r="J200" s="31">
+        <v>1201000000</v>
+      </c>
       <c r="K200" s="31"/>
-      <c r="L200" s="19"/>
-      <c r="M200" s="19"/>
-      <c r="N200" s="19"/>
-    </row>
-    <row r="201" spans="1:14">
+      <c r="L200" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M200" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N200" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="16.3">
       <c r="A201" s="35"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
+      <c r="B201" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C201" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D201" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E201" s="19"/>
-      <c r="F201" s="32"/>
-      <c r="G201" s="32"/>
+      <c r="F201" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G201" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H201" s="32"/>
-      <c r="I201" s="34"/>
-      <c r="J201" s="31"/>
+      <c r="I201" s="34">
+        <v>298</v>
+      </c>
+      <c r="J201" s="31">
+        <v>27</v>
+      </c>
       <c r="K201" s="31"/>
-      <c r="L201" s="19"/>
-      <c r="M201" s="19"/>
-      <c r="N201" s="19"/>
-    </row>
-    <row r="202" spans="1:14">
+      <c r="L201" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M201" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N201" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="16.3">
       <c r="A202" s="35"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
+      <c r="B202" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D202" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E202" s="19"/>
-      <c r="F202" s="32"/>
-      <c r="G202" s="32"/>
+      <c r="F202" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G202" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H202" s="32"/>
-      <c r="I202" s="34"/>
-      <c r="J202" s="31"/>
+      <c r="I202" s="34">
+        <v>298</v>
+      </c>
+      <c r="J202" s="31">
+        <v>7700</v>
+      </c>
       <c r="K202" s="31"/>
-      <c r="L202" s="19"/>
-      <c r="M202" s="19"/>
-      <c r="N202" s="19"/>
-    </row>
-    <row r="203" spans="1:14">
-      <c r="A203" s="35"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
+      <c r="L202" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M202" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N202" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="16.3">
+      <c r="B203" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C203" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D203" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E203" s="19"/>
-      <c r="F203" s="32"/>
-      <c r="G203" s="32"/>
-      <c r="H203" s="32"/>
-      <c r="I203" s="34"/>
-      <c r="J203" s="31"/>
+      <c r="F203" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G203" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I203" s="34">
+        <v>298</v>
+      </c>
+      <c r="J203" s="31">
+        <v>1350000000</v>
+      </c>
       <c r="K203" s="31"/>
-      <c r="L203" s="19"/>
-      <c r="M203" s="19"/>
-      <c r="N203" s="19"/>
-    </row>
-    <row r="204" spans="1:14">
+      <c r="L203" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M203" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N203" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="16.3">
       <c r="A204" s="35"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
+      <c r="B204" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C204" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D204" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E204" s="19"/>
-      <c r="F204" s="32"/>
-      <c r="G204" s="32"/>
+      <c r="F204" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G204" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H204" s="32"/>
-      <c r="I204" s="34"/>
-      <c r="J204" s="31"/>
+      <c r="I204" s="34">
+        <v>298</v>
+      </c>
+      <c r="J204" s="31">
+        <v>27</v>
+      </c>
       <c r="K204" s="31"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
-      <c r="N204" s="19"/>
-    </row>
-    <row r="205" spans="1:14">
+      <c r="L204" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M204" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N204" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="16.3">
       <c r="A205" s="35"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="32"/>
-      <c r="D205" s="32"/>
+      <c r="B205" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C205" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D205" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E205" s="19"/>
-      <c r="F205" s="32"/>
-      <c r="G205" s="32"/>
+      <c r="F205" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G205" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H205" s="32"/>
-      <c r="I205" s="34"/>
-      <c r="J205" s="31"/>
+      <c r="I205" s="34">
+        <v>298</v>
+      </c>
+      <c r="J205" s="31">
+        <v>7700</v>
+      </c>
       <c r="K205" s="31"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
-      <c r="N205" s="19"/>
-    </row>
-    <row r="206" spans="1:14">
-      <c r="A206" s="35"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
+      <c r="L205" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M205" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N205" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="16.3">
+      <c r="B206" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C206" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D206" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E206" s="19"/>
-      <c r="F206" s="32"/>
-      <c r="G206" s="32"/>
-      <c r="H206" s="32"/>
-      <c r="I206" s="34"/>
-      <c r="J206" s="31"/>
+      <c r="F206" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G206" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I206" s="34">
+        <v>298</v>
+      </c>
+      <c r="J206" s="31">
+        <v>1370000000</v>
+      </c>
       <c r="K206" s="31"/>
-      <c r="L206" s="19"/>
-      <c r="M206" s="19"/>
-      <c r="N206" s="19"/>
-    </row>
-    <row r="207" spans="1:14">
+      <c r="L206" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M206" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N206" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="16.3">
       <c r="A207" s="35"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="32"/>
-      <c r="D207" s="32"/>
+      <c r="B207" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C207" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D207" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E207" s="19"/>
-      <c r="F207" s="32"/>
-      <c r="G207" s="32"/>
+      <c r="F207" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G207" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H207" s="32"/>
-      <c r="I207" s="34"/>
-      <c r="J207" s="31"/>
+      <c r="I207" s="34">
+        <v>298</v>
+      </c>
+      <c r="J207" s="31">
+        <v>22</v>
+      </c>
       <c r="K207" s="31"/>
-      <c r="L207" s="19"/>
-      <c r="M207" s="19"/>
-      <c r="N207" s="19"/>
-    </row>
-    <row r="208" spans="1:14">
+      <c r="L207" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M207" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N207" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="16.3">
       <c r="A208" s="35"/>
-      <c r="B208" s="19"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
+      <c r="B208" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C208" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D208" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E208" s="19"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="32"/>
+      <c r="F208" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G208" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H208" s="32"/>
-      <c r="I208" s="34"/>
-      <c r="J208" s="31"/>
+      <c r="I208" s="34">
+        <v>298</v>
+      </c>
+      <c r="J208" s="31">
+        <v>7500</v>
+      </c>
       <c r="K208" s="31"/>
-      <c r="L208" s="19"/>
-      <c r="M208" s="19"/>
-      <c r="N208" s="19"/>
-    </row>
-    <row r="209" spans="1:14">
-      <c r="A209" s="35"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="32"/>
-      <c r="D209" s="32"/>
+      <c r="L208" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M208" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N208" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="16.3">
+      <c r="B209" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C209" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D209" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E209" s="19"/>
-      <c r="F209" s="32"/>
-      <c r="G209" s="32"/>
-      <c r="H209" s="32"/>
-      <c r="I209" s="34"/>
-      <c r="J209" s="31"/>
+      <c r="F209" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G209" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I209" s="34">
+        <v>298</v>
+      </c>
+      <c r="J209" s="31">
+        <v>1600000000</v>
+      </c>
       <c r="K209" s="31"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="19"/>
-      <c r="N209" s="19"/>
-    </row>
-    <row r="210" spans="1:14">
+      <c r="L209" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M209" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N209" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="16.3">
       <c r="A210" s="35"/>
-      <c r="B210" s="19"/>
-      <c r="C210" s="32"/>
-      <c r="D210" s="32"/>
+      <c r="B210" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C210" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D210" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E210" s="19"/>
-      <c r="F210" s="32"/>
-      <c r="G210" s="32"/>
+      <c r="F210" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G210" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H210" s="32"/>
-      <c r="I210" s="34"/>
-      <c r="J210" s="31"/>
+      <c r="I210" s="34">
+        <v>298</v>
+      </c>
+      <c r="J210" s="31">
+        <v>21</v>
+      </c>
       <c r="K210" s="31"/>
-      <c r="L210" s="19"/>
-      <c r="M210" s="19"/>
-      <c r="N210" s="19"/>
-    </row>
-    <row r="211" spans="1:14">
+      <c r="L210" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M210" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N210" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="16.3">
       <c r="A211" s="35"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="32"/>
-      <c r="D211" s="32"/>
+      <c r="B211" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D211" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E211" s="19"/>
-      <c r="F211" s="32"/>
-      <c r="G211" s="32"/>
+      <c r="F211" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G211" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H211" s="32"/>
-      <c r="I211" s="34"/>
-      <c r="J211" s="31"/>
+      <c r="I211" s="34">
+        <v>298</v>
+      </c>
+      <c r="J211" s="31">
+        <v>7200</v>
+      </c>
       <c r="K211" s="31"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="19"/>
-      <c r="N211" s="19"/>
-    </row>
-    <row r="212" spans="1:14">
-      <c r="A212" s="35"/>
-      <c r="B212" s="19"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="32"/>
+      <c r="L211" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M211" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N211" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="16.3">
+      <c r="B212" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C212" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D212" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E212" s="19"/>
-      <c r="F212" s="32"/>
-      <c r="G212" s="32"/>
-      <c r="H212" s="32"/>
-      <c r="I212" s="34"/>
-      <c r="J212" s="31"/>
+      <c r="F212" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G212" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I212" s="34">
+        <v>298</v>
+      </c>
+      <c r="J212" s="31">
+        <v>1550000000</v>
+      </c>
       <c r="K212" s="31"/>
-      <c r="L212" s="19"/>
-      <c r="M212" s="19"/>
-      <c r="N212" s="19"/>
-    </row>
-    <row r="213" spans="1:14">
+      <c r="L212" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M212" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N212" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="16.3">
       <c r="A213" s="35"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="32"/>
+      <c r="B213" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D213" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E213" s="19"/>
-      <c r="F213" s="32"/>
-      <c r="G213" s="32"/>
+      <c r="F213" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G213" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H213" s="32"/>
-      <c r="I213" s="34"/>
-      <c r="J213" s="31"/>
+      <c r="I213" s="34">
+        <v>298</v>
+      </c>
+      <c r="J213" s="31">
+        <v>12</v>
+      </c>
       <c r="K213" s="31"/>
-      <c r="L213" s="19"/>
-      <c r="M213" s="19"/>
-      <c r="N213" s="19"/>
-    </row>
-    <row r="214" spans="1:14">
+      <c r="L213" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M213" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N213" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="16.3">
       <c r="A214" s="35"/>
-      <c r="B214" s="19"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32"/>
+      <c r="B214" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C214" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D214" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E214" s="19"/>
-      <c r="F214" s="32"/>
-      <c r="G214" s="32"/>
+      <c r="F214" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G214" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H214" s="32"/>
-      <c r="I214" s="34"/>
-      <c r="J214" s="31"/>
+      <c r="I214" s="34">
+        <v>298</v>
+      </c>
+      <c r="J214" s="31">
+        <v>7000</v>
+      </c>
       <c r="K214" s="31"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
-      <c r="N214" s="19"/>
-    </row>
-    <row r="215" spans="1:14">
-      <c r="A215" s="35"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="32"/>
+      <c r="L214" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M214" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N214" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="16.3">
+      <c r="B215" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C215" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D215" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E215" s="19"/>
-      <c r="F215" s="32"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="32"/>
-      <c r="I215" s="34"/>
-      <c r="J215" s="31"/>
+      <c r="F215" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G215" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I215" s="34">
+        <v>298</v>
+      </c>
+      <c r="J215" s="31">
+        <v>1650000000</v>
+      </c>
       <c r="K215" s="31"/>
-      <c r="L215" s="19"/>
-      <c r="M215" s="19"/>
-      <c r="N215" s="19"/>
-    </row>
-    <row r="216" spans="1:14">
+      <c r="L215" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M215" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N215" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="16.3">
       <c r="A216" s="35"/>
-      <c r="B216" s="19"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="32"/>
+      <c r="B216" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C216" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D216" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E216" s="19"/>
-      <c r="F216" s="32"/>
-      <c r="G216" s="32"/>
+      <c r="F216" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G216" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H216" s="32"/>
-      <c r="I216" s="34"/>
-      <c r="J216" s="31"/>
+      <c r="I216" s="34">
+        <v>298</v>
+      </c>
+      <c r="J216" s="31">
+        <v>9</v>
+      </c>
       <c r="K216" s="31"/>
-      <c r="L216" s="19"/>
-      <c r="M216" s="19"/>
-      <c r="N216" s="19"/>
-    </row>
-    <row r="217" spans="1:14">
+      <c r="L216" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M216" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N216" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="16.3">
       <c r="A217" s="35"/>
-      <c r="B217" s="19"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="32"/>
+      <c r="B217" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C217" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D217" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E217" s="19"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="32"/>
+      <c r="F217" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G217" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H217" s="32"/>
-      <c r="I217" s="34"/>
-      <c r="J217" s="31"/>
+      <c r="I217" s="34">
+        <v>298</v>
+      </c>
+      <c r="J217" s="31">
+        <v>6800</v>
+      </c>
       <c r="K217" s="31"/>
-      <c r="L217" s="19"/>
-      <c r="M217" s="19"/>
-      <c r="N217" s="19"/>
-    </row>
-    <row r="218" spans="1:14">
-      <c r="A218" s="35"/>
-      <c r="B218" s="19"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
+      <c r="L217" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M217" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N217" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="16.3">
+      <c r="B218" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C218" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D218" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E218" s="19"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="32"/>
-      <c r="I218" s="34"/>
-      <c r="J218" s="31"/>
+      <c r="F218" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G218" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I218" s="34">
+        <v>298</v>
+      </c>
+      <c r="J218" s="31">
+        <v>1112000000</v>
+      </c>
       <c r="K218" s="31"/>
-      <c r="L218" s="19"/>
-      <c r="M218" s="19"/>
-      <c r="N218" s="19"/>
-    </row>
-    <row r="219" spans="1:14">
+      <c r="L218" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M218" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N218" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="16.3">
       <c r="A219" s="35"/>
-      <c r="B219" s="19"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
+      <c r="B219" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C219" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D219" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E219" s="19"/>
-      <c r="F219" s="32"/>
-      <c r="G219" s="32"/>
+      <c r="F219" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G219" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H219" s="32"/>
-      <c r="I219" s="34"/>
-      <c r="J219" s="31"/>
+      <c r="I219" s="34">
+        <v>298</v>
+      </c>
+      <c r="J219" s="31">
+        <v>9940</v>
+      </c>
       <c r="K219" s="31"/>
-      <c r="L219" s="19"/>
-      <c r="M219" s="19"/>
-      <c r="N219" s="19"/>
-    </row>
-    <row r="220" spans="1:14">
-      <c r="A220" s="35"/>
-      <c r="B220" s="19"/>
-      <c r="C220" s="32"/>
-      <c r="D220" s="32"/>
+      <c r="L219" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M219" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N219" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="16.3">
+      <c r="B220" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C220" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D220" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E220" s="19"/>
-      <c r="F220" s="32"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="32"/>
-      <c r="I220" s="34"/>
-      <c r="J220" s="31"/>
+      <c r="F220" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G220" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I220" s="34">
+        <v>298</v>
+      </c>
+      <c r="J220" s="31">
+        <v>1317000000</v>
+      </c>
       <c r="K220" s="31"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
-      <c r="N220" s="19"/>
-    </row>
-    <row r="221" spans="1:14">
+      <c r="L220" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M220" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N220" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="16.3">
       <c r="A221" s="35"/>
-      <c r="B221" s="19"/>
-      <c r="C221" s="32"/>
-      <c r="D221" s="32"/>
+      <c r="B221" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C221" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D221" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E221" s="19"/>
-      <c r="F221" s="32"/>
-      <c r="G221" s="32"/>
+      <c r="F221" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G221" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H221" s="32"/>
-      <c r="I221" s="34"/>
-      <c r="J221" s="31"/>
+      <c r="I221" s="34">
+        <v>298</v>
+      </c>
+      <c r="J221" s="31">
+        <v>9960</v>
+      </c>
       <c r="K221" s="31"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="19"/>
-      <c r="N221" s="19"/>
-    </row>
-    <row r="222" spans="1:14">
-      <c r="A222" s="35"/>
-      <c r="B222" s="19"/>
-      <c r="C222" s="32"/>
-      <c r="D222" s="32"/>
+      <c r="L221" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M221" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N221" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="16.3">
+      <c r="B222" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C222" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D222" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E222" s="19"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="32"/>
-      <c r="I222" s="34"/>
-      <c r="J222" s="31"/>
+      <c r="F222" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G222" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I222" s="34">
+        <v>298</v>
+      </c>
+      <c r="J222" s="31">
+        <v>1313000000</v>
+      </c>
       <c r="K222" s="31"/>
-      <c r="L222" s="19"/>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-    </row>
-    <row r="223" spans="1:14">
-      <c r="A223" s="35"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="32"/>
-      <c r="D223" s="32"/>
+      <c r="L222" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M222" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N222" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="16.3">
+      <c r="B223" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C223" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D223" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E223" s="19"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="32"/>
-      <c r="I223" s="34"/>
-      <c r="J223" s="31"/>
+      <c r="F223" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G223" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I223" s="34">
+        <v>298</v>
+      </c>
+      <c r="J223" s="31">
+        <v>9970</v>
+      </c>
       <c r="K223" s="31"/>
-      <c r="L223" s="19"/>
-      <c r="M223" s="19"/>
-      <c r="N223" s="19"/>
-    </row>
-    <row r="224" spans="1:14">
-      <c r="A224" s="35"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="32"/>
-      <c r="D224" s="32"/>
+      <c r="L223" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M223" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N223" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="16.3">
+      <c r="B224" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C224" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D224" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E224" s="19"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="32"/>
-      <c r="H224" s="32"/>
-      <c r="I224" s="34"/>
-      <c r="J224" s="31"/>
+      <c r="F224" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G224" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I224" s="34">
+        <v>298</v>
+      </c>
+      <c r="J224" s="31">
+        <v>1512000000</v>
+      </c>
       <c r="K224" s="31"/>
-      <c r="L224" s="19"/>
-      <c r="M224" s="19"/>
-      <c r="N224" s="19"/>
-    </row>
-    <row r="225" spans="1:14">
+      <c r="L224" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M224" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N224" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="16.3">
       <c r="A225" s="35"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="32"/>
-      <c r="D225" s="32"/>
+      <c r="B225" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D225" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E225" s="19"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="32"/>
+      <c r="F225" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G225" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H225" s="32"/>
-      <c r="I225" s="34"/>
-      <c r="J225" s="31"/>
+      <c r="I225" s="34">
+        <v>298</v>
+      </c>
+      <c r="J225" s="31">
+        <v>12</v>
+      </c>
       <c r="K225" s="31"/>
-      <c r="L225" s="19"/>
-      <c r="M225" s="19"/>
-      <c r="N225" s="19"/>
-    </row>
-    <row r="226" spans="1:14">
+      <c r="L225" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M225" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N225" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="16.3">
       <c r="A226" s="35"/>
-      <c r="B226" s="19"/>
-      <c r="C226" s="32"/>
-      <c r="D226" s="32"/>
+      <c r="B226" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C226" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D226" s="32" t="s">
+        <v>217</v>
+      </c>
       <c r="E226" s="19"/>
-      <c r="F226" s="32"/>
-      <c r="G226" s="32"/>
+      <c r="F226" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G226" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H226" s="32"/>
-      <c r="I226" s="34"/>
-      <c r="J226" s="31"/>
+      <c r="I226" s="34">
+        <v>298</v>
+      </c>
+      <c r="J226" s="31">
+        <v>9970</v>
+      </c>
       <c r="K226" s="31"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
-      <c r="N226" s="19"/>
-    </row>
-    <row r="227" spans="1:14">
-      <c r="A227" s="35"/>
-      <c r="B227" s="19"/>
-      <c r="C227" s="32"/>
-      <c r="D227" s="32"/>
+      <c r="L226" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M226" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N226" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="16.3">
+      <c r="B227" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C227" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D227" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E227" s="19"/>
-      <c r="F227" s="32"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="32"/>
-      <c r="I227" s="34"/>
-      <c r="J227" s="31"/>
+      <c r="F227" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G227" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I227" s="34">
+        <v>298</v>
+      </c>
+      <c r="J227" s="31">
+        <v>1617000000</v>
+      </c>
       <c r="K227" s="31"/>
-      <c r="L227" s="19"/>
-      <c r="M227" s="19"/>
-      <c r="N227" s="19"/>
-    </row>
-    <row r="228" spans="1:14">
+      <c r="L227" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M227" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N227" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="16.3">
       <c r="A228" s="35"/>
-      <c r="B228" s="19"/>
-      <c r="C228" s="32"/>
-      <c r="D228" s="32"/>
+      <c r="B228" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C228" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D228" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E228" s="19"/>
-      <c r="F228" s="32"/>
-      <c r="G228" s="32"/>
+      <c r="F228" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G228" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H228" s="32"/>
-      <c r="I228" s="34"/>
-      <c r="J228" s="31"/>
+      <c r="I228" s="34">
+        <v>298</v>
+      </c>
+      <c r="J228" s="31">
+        <v>18.5</v>
+      </c>
       <c r="K228" s="31"/>
-      <c r="L228" s="19"/>
-      <c r="M228" s="19"/>
-      <c r="N228" s="19"/>
-    </row>
-    <row r="229" spans="1:14">
+      <c r="L228" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M228" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N228" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="16.3">
       <c r="A229" s="35"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="32"/>
-      <c r="D229" s="32"/>
+      <c r="B229" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C229" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D229" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E229" s="19"/>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
+      <c r="F229" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G229" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H229" s="32"/>
-      <c r="I229" s="34"/>
-      <c r="J229" s="31"/>
+      <c r="I229" s="34">
+        <v>298</v>
+      </c>
+      <c r="J229" s="31">
+        <v>8750</v>
+      </c>
       <c r="K229" s="31"/>
-      <c r="L229" s="19"/>
-      <c r="M229" s="19"/>
-      <c r="N229" s="19"/>
-    </row>
-    <row r="230" spans="1:14">
-      <c r="A230" s="35"/>
-      <c r="B230" s="19"/>
-      <c r="C230" s="32"/>
-      <c r="D230" s="32"/>
+      <c r="L229" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M229" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N229" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="16.3">
+      <c r="B230" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C230" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D230" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E230" s="19"/>
-      <c r="F230" s="32"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="32"/>
-      <c r="I230" s="34"/>
-      <c r="J230" s="31"/>
+      <c r="F230" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G230" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I230" s="34">
+        <v>298</v>
+      </c>
+      <c r="J230" s="31">
+        <v>2134000000</v>
+      </c>
       <c r="K230" s="31"/>
-      <c r="L230" s="19"/>
-      <c r="M230" s="19"/>
-      <c r="N230" s="19"/>
-    </row>
-    <row r="231" spans="1:14">
+      <c r="L230" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M230" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N230" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="16.3">
       <c r="A231" s="35"/>
-      <c r="B231" s="19"/>
-      <c r="C231" s="32"/>
-      <c r="D231" s="32"/>
+      <c r="B231" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C231" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D231" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E231" s="19"/>
-      <c r="F231" s="32"/>
-      <c r="G231" s="32"/>
+      <c r="F231" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G231" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H231" s="32"/>
-      <c r="I231" s="34"/>
-      <c r="J231" s="31"/>
+      <c r="I231" s="34">
+        <v>298</v>
+      </c>
+      <c r="J231" s="31">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="K231" s="31"/>
-      <c r="L231" s="19"/>
-      <c r="M231" s="19"/>
-      <c r="N231" s="19"/>
-    </row>
-    <row r="232" spans="1:14">
+      <c r="L231" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M231" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N231" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="16.3">
       <c r="A232" s="35"/>
-      <c r="B232" s="19"/>
-      <c r="C232" s="32"/>
-      <c r="D232" s="32"/>
+      <c r="B232" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C232" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D232" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E232" s="19"/>
-      <c r="F232" s="32"/>
-      <c r="G232" s="32"/>
+      <c r="F232" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G232" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H232" s="32"/>
-      <c r="I232" s="34"/>
-      <c r="J232" s="31"/>
+      <c r="I232" s="34">
+        <v>298</v>
+      </c>
+      <c r="J232" s="31">
+        <v>8490</v>
+      </c>
       <c r="K232" s="31"/>
-      <c r="L232" s="19"/>
-      <c r="M232" s="19"/>
-      <c r="N232" s="19"/>
-    </row>
-    <row r="233" spans="1:14">
-      <c r="A233" s="35"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="32"/>
-      <c r="D233" s="32"/>
+      <c r="L232" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M232" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N232" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="16.3">
+      <c r="B233" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D233" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E233" s="19"/>
-      <c r="F233" s="32"/>
-      <c r="G233" s="32"/>
-      <c r="H233" s="32"/>
-      <c r="I233" s="34"/>
-      <c r="J233" s="31"/>
+      <c r="F233" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G233" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I233" s="34">
+        <v>298</v>
+      </c>
+      <c r="J233" s="31">
+        <v>2134000000</v>
+      </c>
       <c r="K233" s="31"/>
-      <c r="L233" s="19"/>
-      <c r="M233" s="19"/>
-      <c r="N233" s="19"/>
-    </row>
-    <row r="234" spans="1:14">
+      <c r="L233" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M233" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N233" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="16.3">
       <c r="A234" s="35"/>
-      <c r="B234" s="19"/>
-      <c r="C234" s="32"/>
-      <c r="D234" s="32"/>
+      <c r="B234" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D234" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E234" s="19"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="32"/>
+      <c r="F234" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G234" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H234" s="32"/>
-      <c r="I234" s="34"/>
-      <c r="J234" s="31"/>
+      <c r="I234" s="34">
+        <v>298</v>
+      </c>
+      <c r="J234" s="31">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="K234" s="31"/>
-      <c r="L234" s="19"/>
-      <c r="M234" s="19"/>
-      <c r="N234" s="19"/>
-    </row>
-    <row r="235" spans="1:14">
-      <c r="A235" s="35"/>
-      <c r="B235" s="19"/>
-      <c r="C235" s="32"/>
-      <c r="D235" s="32"/>
+      <c r="L234" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M234" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N234" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="16.3">
+      <c r="B235" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C235" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D235" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E235" s="19"/>
-      <c r="F235" s="32"/>
-      <c r="G235" s="32"/>
+      <c r="F235" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G235" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H235" s="32"/>
-      <c r="I235" s="34"/>
-      <c r="J235" s="31"/>
+      <c r="I235" s="34">
+        <v>298</v>
+      </c>
+      <c r="J235" s="31">
+        <v>8490</v>
+      </c>
       <c r="K235" s="31"/>
-      <c r="L235" s="19"/>
-      <c r="M235" s="19"/>
-      <c r="N235" s="19"/>
-    </row>
-    <row r="236" spans="1:14">
-      <c r="A236" s="35"/>
-      <c r="B236" s="19"/>
-      <c r="C236" s="32"/>
-      <c r="D236" s="32"/>
+      <c r="L235" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M235" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N235" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="16.3">
+      <c r="B236" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C236" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D236" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E236" s="19"/>
-      <c r="F236" s="32"/>
-      <c r="G236" s="32"/>
-      <c r="H236" s="32"/>
-      <c r="I236" s="34"/>
-      <c r="J236" s="31"/>
+      <c r="F236" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G236" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I236" s="34">
+        <v>298</v>
+      </c>
+      <c r="J236" s="31">
+        <v>1399000000</v>
+      </c>
       <c r="K236" s="31"/>
-      <c r="L236" s="19"/>
-      <c r="M236" s="19"/>
-      <c r="N236" s="19"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="L236" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M236" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N236" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="16.3">
       <c r="A237" s="35"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="32"/>
-      <c r="D237" s="32"/>
+      <c r="B237" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C237" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D237" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E237" s="19"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="32"/>
+      <c r="F237" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G237" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H237" s="32"/>
-      <c r="I237" s="34"/>
-      <c r="J237" s="31"/>
+      <c r="I237" s="34">
+        <v>298</v>
+      </c>
+      <c r="J237" s="31">
+        <v>1</v>
+      </c>
       <c r="K237" s="31"/>
-      <c r="L237" s="19"/>
-      <c r="M237" s="19"/>
-      <c r="N237" s="19"/>
-    </row>
-    <row r="238" spans="1:14">
-      <c r="A238" s="35"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="32"/>
-      <c r="D238" s="32"/>
+      <c r="L237" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M237" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N237" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="16.3">
+      <c r="B238" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C238" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D238" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E238" s="19"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="32"/>
+      <c r="F238" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G238" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H238" s="32"/>
-      <c r="I238" s="34"/>
-      <c r="J238" s="31"/>
+      <c r="I238" s="34">
+        <v>298</v>
+      </c>
+      <c r="J238" s="31">
+        <v>7800</v>
+      </c>
       <c r="K238" s="31"/>
-      <c r="L238" s="19"/>
-      <c r="M238" s="19"/>
-      <c r="N238" s="19"/>
-    </row>
-    <row r="239" spans="1:14">
-      <c r="A239" s="35"/>
-      <c r="B239" s="19"/>
-      <c r="C239" s="32"/>
-      <c r="D239" s="32"/>
+      <c r="L238" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M238" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N238" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="16.3">
+      <c r="B239" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C239" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D239" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E239" s="19"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="32"/>
-      <c r="I239" s="34"/>
-      <c r="J239" s="31"/>
+      <c r="F239" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G239" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I239" s="34">
+        <v>298</v>
+      </c>
+      <c r="J239" s="31">
+        <v>1540000000</v>
+      </c>
       <c r="K239" s="31"/>
-      <c r="L239" s="19"/>
-      <c r="M239" s="19"/>
-      <c r="N239" s="19"/>
-    </row>
-    <row r="240" spans="1:14">
+      <c r="L239" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M239" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N239" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="16.3">
       <c r="A240" s="35"/>
-      <c r="B240" s="19"/>
-      <c r="C240" s="32"/>
-      <c r="D240" s="32"/>
+      <c r="B240" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C240" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D240" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E240" s="19"/>
-      <c r="F240" s="32"/>
-      <c r="G240" s="32"/>
+      <c r="F240" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G240" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H240" s="32"/>
-      <c r="I240" s="34"/>
-      <c r="J240" s="31"/>
+      <c r="I240" s="34">
+        <v>298</v>
+      </c>
+      <c r="J240" s="31">
+        <v>5</v>
+      </c>
       <c r="K240" s="31"/>
-      <c r="L240" s="19"/>
-      <c r="M240" s="19"/>
-      <c r="N240" s="19"/>
-    </row>
-    <row r="241" spans="1:14">
-      <c r="A241" s="35"/>
-      <c r="B241" s="19"/>
-      <c r="C241" s="32"/>
-      <c r="D241" s="32"/>
+      <c r="L240" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M240" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N240" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="16.3">
+      <c r="B241" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C241" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D241" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E241" s="19"/>
-      <c r="F241" s="32"/>
-      <c r="G241" s="32"/>
+      <c r="F241" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G241" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H241" s="32"/>
-      <c r="I241" s="34"/>
-      <c r="J241" s="31"/>
+      <c r="I241" s="34">
+        <v>298</v>
+      </c>
+      <c r="J241" s="31">
+        <v>7500</v>
+      </c>
       <c r="K241" s="31"/>
-      <c r="L241" s="19"/>
-      <c r="M241" s="19"/>
-      <c r="N241" s="19"/>
-    </row>
-    <row r="242" spans="1:14">
-      <c r="A242" s="35"/>
-      <c r="B242" s="19"/>
-      <c r="C242" s="32"/>
-      <c r="D242" s="32"/>
+      <c r="L241" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M241" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N241" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="16.3">
+      <c r="B242" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C242" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D242" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E242" s="19"/>
-      <c r="F242" s="32"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="32"/>
-      <c r="I242" s="34"/>
-      <c r="J242" s="31"/>
+      <c r="F242" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G242" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I242" s="34">
+        <v>298</v>
+      </c>
+      <c r="J242" s="31">
+        <v>1719000000</v>
+      </c>
       <c r="K242" s="31"/>
-      <c r="L242" s="19"/>
-      <c r="M242" s="19"/>
-      <c r="N242" s="19"/>
-    </row>
-    <row r="243" spans="1:14">
+      <c r="L242" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M242" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N242" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="16.3">
       <c r="A243" s="35"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="32"/>
-      <c r="D243" s="32"/>
+      <c r="B243" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C243" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D243" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E243" s="19"/>
-      <c r="F243" s="32"/>
-      <c r="G243" s="32"/>
+      <c r="F243" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G243" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H243" s="32"/>
-      <c r="I243" s="34"/>
-      <c r="J243" s="31"/>
+      <c r="I243" s="34">
+        <v>298</v>
+      </c>
+      <c r="J243" s="31">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="K243" s="31"/>
-      <c r="L243" s="19"/>
-      <c r="M243" s="19"/>
-      <c r="N243" s="19"/>
-    </row>
-    <row r="244" spans="1:14">
-      <c r="A244" s="35"/>
-      <c r="B244" s="19"/>
-      <c r="C244" s="32"/>
-      <c r="D244" s="32"/>
+      <c r="L243" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M243" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N243" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="16.3">
+      <c r="B244" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C244" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D244" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E244" s="19"/>
-      <c r="F244" s="32"/>
-      <c r="G244" s="32"/>
+      <c r="F244" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G244" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H244" s="32"/>
-      <c r="I244" s="34"/>
-      <c r="J244" s="31"/>
+      <c r="I244" s="34">
+        <v>298</v>
+      </c>
+      <c r="J244" s="31">
+        <v>8700</v>
+      </c>
       <c r="K244" s="31"/>
-      <c r="L244" s="19"/>
-      <c r="M244" s="19"/>
-      <c r="N244" s="19"/>
-    </row>
-    <row r="245" spans="1:14">
-      <c r="A245" s="35"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="32"/>
-      <c r="D245" s="32"/>
+      <c r="L244" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M244" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N244" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="16.3">
+      <c r="B245" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C245" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D245" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E245" s="19"/>
-      <c r="F245" s="32"/>
-      <c r="G245" s="32"/>
-      <c r="H245" s="32"/>
-      <c r="I245" s="34"/>
-      <c r="J245" s="31"/>
+      <c r="F245" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G245" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I245" s="34">
+        <v>298</v>
+      </c>
+      <c r="J245" s="31">
+        <v>1400000000</v>
+      </c>
       <c r="K245" s="31"/>
-      <c r="L245" s="19"/>
-      <c r="M245" s="19"/>
-      <c r="N245" s="19"/>
-    </row>
-    <row r="246" spans="1:14">
+      <c r="L245" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M245" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N245" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="16.3">
       <c r="A246" s="35"/>
-      <c r="B246" s="19"/>
-      <c r="C246" s="32"/>
-      <c r="D246" s="32"/>
+      <c r="B246" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C246" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D246" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E246" s="19"/>
-      <c r="F246" s="32"/>
-      <c r="G246" s="32"/>
+      <c r="F246" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G246" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H246" s="32"/>
-      <c r="I246" s="34"/>
-      <c r="J246" s="31"/>
+      <c r="I246" s="34">
+        <v>298</v>
+      </c>
+      <c r="J246" s="31">
+        <v>33</v>
+      </c>
       <c r="K246" s="31"/>
-      <c r="L246" s="19"/>
-      <c r="M246" s="19"/>
-      <c r="N246" s="19"/>
-    </row>
-    <row r="247" spans="1:14">
-      <c r="A247" s="35"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="32"/>
-      <c r="D247" s="32"/>
+      <c r="L246" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M246" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N246" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="16.3">
+      <c r="B247" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C247" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D247" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E247" s="19"/>
-      <c r="F247" s="32"/>
-      <c r="G247" s="32"/>
+      <c r="F247" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G247" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H247" s="32"/>
-      <c r="I247" s="34"/>
-      <c r="J247" s="31"/>
+      <c r="I247" s="34">
+        <v>298</v>
+      </c>
+      <c r="J247" s="31">
+        <v>9400</v>
+      </c>
       <c r="K247" s="31"/>
-      <c r="L247" s="19"/>
-      <c r="M247" s="19"/>
-      <c r="N247" s="19"/>
-    </row>
-    <row r="248" spans="1:14">
-      <c r="A248" s="35"/>
-      <c r="B248" s="19"/>
-      <c r="C248" s="32"/>
-      <c r="D248" s="32"/>
+      <c r="L247" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M247" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N247" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="16.3">
+      <c r="B248" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C248" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D248" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E248" s="19"/>
-      <c r="F248" s="32"/>
-      <c r="G248" s="32"/>
-      <c r="H248" s="32"/>
-      <c r="I248" s="34"/>
-      <c r="J248" s="31"/>
+      <c r="F248" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G248" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I248" s="34">
+        <v>298</v>
+      </c>
+      <c r="J248" s="31">
+        <v>1515000000</v>
+      </c>
       <c r="K248" s="31"/>
-      <c r="L248" s="19"/>
-      <c r="M248" s="19"/>
-      <c r="N248" s="19"/>
-    </row>
-    <row r="249" spans="1:14">
+      <c r="L248" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M248" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N248" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="16.3">
       <c r="A249" s="35"/>
-      <c r="B249" s="19"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="32"/>
+      <c r="B249" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C249" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D249" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E249" s="19"/>
-      <c r="F249" s="32"/>
-      <c r="G249" s="32"/>
+      <c r="F249" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G249" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H249" s="32"/>
-      <c r="I249" s="34"/>
-      <c r="J249" s="31"/>
+      <c r="I249" s="34">
+        <v>298</v>
+      </c>
+      <c r="J249" s="31">
+        <v>10.6</v>
+      </c>
       <c r="K249" s="31"/>
-      <c r="L249" s="19"/>
-      <c r="M249" s="19"/>
-      <c r="N249" s="19"/>
-    </row>
-    <row r="250" spans="1:14">
-      <c r="A250" s="35"/>
-      <c r="B250" s="19"/>
-      <c r="C250" s="32"/>
-      <c r="D250" s="32"/>
+      <c r="L249" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M249" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N249" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="16.3">
+      <c r="B250" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C250" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D250" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E250" s="19"/>
-      <c r="F250" s="32"/>
-      <c r="G250" s="32"/>
+      <c r="F250" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G250" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H250" s="32"/>
-      <c r="I250" s="34"/>
-      <c r="J250" s="31"/>
+      <c r="I250" s="34">
+        <v>298</v>
+      </c>
+      <c r="J250" s="31">
+        <v>11000</v>
+      </c>
       <c r="K250" s="31"/>
-      <c r="L250" s="19"/>
-      <c r="M250" s="19"/>
-      <c r="N250" s="19"/>
-    </row>
-    <row r="251" spans="1:14">
-      <c r="A251" s="35"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="32"/>
-      <c r="D251" s="32"/>
+      <c r="L250" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M250" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N250" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="16.3">
+      <c r="B251" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C251" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D251" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E251" s="19"/>
-      <c r="F251" s="32"/>
-      <c r="G251" s="32"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="34"/>
-      <c r="J251" s="31"/>
+      <c r="F251" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G251" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I251" s="34">
+        <v>298</v>
+      </c>
+      <c r="J251" s="31">
+        <v>1390000000</v>
+      </c>
       <c r="K251" s="31"/>
-      <c r="L251" s="19"/>
-      <c r="M251" s="19"/>
-      <c r="N251" s="19"/>
-    </row>
-    <row r="252" spans="1:14">
+      <c r="L251" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M251" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N251" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="16.3">
       <c r="A252" s="35"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="32"/>
-      <c r="D252" s="32"/>
+      <c r="B252" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D252" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E252" s="19"/>
-      <c r="F252" s="32"/>
-      <c r="G252" s="32"/>
+      <c r="F252" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G252" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H252" s="32"/>
-      <c r="I252" s="34"/>
-      <c r="J252" s="31"/>
+      <c r="I252" s="34">
+        <v>298</v>
+      </c>
+      <c r="J252" s="31">
+        <v>10</v>
+      </c>
       <c r="K252" s="31"/>
-      <c r="L252" s="19"/>
-      <c r="M252" s="19"/>
-      <c r="N252" s="19"/>
-    </row>
-    <row r="253" spans="1:14">
-      <c r="A253" s="35"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="32"/>
-      <c r="D253" s="32"/>
+      <c r="L252" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M252" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N252" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="16.3">
+      <c r="B253" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C253" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D253" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="E253" s="19"/>
-      <c r="F253" s="32"/>
-      <c r="G253" s="32"/>
+      <c r="F253" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G253" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H253" s="32"/>
-      <c r="I253" s="34"/>
-      <c r="J253" s="31"/>
+      <c r="I253" s="34">
+        <v>298</v>
+      </c>
+      <c r="J253" s="31">
+        <v>9100</v>
+      </c>
       <c r="K253" s="31"/>
-      <c r="L253" s="19"/>
-      <c r="M253" s="19"/>
-      <c r="N253" s="19"/>
-    </row>
-    <row r="254" spans="1:14">
-      <c r="A254" s="35"/>
-      <c r="B254" s="19"/>
-      <c r="C254" s="32"/>
-      <c r="D254" s="32"/>
+      <c r="L253" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M253" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N253" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="16.3">
+      <c r="B254" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C254" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D254" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="E254" s="19"/>
-      <c r="F254" s="32"/>
-      <c r="G254" s="32"/>
-      <c r="H254" s="32"/>
-      <c r="I254" s="34"/>
-      <c r="J254" s="31"/>
+      <c r="F254" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G254" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I254" s="34">
+        <v>298</v>
+      </c>
+      <c r="J254" s="31">
+        <v>1420000000</v>
+      </c>
       <c r="K254" s="31"/>
-      <c r="L254" s="19"/>
-      <c r="M254" s="19"/>
-      <c r="N254" s="19"/>
-    </row>
-    <row r="255" spans="1:14">
+      <c r="L254" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M254" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N254" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="16.3">
       <c r="A255" s="35"/>
-      <c r="B255" s="19"/>
-      <c r="C255" s="32"/>
-      <c r="D255" s="32"/>
+      <c r="B255" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C255" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D255" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="E255" s="19"/>
-      <c r="F255" s="32"/>
-      <c r="G255" s="32"/>
+      <c r="F255" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G255" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H255" s="32"/>
-      <c r="I255" s="34"/>
-      <c r="J255" s="31"/>
+      <c r="I255" s="34">
+        <v>298</v>
+      </c>
+      <c r="J255" s="31">
+        <v>21.1</v>
+      </c>
       <c r="K255" s="31"/>
-      <c r="L255" s="19"/>
-      <c r="M255" s="19"/>
-      <c r="N255" s="19"/>
-    </row>
-    <row r="256" spans="1:14">
-      <c r="A256" s="35"/>
-      <c r="B256" s="19"/>
-      <c r="C256" s="32"/>
-      <c r="D256" s="32"/>
+      <c r="L255" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M255" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N255" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="16.3">
+      <c r="B256" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C256" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D256" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="E256" s="19"/>
-      <c r="F256" s="32"/>
-      <c r="G256" s="32"/>
+      <c r="F256" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G256" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="H256" s="32"/>
-      <c r="I256" s="34"/>
-      <c r="J256" s="31"/>
+      <c r="I256" s="34">
+        <v>298</v>
+      </c>
+      <c r="J256" s="31">
+        <v>11100</v>
+      </c>
       <c r="K256" s="31"/>
-      <c r="L256" s="19"/>
-      <c r="M256" s="19"/>
-      <c r="N256" s="19"/>
+      <c r="L256" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M256" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N256" s="19" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="35"/>
@@ -12176,11 +13618,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -12195,6 +13632,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -12267,46 +13709,9 @@
     <hyperlink ref="N130" r:id="rId67" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{D3707E56-1D51-485F-85A3-BFF52FD35166}"/>
     <hyperlink ref="N131" r:id="rId68" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{CA061733-25C9-4E53-AC1C-41CCC894DAED}"/>
     <hyperlink ref="N133" r:id="rId69" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{8EE5F968-7532-47E2-A8CC-3CA851BC4AB3}"/>
-    <hyperlink ref="N134" r:id="rId70" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{5249B3BF-0D48-4A10-957F-2DAC1FABE30E}"/>
-    <hyperlink ref="N136" r:id="rId71" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{A3A01AD6-2334-494E-A515-B2683BD8002B}"/>
-    <hyperlink ref="N137" r:id="rId72" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{6D01FFA0-851E-40CE-9026-2BBF07C2E6EA}"/>
-    <hyperlink ref="N139" r:id="rId73" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{A60B14C3-BA9A-498E-A81D-069F84E2DD1A}"/>
-    <hyperlink ref="N141" r:id="rId74" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{2EBA25C4-C78B-4161-95AA-A303FFDFBA5D}"/>
-    <hyperlink ref="N143" r:id="rId75" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{86CE4D8F-0739-476F-9CE6-9D30DF33143D}"/>
-    <hyperlink ref="N145" r:id="rId76" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{4CF8A3C4-EEF6-4BEB-A022-E5550A2C93D8}"/>
-    <hyperlink ref="N147" r:id="rId77" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{B24189AC-7B6C-4313-9FCF-D37392201112}"/>
-    <hyperlink ref="N149" r:id="rId78" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{86D25217-9B5E-490F-AC28-C2AC1E890DFA}"/>
-    <hyperlink ref="N151" r:id="rId79" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{E199ACBF-F56D-49CC-B2F1-EF6220C9ABAF}"/>
-    <hyperlink ref="N153" r:id="rId80" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{B8F23B65-2CE8-40B8-A467-6C4C7A914560}"/>
-    <hyperlink ref="N154" r:id="rId81" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{28C55008-F2C1-4390-8CD4-2F8C773C5C08}"/>
-    <hyperlink ref="N156" r:id="rId82" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{BF799803-70F5-479F-B573-DE393471DA1E}"/>
-    <hyperlink ref="N157" r:id="rId83" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{49996F34-6548-46F6-81AA-B6AA5D5A22DF}"/>
-    <hyperlink ref="N159" r:id="rId84" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{8AD99ED2-107A-4C95-A9EF-8CD15ECD6EA6}"/>
-    <hyperlink ref="N160" r:id="rId85" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{0BC337B2-62E5-4720-8169-36E5440ECBF7}"/>
-    <hyperlink ref="N162" r:id="rId86" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{2C3D2B4A-F36A-43C9-AE31-EED6D0F7258F}"/>
-    <hyperlink ref="N163" r:id="rId87" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{47FC2407-3EAA-4E23-AFC9-A4408375F789}"/>
-    <hyperlink ref="N165" r:id="rId88" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{001EBAE8-E17D-4E28-A780-88E3B7369ACC}"/>
-    <hyperlink ref="N166" r:id="rId89" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{ED13FAFA-820E-43A2-9C52-94C120790E7A}"/>
-    <hyperlink ref="N168" r:id="rId90" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{76947404-35A2-483A-9FC0-7881E81FCD71}"/>
-    <hyperlink ref="N169" r:id="rId91" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{43B849CD-C732-4162-93D2-7D6EC095700A}"/>
-    <hyperlink ref="N171" r:id="rId92" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{72978B36-60E3-45B5-AF53-C4D63222E6F4}"/>
-    <hyperlink ref="N172" r:id="rId93" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{5C680370-EAD0-40C7-B33C-35859C2BE180}"/>
-    <hyperlink ref="N174" r:id="rId94" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{CFA77A49-2418-44FE-8D80-319D9E79C714}"/>
-    <hyperlink ref="N175" r:id="rId95" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{60DCEF0E-9D41-4302-81BB-70E121F492E7}"/>
-    <hyperlink ref="N177" r:id="rId96" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{21C6870E-F106-4264-819B-752E87EC8621}"/>
-    <hyperlink ref="N178" r:id="rId97" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{418418FD-8B4B-42A8-BA1E-63A798E22EFC}"/>
-    <hyperlink ref="N180" r:id="rId98" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{8A000BC9-4054-4CE4-962B-23A992565745}"/>
-    <hyperlink ref="N182" r:id="rId99" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{52040ADC-AAE3-44B6-AB76-903174A50048}"/>
-    <hyperlink ref="N183" r:id="rId100" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{FBA34C8F-142A-4A70-B7E4-0AB4B7CA9E86}"/>
-    <hyperlink ref="N185" r:id="rId101" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{2BC46676-94AF-4336-ACF5-FDF76982C81A}"/>
-    <hyperlink ref="N186" r:id="rId102" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{1F14366E-7900-4777-9D7D-5CF95E1888F8}"/>
-    <hyperlink ref="N188" r:id="rId103" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{4B44F4BA-9DC5-40D3-BDB8-164720E28B39}"/>
-    <hyperlink ref="N189" r:id="rId104" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{969FF046-F30A-41E4-9A88-4CEEE2E4E4E0}"/>
-    <hyperlink ref="N191" r:id="rId105" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{B2F87050-D518-428C-BFA8-CD635A88F898}"/>
-    <hyperlink ref="N192" r:id="rId106" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2021.159190" xr:uid="{25BE3EE0-57A2-47D3-8FF3-E003D53D27D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId107"/>
+  <pageSetup orientation="portrait" r:id="rId70"/>
 </worksheet>
 </file>
 
@@ -12314,8 +13719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF606DBD-3A4A-499A-8547-EB49BCCFE371}">
   <dimension ref="A2:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -12330,10 +13735,10 @@
         <v>61</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -12342,33 +13747,36 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3">
         <f>B2/SUM(B2:J2)</f>
-        <v>0.125</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C3">
         <f>C2/SUM(B2:J2)</f>
-        <v>0.125</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D3">
         <f>D2/SUM(B2:J2)</f>
-        <v>0.25</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E3">
         <f>E2/SUM(B2:J2)</f>
-        <v>0.25</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F3">
         <f>F2/SUM(B2:J2)</f>
-        <v>0.25</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G3">
         <f>G2/SUM(B2:J2)</f>
-        <v>0</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H3">
         <f>H2/SUM(B2:J2)</f>
@@ -12389,27 +13797,27 @@
       </c>
       <c r="B4" s="38">
         <f>B3*100</f>
-        <v>12.5</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="C4" s="38">
         <f t="shared" ref="C4:J4" si="0">C3*100</f>
-        <v>12.5</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="D4" s="38">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="E4" s="38">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="F4" s="38">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="H4" s="38">
         <f t="shared" si="0"/>
@@ -12427,7 +13835,7 @@
     <row r="5" spans="1:10">
       <c r="H5" s="38">
         <f>SUM(B4:G4)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Leon_Contribution_102424.xlsx
+++ b/Leon_Contribution_102424.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839927AA-1772-4B93-9015-D74760B7BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ACFD59-4431-4F56-86AA-240E078ABEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>UTS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Ti37.5 Zr37.5 Nb20 Mo5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -511,10 +507,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Ti30.25 Zr30.25 Nb15 Mo20 Si9.5 Al15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ST1</t>
   </si>
   <si>
@@ -782,18 +774,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Al9.1 Nb18.2 Ti18.2 V26.3 Zr18.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Al9.1 Nb9.1 Ti18.2 V36.4 Zr27.2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Al11.1 Nb22.2 Ti22.2 V44.5 Zr11.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Al10. Nb20.0 Ti20.0 V40.0 Zr10.0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -923,6 +907,22 @@
   </si>
   <si>
     <t>VAC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al9.1 Nb18.2 Ti18.2 V36.4 Zr18.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al8.3 Nb16.7 Ti16.7 V33.3 Zr25.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.jallcom.2024.175957</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ti20.25 Zr20.25 Nb15 Mo20 Si19.5 Al5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1667,33 +1667,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1743,6 +1716,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -2063,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -2085,19 +2085,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+        <v>79</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -2115,43 +2115,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="67" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2162,19 +2162,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="50"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2219,7 +2219,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="51"/>
+      <c r="O7" s="69"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2232,35 +2232,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="73"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="54"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="72"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>66</v>
@@ -2357,7 +2357,7 @@
         <v>68</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O10" s="19"/>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>66</v>
@@ -2388,13 +2388,13 @@
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>68</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O11" s="19"/>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>66</v>
@@ -2433,7 +2433,7 @@
         <v>68</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O12" s="19"/>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>66</v>
@@ -2464,13 +2464,13 @@
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" s="39" t="s">
         <v>68</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O13" s="19"/>
     </row>
@@ -2509,7 +2509,7 @@
         <v>68</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O14" s="19"/>
     </row>
@@ -2522,11 +2522,11 @@
         <v>73</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>66</v>
@@ -2548,7 +2548,7 @@
         <v>74</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O15" s="19"/>
     </row>
@@ -2561,11 +2561,11 @@
         <v>73</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="40" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>66</v>
@@ -2587,24 +2587,24 @@
         <v>74</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" ht="16.3">
       <c r="A17" s="36"/>
       <c r="B17" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>66</v>
@@ -2626,24 +2626,24 @@
         <v>74</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" ht="16.3">
       <c r="A18" s="36"/>
       <c r="B18" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="40" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>66</v>
@@ -2665,24 +2665,24 @@
         <v>74</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:15" ht="16.3">
       <c r="A19" s="36"/>
       <c r="B19" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>66</v>
@@ -2704,24 +2704,24 @@
         <v>74</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="1:15" ht="16.3">
       <c r="A20" s="36"/>
       <c r="B20" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="40" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>66</v>
@@ -2743,24 +2743,24 @@
         <v>74</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" ht="16.3">
       <c r="A21" s="35"/>
       <c r="B21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="D21" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>66</v>
@@ -2774,31 +2774,31 @@
       </c>
       <c r="K21" s="31"/>
       <c r="L21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="M21" s="39" t="s">
-        <v>87</v>
-      </c>
       <c r="N21" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.3">
       <c r="A22" s="35"/>
       <c r="B22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="D22" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>66</v>
@@ -2812,31 +2812,31 @@
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>87</v>
-      </c>
       <c r="N22" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.3">
       <c r="A23" s="35"/>
       <c r="B23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="D23" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>66</v>
@@ -2850,29 +2850,29 @@
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="39" t="s">
-        <v>87</v>
-      </c>
       <c r="N23" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.3">
       <c r="A24" s="35"/>
       <c r="B24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>66</v>
@@ -2886,31 +2886,31 @@
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.3">
       <c r="A25" s="35"/>
       <c r="B25" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>66</v>
@@ -2924,31 +2924,31 @@
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.3">
       <c r="A26" s="35"/>
       <c r="B26" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="D26" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>66</v>
@@ -2962,29 +2962,29 @@
       </c>
       <c r="K26" s="31"/>
       <c r="L26" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N26" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.3">
       <c r="A27" s="35"/>
       <c r="B27" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>66</v>
@@ -3001,28 +3001,28 @@
         <v>71</v>
       </c>
       <c r="M27" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.3">
       <c r="A28" s="35"/>
       <c r="B28" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="D28" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>66</v>
@@ -3039,28 +3039,28 @@
         <v>71</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.3">
       <c r="A29" s="35"/>
       <c r="B29" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="D29" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>66</v>
@@ -3077,26 +3077,26 @@
         <v>71</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N29" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.3">
       <c r="A30" s="35"/>
       <c r="B30" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>66</v>
@@ -3115,26 +3115,26 @@
         <v>67</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N30" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.3">
       <c r="A31" s="35"/>
       <c r="B31" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>95</v>
-      </c>
       <c r="D31" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>66</v>
@@ -3153,26 +3153,26 @@
         <v>67</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N31" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.3">
       <c r="A32" s="35"/>
       <c r="B32" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>66</v>
@@ -3191,26 +3191,26 @@
         <v>67</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N32" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.3">
       <c r="A33" s="35"/>
       <c r="B33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>95</v>
-      </c>
       <c r="D33" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>66</v>
@@ -3229,26 +3229,26 @@
         <v>67</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N33" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.3">
       <c r="A34" s="35"/>
       <c r="B34" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>66</v>
@@ -3264,29 +3264,29 @@
         <v>7</v>
       </c>
       <c r="L34" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N34" s="44" t="s">
         <v>97</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N34" s="44" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.3">
       <c r="A35" s="35"/>
       <c r="B35" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>95</v>
-      </c>
       <c r="D35" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>66</v>
@@ -3302,31 +3302,31 @@
         <v>2</v>
       </c>
       <c r="L35" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="44" t="s">
         <v>97</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N35" s="44" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.3">
       <c r="A36" s="35"/>
       <c r="B36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="D36" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E36" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>66</v>
@@ -3342,31 +3342,31 @@
         <v>0.4</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="16.3">
       <c r="A37" s="35"/>
       <c r="B37" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E37" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>66</v>
@@ -3382,31 +3382,31 @@
         <v>0.5</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16.3">
       <c r="A38" s="35"/>
       <c r="B38" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E38" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>66</v>
@@ -3422,31 +3422,31 @@
         <v>0.35</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N38" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N38" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="16.3">
       <c r="A39" s="35"/>
       <c r="B39" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E39" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>66</v>
@@ -3462,31 +3462,31 @@
         <v>0.33</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M39" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="16.3">
       <c r="A40" s="35"/>
       <c r="B40" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E40" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>66</v>
@@ -3502,31 +3502,31 @@
         <v>0.48</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M40" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="16.3">
       <c r="A41" s="35"/>
       <c r="B41" s="19" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="C41" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E41" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>66</v>
@@ -3542,31 +3542,31 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="16.3">
       <c r="A42" s="35"/>
       <c r="B42" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="D42" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E42" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G42" s="40" t="s">
         <v>66</v>
@@ -3582,31 +3582,31 @@
         <v>1.8</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M42" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="16.3">
       <c r="A43" s="35"/>
       <c r="B43" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E43" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>66</v>
@@ -3622,31 +3622,31 @@
         <v>1.3</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M43" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="16.3">
       <c r="A44" s="35"/>
       <c r="B44" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E44" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>66</v>
@@ -3662,31 +3662,31 @@
         <v>1.4</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M44" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N44" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="16.3">
       <c r="A45" s="35"/>
       <c r="B45" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E45" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>66</v>
@@ -3702,31 +3702,31 @@
         <v>1.6</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M45" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N45" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N45" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="16.3">
       <c r="A46" s="35"/>
       <c r="B46" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E46" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>66</v>
@@ -3742,31 +3742,31 @@
         <v>1.7</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M46" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N46" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="16.3">
       <c r="A47" s="35"/>
       <c r="B47" s="19" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="C47" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E47" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>66</v>
@@ -3782,31 +3782,31 @@
         <v>1.2</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="16.3">
       <c r="A48" s="35"/>
       <c r="B48" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="D48" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E48" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>66</v>
@@ -3822,31 +3822,31 @@
         <v>43000000</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M48" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N48" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="16.3">
       <c r="A49" s="35"/>
       <c r="B49" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E49" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>66</v>
@@ -3862,31 +3862,31 @@
         <v>24000000</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M49" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N49" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N49" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="16.3">
       <c r="A50" s="35"/>
       <c r="B50" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E50" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>66</v>
@@ -3902,31 +3902,31 @@
         <v>26000000</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M50" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N50" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N50" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="16.3">
       <c r="A51" s="35"/>
       <c r="B51" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="D51" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E51" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>66</v>
@@ -3942,31 +3942,31 @@
         <v>17000000</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M51" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N51" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N51" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="16.3">
       <c r="A52" s="35"/>
       <c r="B52" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E52" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>66</v>
@@ -3982,31 +3982,31 @@
         <v>33000000</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M52" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N52" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.3">
       <c r="A53" s="35"/>
       <c r="B53" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E53" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>66</v>
@@ -4022,31 +4022,31 @@
         <v>28000000</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M53" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N53" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.3">
       <c r="A54" s="35"/>
       <c r="B54" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E54" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G54" s="40" t="s">
         <v>66</v>
@@ -4062,30 +4062,30 @@
         <v>24000000</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M54" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N54" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="16.3">
       <c r="B55" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E55" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G55" s="40" t="s">
         <v>66</v>
@@ -4097,31 +4097,31 @@
         <v>946000000</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N55" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.3">
       <c r="A56" s="35"/>
       <c r="B56" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E56" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>66</v>
@@ -4135,30 +4135,30 @@
       </c>
       <c r="K56" s="31"/>
       <c r="L56" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N56" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.3">
       <c r="B57" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E57" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G57" s="40" t="s">
         <v>66</v>
@@ -4170,30 +4170,30 @@
         <v>1069000000</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N57" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.3">
       <c r="B58" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E58" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>66</v>
@@ -4205,30 +4205,30 @@
         <v>1405000000</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N58" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.3">
       <c r="B59" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C59" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E59" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>66</v>
@@ -4240,31 +4240,31 @@
         <v>1985000000</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N59" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="16.3">
       <c r="A60" s="35"/>
       <c r="B60" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C60" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E60" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" s="40" t="s">
         <v>66</v>
@@ -4278,30 +4278,30 @@
       </c>
       <c r="K60" s="31"/>
       <c r="L60" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N60" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.3">
       <c r="B61" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C61" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E61" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>66</v>
@@ -4313,30 +4313,30 @@
         <v>2081000000</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N61" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.3">
       <c r="B62" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C62" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E62" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>66</v>
@@ -4348,30 +4348,30 @@
         <v>2159000000</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N62" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="16.3">
       <c r="B63" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C63" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E63" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>66</v>
@@ -4383,31 +4383,31 @@
         <v>31.7</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N63" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.3">
       <c r="A64" s="35"/>
       <c r="B64" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C64" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E64" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>66</v>
@@ -4421,30 +4421,30 @@
       </c>
       <c r="K64" s="31"/>
       <c r="L64" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N64" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.3">
       <c r="B65" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E65" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>66</v>
@@ -4456,30 +4456,30 @@
         <v>21.8</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M65" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N65" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.3">
       <c r="B66" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C66" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E66" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G66" s="40" t="s">
         <v>66</v>
@@ -4491,30 +4491,30 @@
         <v>17</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M66" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N66" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.3">
       <c r="B67" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E67" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G67" s="40" t="s">
         <v>66</v>
@@ -4526,31 +4526,31 @@
         <v>345000000</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M67" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N67" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.3">
       <c r="A68" s="35"/>
       <c r="B68" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C68" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E68" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>66</v>
@@ -4564,30 +4564,30 @@
       </c>
       <c r="K68" s="31"/>
       <c r="L68" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M68" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N68" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.3">
       <c r="B69" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C69" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E69" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>66</v>
@@ -4599,30 +4599,30 @@
         <v>715000000</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N69" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.3">
       <c r="B70" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C70" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E70" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G70" s="40" t="s">
         <v>66</v>
@@ -4634,30 +4634,30 @@
         <v>675000000</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M70" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N70" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.3">
       <c r="B71" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C71" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E71" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G71" s="40" t="s">
         <v>66</v>
@@ -4669,31 +4669,31 @@
         <v>449</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N71" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.3">
       <c r="A72" s="35"/>
       <c r="B72" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D72" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E72" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G72" s="40" t="s">
         <v>66</v>
@@ -4707,30 +4707,30 @@
       </c>
       <c r="K72" s="31"/>
       <c r="L72" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M72" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N72" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.3">
       <c r="B73" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C73" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E73" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G73" s="40" t="s">
         <v>66</v>
@@ -4742,30 +4742,30 @@
         <v>877</v>
       </c>
       <c r="L73" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N73" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.3">
       <c r="B74" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C74" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E74" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G74" s="40" t="s">
         <v>66</v>
@@ -4777,30 +4777,30 @@
         <v>798</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N74" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.3">
       <c r="B75" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E75" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>66</v>
@@ -4812,31 +4812,31 @@
         <v>24.5</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N75" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.3">
       <c r="A76" s="35"/>
       <c r="B76" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C76" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E76" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G76" s="40" t="s">
         <v>66</v>
@@ -4849,30 +4849,30 @@
         <v>25.2</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M76" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N76" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.3">
       <c r="B77" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C77" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E77" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>66</v>
@@ -4884,30 +4884,30 @@
         <v>23</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N77" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.3">
       <c r="B78" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C78" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E78" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G78" s="40" t="s">
         <v>66</v>
@@ -4919,29 +4919,29 @@
         <v>25.5</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N78" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.3">
       <c r="A79" s="35"/>
       <c r="B79" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G79" s="40" t="s">
         <v>66</v>
@@ -4958,26 +4958,26 @@
         <v>67</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N79" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.3">
       <c r="A80" s="35"/>
       <c r="B80" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>66</v>
@@ -4994,26 +4994,26 @@
         <v>67</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N80" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16.3">
       <c r="A81" s="35"/>
       <c r="B81" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G81" s="40" t="s">
         <v>66</v>
@@ -5030,26 +5030,26 @@
         <v>67</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N81" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16.3">
       <c r="A82" s="35"/>
       <c r="B82" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G82" s="40" t="s">
         <v>66</v>
@@ -5066,26 +5066,26 @@
         <v>67</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N82" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.3">
       <c r="A83" s="35"/>
       <c r="B83" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G83" s="40" t="s">
         <v>66</v>
@@ -5102,26 +5102,26 @@
         <v>67</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N83" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="16.3">
       <c r="A84" s="35"/>
       <c r="B84" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G84" s="40" t="s">
         <v>66</v>
@@ -5135,29 +5135,29 @@
       </c>
       <c r="K84" s="31"/>
       <c r="L84" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M84" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N84" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="16.3">
       <c r="A85" s="35"/>
       <c r="B85" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G85" s="40" t="s">
         <v>66</v>
@@ -5171,29 +5171,29 @@
       </c>
       <c r="K85" s="31"/>
       <c r="L85" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M85" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N85" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="16.3">
       <c r="A86" s="35"/>
       <c r="B86" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G86" s="40" t="s">
         <v>66</v>
@@ -5207,29 +5207,29 @@
       </c>
       <c r="K86" s="31"/>
       <c r="L86" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M86" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N86" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="N86" s="44" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="16.3">
       <c r="A87" s="35"/>
       <c r="B87" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G87" s="40" t="s">
         <v>66</v>
@@ -5243,29 +5243,29 @@
       </c>
       <c r="K87" s="31"/>
       <c r="L87" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M87" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N87" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="N87" s="44" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="16.3">
       <c r="A88" s="35"/>
       <c r="B88" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G88" s="40" t="s">
         <v>66</v>
@@ -5279,29 +5279,29 @@
       </c>
       <c r="K88" s="31"/>
       <c r="L88" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M88" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N88" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="N88" s="44" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="16.3">
       <c r="A89" s="35"/>
       <c r="B89" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G89" s="40" t="s">
         <v>66</v>
@@ -5315,29 +5315,29 @@
       </c>
       <c r="K89" s="31"/>
       <c r="L89" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M89" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N89" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="N89" s="44" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16.3">
       <c r="A90" s="35"/>
       <c r="B90" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G90" s="40" t="s">
         <v>66</v>
@@ -5350,29 +5350,29 @@
         <v>7.4</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M90" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N90" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="N90" s="44" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="16.3">
       <c r="A91" s="35"/>
       <c r="B91" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G91" s="40" t="s">
         <v>66</v>
@@ -5385,29 +5385,29 @@
         <v>12.4</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M91" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N91" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="N91" s="44" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="16.3">
       <c r="A92" s="35"/>
       <c r="B92" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G92" s="40" t="s">
         <v>66</v>
@@ -5420,29 +5420,29 @@
         <v>33.299999999999997</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M92" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N92" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="N92" s="44" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="16.3">
       <c r="A93" s="35"/>
       <c r="B93" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G93" s="40" t="s">
         <v>66</v>
@@ -5455,29 +5455,29 @@
         <v>31.8</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M93" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N93" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="N93" s="44" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.3">
       <c r="A94" s="35"/>
       <c r="B94" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G94" s="40" t="s">
         <v>66</v>
@@ -5494,26 +5494,26 @@
         <v>67</v>
       </c>
       <c r="M94" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="16.3">
       <c r="A95" s="35"/>
       <c r="B95" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G95" s="40" t="s">
         <v>66</v>
@@ -5530,26 +5530,26 @@
         <v>67</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="16.3">
       <c r="A96" s="35"/>
       <c r="B96" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G96" s="40" t="s">
         <v>66</v>
@@ -5566,26 +5566,26 @@
         <v>67</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.3">
       <c r="A97" s="35"/>
       <c r="B97" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="32" t="s">
-        <v>137</v>
-      </c>
       <c r="D97" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G97" s="40" t="s">
         <v>66</v>
@@ -5602,26 +5602,26 @@
         <v>67</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="16.3">
       <c r="A98" s="35"/>
       <c r="B98" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G98" s="40" t="s">
         <v>66</v>
@@ -5638,26 +5638,26 @@
         <v>67</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.3">
       <c r="A99" s="35"/>
       <c r="B99" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E99" s="19"/>
       <c r="F99" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G99" s="40" t="s">
         <v>66</v>
@@ -5671,29 +5671,29 @@
       </c>
       <c r="K99" s="31"/>
       <c r="L99" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="16.3">
       <c r="A100" s="35"/>
       <c r="B100" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G100" s="40" t="s">
         <v>66</v>
@@ -5707,29 +5707,29 @@
       </c>
       <c r="K100" s="31"/>
       <c r="L100" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M100" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="16.3">
       <c r="A101" s="35"/>
       <c r="B101" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="32" t="s">
-        <v>137</v>
-      </c>
       <c r="D101" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G101" s="40" t="s">
         <v>66</v>
@@ -5743,29 +5743,29 @@
       </c>
       <c r="K101" s="31"/>
       <c r="L101" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M101" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="16.3">
       <c r="A102" s="35"/>
       <c r="B102" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G102" s="40" t="s">
         <v>66</v>
@@ -5779,29 +5779,29 @@
       </c>
       <c r="K102" s="31"/>
       <c r="L102" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M102" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="16.3">
       <c r="A103" s="35"/>
       <c r="B103" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G103" s="40" t="s">
         <v>66</v>
@@ -5815,29 +5815,29 @@
       </c>
       <c r="K103" s="31"/>
       <c r="L103" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M103" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="16.3">
       <c r="A104" s="35"/>
       <c r="B104" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E104" s="19"/>
       <c r="F104" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G104" s="40" t="s">
         <v>66</v>
@@ -5851,29 +5851,29 @@
       </c>
       <c r="K104" s="31"/>
       <c r="L104" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M104" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="16.3">
       <c r="A105" s="35"/>
       <c r="B105" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="32" t="s">
-        <v>137</v>
-      </c>
       <c r="D105" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" s="40" t="s">
         <v>66</v>
@@ -5887,29 +5887,29 @@
       </c>
       <c r="K105" s="31"/>
       <c r="L105" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M105" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="16.3">
       <c r="A106" s="35"/>
       <c r="B106" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G106" s="40" t="s">
         <v>66</v>
@@ -5923,29 +5923,29 @@
       </c>
       <c r="K106" s="31"/>
       <c r="L106" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M106" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="16.3">
       <c r="A107" s="35"/>
       <c r="B107" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G107" s="40" t="s">
         <v>66</v>
@@ -5959,29 +5959,29 @@
       </c>
       <c r="K107" s="31"/>
       <c r="L107" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M107" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="16.3">
       <c r="A108" s="35"/>
       <c r="B108" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G108" s="40" t="s">
         <v>66</v>
@@ -5995,29 +5995,29 @@
       </c>
       <c r="K108" s="31"/>
       <c r="L108" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M108" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="16.3">
       <c r="A109" s="35"/>
       <c r="B109" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C109" s="32" t="s">
-        <v>137</v>
-      </c>
       <c r="D109" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G109" s="40" t="s">
         <v>66</v>
@@ -6031,29 +6031,29 @@
       </c>
       <c r="K109" s="31"/>
       <c r="L109" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M109" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.3">
       <c r="A110" s="35"/>
       <c r="B110" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G110" s="40" t="s">
         <v>66</v>
@@ -6069,25 +6069,25 @@
         <v>42000000</v>
       </c>
       <c r="L110" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M110" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M110" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N110" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="16.3">
       <c r="A111" s="35"/>
       <c r="B111" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="32" t="s">
@@ -6107,29 +6107,29 @@
         <v>3.4</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M111" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N111" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="16.3">
       <c r="A112" s="35"/>
       <c r="B112" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G112" s="40" t="s">
         <v>66</v>
@@ -6143,29 +6143,29 @@
       </c>
       <c r="K112" s="31"/>
       <c r="L112" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M112" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="16.3">
       <c r="A113" s="35"/>
       <c r="B113" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G113" s="40" t="s">
         <v>66</v>
@@ -6181,29 +6181,29 @@
         <v>25000000</v>
       </c>
       <c r="L113" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M113" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M113" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N113" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="16.3">
       <c r="A114" s="35"/>
       <c r="B114" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D114" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D114" s="32" t="s">
-        <v>153</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G114" s="40" t="s">
         <v>66</v>
@@ -6219,25 +6219,25 @@
         <v>25000000</v>
       </c>
       <c r="L114" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M114" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M114" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N114" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="16.3">
       <c r="A115" s="35"/>
       <c r="B115" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>153</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="32" t="s">
@@ -6257,29 +6257,29 @@
         <v>2</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M115" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N115" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="16.3">
       <c r="A116" s="35"/>
       <c r="B116" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C116" s="32" t="s">
-        <v>152</v>
-      </c>
       <c r="D116" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G116" s="40" t="s">
         <v>66</v>
@@ -6293,29 +6293,29 @@
       </c>
       <c r="K116" s="31"/>
       <c r="L116" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M116" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N116" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A117" s="35"/>
       <c r="B117" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C117" s="32" t="s">
-        <v>152</v>
-      </c>
       <c r="D117" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G117" s="40" t="s">
         <v>66</v>
@@ -6331,29 +6331,29 @@
         <v>40000000</v>
       </c>
       <c r="L117" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M117" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M117" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N117" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="16.3">
       <c r="A118" s="35"/>
       <c r="B118" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G118" s="40" t="s">
         <v>66</v>
@@ -6369,25 +6369,25 @@
         <v>70000000</v>
       </c>
       <c r="L118" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M118" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M118" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N118" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.3">
       <c r="A119" s="35"/>
       <c r="B119" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="32" t="s">
@@ -6407,29 +6407,29 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M119" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N119" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.3">
       <c r="A120" s="35"/>
       <c r="B120" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G120" s="40" t="s">
         <v>66</v>
@@ -6443,29 +6443,29 @@
       </c>
       <c r="K120" s="31"/>
       <c r="L120" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M120" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N120" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.3">
       <c r="A121" s="35"/>
       <c r="B121" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G121" s="40" t="s">
         <v>66</v>
@@ -6481,29 +6481,29 @@
         <v>46000000</v>
       </c>
       <c r="L121" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M121" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M121" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N121" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.3">
       <c r="A122" s="35"/>
       <c r="B122" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G122" s="40" t="s">
         <v>66</v>
@@ -6519,25 +6519,25 @@
         <v>68000000</v>
       </c>
       <c r="L122" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M122" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M122" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N122" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.3">
       <c r="A123" s="35"/>
       <c r="B123" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="32" t="s">
@@ -6557,29 +6557,29 @@
         <v>2.1</v>
       </c>
       <c r="L123" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M123" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N123" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="16.3">
       <c r="A124" s="35"/>
       <c r="B124" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G124" s="40" t="s">
         <v>66</v>
@@ -6593,29 +6593,29 @@
       </c>
       <c r="K124" s="31"/>
       <c r="L124" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M124" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N124" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="16.3">
       <c r="A125" s="35"/>
       <c r="B125" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G125" s="40" t="s">
         <v>66</v>
@@ -6631,29 +6631,29 @@
         <v>2000000</v>
       </c>
       <c r="L125" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M125" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M125" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N125" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="16.3">
       <c r="A126" s="35"/>
       <c r="B126" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G126" s="40" t="s">
         <v>66</v>
@@ -6669,25 +6669,25 @@
         <v>68000000</v>
       </c>
       <c r="L126" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M126" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M126" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N126" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="16.3">
       <c r="A127" s="35"/>
       <c r="B127" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="32" t="s">
@@ -6707,29 +6707,29 @@
         <v>0</v>
       </c>
       <c r="L127" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M127" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N127" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="16.3">
       <c r="A128" s="35"/>
       <c r="B128" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G128" s="40" t="s">
         <v>66</v>
@@ -6743,29 +6743,29 @@
       </c>
       <c r="K128" s="31"/>
       <c r="L128" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M128" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N128" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="16.3">
       <c r="A129" s="35"/>
       <c r="B129" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G129" s="40" t="s">
         <v>66</v>
@@ -6781,29 +6781,29 @@
         <v>43000000</v>
       </c>
       <c r="L129" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M129" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M129" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N129" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="16.3">
       <c r="A130" s="35"/>
       <c r="B130" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G130" s="40" t="s">
         <v>66</v>
@@ -6819,25 +6819,25 @@
         <v>6000000</v>
       </c>
       <c r="L130" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M130" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M130" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N130" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="16.3">
       <c r="A131" s="35"/>
       <c r="B131" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="32" t="s">
@@ -6857,29 +6857,29 @@
         <v>7.6</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M131" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N131" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="16.3">
       <c r="A132" s="35"/>
       <c r="B132" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G132" s="40" t="s">
         <v>66</v>
@@ -6893,29 +6893,29 @@
       </c>
       <c r="K132" s="31"/>
       <c r="L132" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M132" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="16.3">
       <c r="A133" s="35"/>
       <c r="B133" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G133" s="40" t="s">
         <v>66</v>
@@ -6931,29 +6931,29 @@
         <v>38000000</v>
       </c>
       <c r="L133" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M133" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M133" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="N133" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="16.3">
       <c r="A134" s="35"/>
       <c r="B134" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G134" s="40" t="s">
         <v>66</v>
@@ -6975,23 +6975,23 @@
         <v>68</v>
       </c>
       <c r="N134" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="16.3">
       <c r="A135" s="35"/>
       <c r="B135" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G135" s="40" t="s">
         <v>66</v>
@@ -7005,27 +7005,27 @@
       </c>
       <c r="K135" s="31"/>
       <c r="L135" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M135" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N135" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="16.3">
       <c r="B136" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G136" s="40" t="s">
         <v>66</v>
@@ -7046,19 +7046,19 @@
         <v>68</v>
       </c>
       <c r="N136" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="16.3">
       <c r="A137" s="35"/>
       <c r="B137" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="32" t="s">
@@ -7079,26 +7079,26 @@
         <v>71</v>
       </c>
       <c r="M137" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="16.3">
       <c r="A138" s="35"/>
       <c r="B138" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G138" s="40" t="s">
         <v>66</v>
@@ -7112,29 +7112,29 @@
       </c>
       <c r="K138" s="31"/>
       <c r="L138" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M138" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="16.3">
       <c r="A139" s="35"/>
       <c r="B139" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G139" s="40" t="s">
         <v>66</v>
@@ -7156,23 +7156,23 @@
         <v>68</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="16.3">
       <c r="A140" s="35"/>
       <c r="B140" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G140" s="40" t="s">
         <v>66</v>
@@ -7186,29 +7186,29 @@
       </c>
       <c r="K140" s="31"/>
       <c r="L140" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M140" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N140" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="16.3">
       <c r="A141" s="35"/>
       <c r="B141" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G141" s="40" t="s">
         <v>66</v>
@@ -7228,23 +7228,23 @@
         <v>68</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="16.3">
       <c r="A142" s="35"/>
       <c r="B142" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C142" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G142" s="40" t="s">
         <v>66</v>
@@ -7258,29 +7258,29 @@
       </c>
       <c r="K142" s="31"/>
       <c r="L142" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M142" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N142" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="16.3">
       <c r="A143" s="35"/>
       <c r="B143" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G143" s="40" t="s">
         <v>66</v>
@@ -7300,23 +7300,23 @@
         <v>68</v>
       </c>
       <c r="N143" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="16.3">
       <c r="A144" s="35"/>
       <c r="B144" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G144" s="40" t="s">
         <v>66</v>
@@ -7330,29 +7330,29 @@
       </c>
       <c r="K144" s="31"/>
       <c r="L144" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M144" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="16.3">
       <c r="A145" s="35"/>
       <c r="B145" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E145" s="19"/>
       <c r="F145" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G145" s="40" t="s">
         <v>66</v>
@@ -7372,23 +7372,23 @@
         <v>68</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="16.3">
       <c r="A146" s="35"/>
       <c r="B146" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E146" s="19"/>
       <c r="F146" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G146" s="40" t="s">
         <v>66</v>
@@ -7402,29 +7402,29 @@
       </c>
       <c r="K146" s="31"/>
       <c r="L146" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M146" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="16.3">
       <c r="A147" s="35"/>
       <c r="B147" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G147" s="40" t="s">
         <v>66</v>
@@ -7444,23 +7444,23 @@
         <v>68</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="16.3">
       <c r="A148" s="35"/>
       <c r="B148" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C148" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G148" s="40" t="s">
         <v>66</v>
@@ -7474,29 +7474,29 @@
       </c>
       <c r="K148" s="31"/>
       <c r="L148" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M148" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="16.3">
       <c r="A149" s="35"/>
       <c r="B149" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E149" s="19"/>
       <c r="F149" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G149" s="40" t="s">
         <v>66</v>
@@ -7516,23 +7516,23 @@
         <v>68</v>
       </c>
       <c r="N149" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="16.3">
       <c r="A150" s="35"/>
       <c r="B150" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E150" s="19"/>
       <c r="F150" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G150" s="40" t="s">
         <v>66</v>
@@ -7546,29 +7546,29 @@
       </c>
       <c r="K150" s="31"/>
       <c r="L150" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M150" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="16.3">
       <c r="A151" s="35"/>
       <c r="B151" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G151" s="40" t="s">
         <v>66</v>
@@ -7588,23 +7588,23 @@
         <v>68</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="16.3">
       <c r="A152" s="35"/>
       <c r="B152" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C152" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D152" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G152" s="40" t="s">
         <v>66</v>
@@ -7618,27 +7618,27 @@
       </c>
       <c r="K152" s="31"/>
       <c r="L152" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M152" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N152" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="16.3">
       <c r="B153" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D153" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G153" s="40" t="s">
         <v>66</v>
@@ -7657,19 +7657,19 @@
         <v>68</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="16.3">
       <c r="A154" s="35"/>
       <c r="B154" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D154" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E154" s="19"/>
       <c r="F154" s="32" t="s">
@@ -7690,26 +7690,26 @@
         <v>71</v>
       </c>
       <c r="M154" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16.3">
       <c r="A155" s="35"/>
       <c r="B155" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D155" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G155" s="40" t="s">
         <v>66</v>
@@ -7723,27 +7723,27 @@
       </c>
       <c r="K155" s="31"/>
       <c r="L155" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M155" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N155" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="16.3">
       <c r="B156" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G156" s="40" t="s">
         <v>66</v>
@@ -7762,19 +7762,19 @@
         <v>68</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="16.3">
       <c r="A157" s="35"/>
       <c r="B157" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="32" t="s">
@@ -7795,26 +7795,26 @@
         <v>71</v>
       </c>
       <c r="M157" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N157" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="16.3">
       <c r="A158" s="35"/>
       <c r="B158" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G158" s="40" t="s">
         <v>66</v>
@@ -7828,27 +7828,27 @@
       </c>
       <c r="K158" s="31"/>
       <c r="L158" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M158" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N158" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="16.3">
       <c r="B159" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G159" s="40" t="s">
         <v>66</v>
@@ -7867,19 +7867,19 @@
         <v>68</v>
       </c>
       <c r="N159" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="16.3">
       <c r="A160" s="35"/>
       <c r="B160" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="32" t="s">
@@ -7900,26 +7900,26 @@
         <v>71</v>
       </c>
       <c r="M160" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N160" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="16.3">
       <c r="A161" s="35"/>
       <c r="B161" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D161" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G161" s="40" t="s">
         <v>66</v>
@@ -7933,27 +7933,27 @@
       </c>
       <c r="K161" s="31"/>
       <c r="L161" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M161" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N161" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="16.3">
       <c r="B162" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C162" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D162" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F162" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G162" s="40" t="s">
         <v>66</v>
@@ -7974,19 +7974,19 @@
         <v>68</v>
       </c>
       <c r="N162" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="16.3">
       <c r="A163" s="35"/>
       <c r="B163" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C163" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D163" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="32" t="s">
@@ -8007,26 +8007,26 @@
         <v>71</v>
       </c>
       <c r="M163" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N163" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="16.3">
       <c r="A164" s="35"/>
       <c r="B164" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C164" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D164" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G164" s="40" t="s">
         <v>66</v>
@@ -8040,27 +8040,27 @@
       </c>
       <c r="K164" s="31"/>
       <c r="L164" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M164" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="16.3">
       <c r="B165" s="19" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C165" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D165" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F165" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G165" s="40" t="s">
         <v>66</v>
@@ -8081,19 +8081,19 @@
         <v>68</v>
       </c>
       <c r="N165" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="16.3">
       <c r="A166" s="35"/>
       <c r="B166" s="19" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C166" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D166" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="32" t="s">
@@ -8114,26 +8114,26 @@
         <v>71</v>
       </c>
       <c r="M166" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N166" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="16.3">
       <c r="A167" s="35"/>
       <c r="B167" s="19" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C167" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D167" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G167" s="40" t="s">
         <v>66</v>
@@ -8147,27 +8147,27 @@
       </c>
       <c r="K167" s="31"/>
       <c r="L167" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M167" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N167" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="16.3">
       <c r="B168" s="19" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C168" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D168" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F168" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G168" s="40" t="s">
         <v>66</v>
@@ -8188,19 +8188,19 @@
         <v>68</v>
       </c>
       <c r="N168" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="16.3">
       <c r="A169" s="35"/>
       <c r="B169" s="19" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C169" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D169" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E169" s="19"/>
       <c r="F169" s="32" t="s">
@@ -8221,26 +8221,26 @@
         <v>71</v>
       </c>
       <c r="M169" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N169" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="16.3">
       <c r="A170" s="35"/>
       <c r="B170" s="19" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C170" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D170" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G170" s="40" t="s">
         <v>66</v>
@@ -8254,27 +8254,27 @@
       </c>
       <c r="K170" s="31"/>
       <c r="L170" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M170" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N170" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="16.3">
       <c r="B171" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C171" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D171" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F171" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G171" s="40" t="s">
         <v>66</v>
@@ -8295,19 +8295,19 @@
         <v>68</v>
       </c>
       <c r="N171" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="16.3">
       <c r="A172" s="35"/>
       <c r="B172" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C172" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D172" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="32" t="s">
@@ -8328,26 +8328,26 @@
         <v>71</v>
       </c>
       <c r="M172" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N172" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="16.3">
       <c r="A173" s="35"/>
       <c r="B173" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C173" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D173" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E173" s="19"/>
       <c r="F173" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G173" s="40" t="s">
         <v>66</v>
@@ -8361,28 +8361,28 @@
       </c>
       <c r="K173" s="31"/>
       <c r="L173" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M173" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N173" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="16.3">
       <c r="A174" s="35"/>
       <c r="B174" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C174" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D174" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F174" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G174" s="40" t="s">
         <v>66</v>
@@ -8403,19 +8403,19 @@
         <v>68</v>
       </c>
       <c r="N174" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.3">
       <c r="A175" s="35"/>
       <c r="B175" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C175" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D175" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E175" s="19"/>
       <c r="F175" s="32" t="s">
@@ -8436,26 +8436,26 @@
         <v>71</v>
       </c>
       <c r="M175" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N175" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="16.3">
       <c r="A176" s="35"/>
       <c r="B176" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C176" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D176" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E176" s="19"/>
       <c r="F176" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G176" s="40" t="s">
         <v>66</v>
@@ -8469,29 +8469,29 @@
       </c>
       <c r="K176" s="31"/>
       <c r="L176" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M176" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N176" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="16.3">
       <c r="A177" s="35"/>
       <c r="B177" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D177" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E177" s="19"/>
       <c r="F177" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G177" s="40" t="s">
         <v>66</v>
@@ -8510,19 +8510,19 @@
         <v>68</v>
       </c>
       <c r="N177" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="16.3">
       <c r="A178" s="35"/>
       <c r="B178" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D178" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E178" s="19"/>
       <c r="F178" s="32" t="s">
@@ -8543,26 +8543,26 @@
         <v>71</v>
       </c>
       <c r="M178" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N178" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="16.3">
       <c r="A179" s="35"/>
       <c r="B179" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D179" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G179" s="40" t="s">
         <v>66</v>
@@ -8576,29 +8576,29 @@
       </c>
       <c r="K179" s="31"/>
       <c r="L179" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M179" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N179" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="16.3">
       <c r="A180" s="35"/>
       <c r="B180" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D180" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G180" s="40" t="s">
         <v>66</v>
@@ -8617,23 +8617,23 @@
         <v>68</v>
       </c>
       <c r="N180" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="16.3">
       <c r="A181" s="35"/>
       <c r="B181" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D181" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E181" s="19"/>
       <c r="F181" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G181" s="40" t="s">
         <v>66</v>
@@ -8647,29 +8647,29 @@
       </c>
       <c r="K181" s="31"/>
       <c r="L181" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M181" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N181" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="16.3">
       <c r="A182" s="35"/>
       <c r="B182" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D182" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E182" s="19"/>
       <c r="F182" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G182" s="40" t="s">
         <v>66</v>
@@ -8688,19 +8688,19 @@
         <v>68</v>
       </c>
       <c r="N182" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="16.3">
       <c r="A183" s="35"/>
       <c r="B183" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D183" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" s="32" t="s">
@@ -8721,26 +8721,26 @@
         <v>71</v>
       </c>
       <c r="M183" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N183" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="16.3">
       <c r="A184" s="35"/>
       <c r="B184" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D184" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E184" s="19"/>
       <c r="F184" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G184" s="40" t="s">
         <v>66</v>
@@ -8754,29 +8754,29 @@
       </c>
       <c r="K184" s="31"/>
       <c r="L184" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M184" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N184" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="16.3">
       <c r="A185" s="35"/>
       <c r="B185" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D185" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G185" s="40" t="s">
         <v>66</v>
@@ -8795,19 +8795,19 @@
         <v>68</v>
       </c>
       <c r="N185" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="16.3">
       <c r="A186" s="35"/>
       <c r="B186" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" s="32" t="s">
@@ -8828,26 +8828,26 @@
         <v>71</v>
       </c>
       <c r="M186" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N186" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="16.3">
       <c r="A187" s="35"/>
       <c r="B187" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D187" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G187" s="40" t="s">
         <v>66</v>
@@ -8861,29 +8861,29 @@
       </c>
       <c r="K187" s="31"/>
       <c r="L187" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M187" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N187" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="16.3">
       <c r="A188" s="35"/>
       <c r="B188" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G188" s="40" t="s">
         <v>66</v>
@@ -8902,19 +8902,19 @@
         <v>68</v>
       </c>
       <c r="N188" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="16.3">
       <c r="A189" s="35"/>
       <c r="B189" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D189" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E189" s="19"/>
       <c r="F189" s="32" t="s">
@@ -8935,26 +8935,26 @@
         <v>71</v>
       </c>
       <c r="M189" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N189" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="16.3">
       <c r="A190" s="35"/>
       <c r="B190" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D190" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G190" s="40" t="s">
         <v>66</v>
@@ -8968,29 +8968,29 @@
       </c>
       <c r="K190" s="31"/>
       <c r="L190" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M190" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N190" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="16.3">
       <c r="A191" s="35"/>
       <c r="B191" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D191" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G191" s="40" t="s">
         <v>66</v>
@@ -9009,19 +9009,19 @@
         <v>68</v>
       </c>
       <c r="N191" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="16.3">
       <c r="A192" s="35"/>
       <c r="B192" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D192" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" s="32" t="s">
@@ -9042,26 +9042,26 @@
         <v>71</v>
       </c>
       <c r="M192" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N192" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="16.3">
       <c r="A193" s="35"/>
       <c r="B193" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D193" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E193" s="19"/>
       <c r="F193" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G193" s="40" t="s">
         <v>66</v>
@@ -9075,29 +9075,29 @@
       </c>
       <c r="K193" s="31"/>
       <c r="L193" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M193" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N193" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="16.3">
       <c r="A194" s="35"/>
       <c r="B194" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D194" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G194" s="40" t="s">
         <v>66</v>
@@ -9116,19 +9116,19 @@
         <v>68</v>
       </c>
       <c r="N194" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="16.3">
       <c r="A195" s="35"/>
       <c r="B195" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D195" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" s="32" t="s">
@@ -9149,26 +9149,26 @@
         <v>71</v>
       </c>
       <c r="M195" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N195" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="16.3">
       <c r="A196" s="35"/>
       <c r="B196" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D196" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G196" s="40" t="s">
         <v>66</v>
@@ -9182,29 +9182,29 @@
       </c>
       <c r="K196" s="31"/>
       <c r="L196" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M196" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N196" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="16.3">
       <c r="A197" s="35"/>
       <c r="B197" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D197" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E197" s="19"/>
       <c r="F197" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G197" s="40" t="s">
         <v>66</v>
@@ -9223,19 +9223,19 @@
         <v>68</v>
       </c>
       <c r="N197" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="16.3">
       <c r="A198" s="35"/>
       <c r="B198" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D198" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="32" t="s">
@@ -9256,26 +9256,26 @@
         <v>71</v>
       </c>
       <c r="M198" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N198" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="16.3">
       <c r="A199" s="35"/>
       <c r="B199" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D199" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E199" s="19"/>
       <c r="F199" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G199" s="40" t="s">
         <v>66</v>
@@ -9289,29 +9289,29 @@
       </c>
       <c r="K199" s="31"/>
       <c r="L199" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M199" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N199" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="16.3">
       <c r="A200" s="19"/>
       <c r="B200" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D200" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G200" s="40" t="s">
         <v>66</v>
@@ -9330,19 +9330,19 @@
         <v>68</v>
       </c>
       <c r="N200" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="16.3">
       <c r="A201" s="35"/>
       <c r="B201" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D201" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E201" s="19"/>
       <c r="F201" s="32" t="s">
@@ -9363,26 +9363,26 @@
         <v>71</v>
       </c>
       <c r="M201" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N201" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="16.3">
       <c r="A202" s="35"/>
       <c r="B202" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D202" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G202" s="40" t="s">
         <v>66</v>
@@ -9396,28 +9396,28 @@
       </c>
       <c r="K202" s="31"/>
       <c r="L202" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M202" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N202" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="16.3">
       <c r="B203" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D203" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G203" s="40" t="s">
         <v>66</v>
@@ -9436,19 +9436,19 @@
         <v>68</v>
       </c>
       <c r="N203" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="16.3">
       <c r="A204" s="35"/>
       <c r="B204" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D204" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E204" s="19"/>
       <c r="F204" s="32" t="s">
@@ -9469,26 +9469,26 @@
         <v>71</v>
       </c>
       <c r="M204" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N204" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="16.3">
       <c r="A205" s="35"/>
       <c r="B205" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D205" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G205" s="40" t="s">
         <v>66</v>
@@ -9502,28 +9502,28 @@
       </c>
       <c r="K205" s="31"/>
       <c r="L205" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M205" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N205" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="16.3">
       <c r="B206" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D206" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G206" s="40" t="s">
         <v>66</v>
@@ -9542,19 +9542,19 @@
         <v>68</v>
       </c>
       <c r="N206" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="16.3">
       <c r="A207" s="35"/>
       <c r="B207" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D207" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" s="32" t="s">
@@ -9575,26 +9575,26 @@
         <v>71</v>
       </c>
       <c r="M207" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N207" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="16.3">
       <c r="A208" s="35"/>
       <c r="B208" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D208" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G208" s="40" t="s">
         <v>66</v>
@@ -9608,28 +9608,28 @@
       </c>
       <c r="K208" s="31"/>
       <c r="L208" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M208" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N208" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:14" ht="16.3">
       <c r="B209" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D209" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G209" s="40" t="s">
         <v>66</v>
@@ -9648,19 +9648,19 @@
         <v>68</v>
       </c>
       <c r="N209" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="16.3">
       <c r="A210" s="35"/>
       <c r="B210" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D210" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" s="32" t="s">
@@ -9681,26 +9681,26 @@
         <v>71</v>
       </c>
       <c r="M210" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N210" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="211" spans="1:14" ht="16.3">
       <c r="A211" s="35"/>
       <c r="B211" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D211" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G211" s="40" t="s">
         <v>66</v>
@@ -9714,28 +9714,28 @@
       </c>
       <c r="K211" s="31"/>
       <c r="L211" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M211" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N211" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="16.3">
       <c r="B212" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D212" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G212" s="40" t="s">
         <v>66</v>
@@ -9754,19 +9754,19 @@
         <v>68</v>
       </c>
       <c r="N212" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="16.3">
       <c r="A213" s="35"/>
       <c r="B213" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D213" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="32" t="s">
@@ -9787,26 +9787,26 @@
         <v>71</v>
       </c>
       <c r="M213" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N213" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="16.3">
       <c r="A214" s="35"/>
       <c r="B214" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D214" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G214" s="40" t="s">
         <v>66</v>
@@ -9820,28 +9820,28 @@
       </c>
       <c r="K214" s="31"/>
       <c r="L214" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M214" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N214" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="16.3">
       <c r="B215" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D215" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G215" s="40" t="s">
         <v>66</v>
@@ -9860,19 +9860,19 @@
         <v>68</v>
       </c>
       <c r="N215" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="16.3">
       <c r="A216" s="35"/>
       <c r="B216" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D216" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="32" t="s">
@@ -9893,26 +9893,26 @@
         <v>71</v>
       </c>
       <c r="M216" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N216" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:14" ht="16.3">
       <c r="A217" s="35"/>
       <c r="B217" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D217" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G217" s="40" t="s">
         <v>66</v>
@@ -9926,28 +9926,28 @@
       </c>
       <c r="K217" s="31"/>
       <c r="L217" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M217" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N217" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="16.3">
       <c r="B218" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C218" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D218" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E218" s="19"/>
       <c r="F218" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G218" s="40" t="s">
         <v>66</v>
@@ -9966,23 +9966,23 @@
         <v>68</v>
       </c>
       <c r="N218" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="16.3">
       <c r="A219" s="35"/>
       <c r="B219" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C219" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D219" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G219" s="40" t="s">
         <v>66</v>
@@ -9996,28 +9996,28 @@
       </c>
       <c r="K219" s="31"/>
       <c r="L219" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M219" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N219" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:14" ht="16.3">
       <c r="B220" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C220" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D220" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E220" s="19"/>
       <c r="F220" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G220" s="40" t="s">
         <v>66</v>
@@ -10036,23 +10036,23 @@
         <v>68</v>
       </c>
       <c r="N220" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="16.3">
       <c r="A221" s="35"/>
       <c r="B221" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C221" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D221" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G221" s="40" t="s">
         <v>66</v>
@@ -10066,28 +10066,28 @@
       </c>
       <c r="K221" s="31"/>
       <c r="L221" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M221" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N221" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="16.3">
       <c r="B222" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C222" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D222" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G222" s="40" t="s">
         <v>66</v>
@@ -10106,22 +10106,22 @@
         <v>68</v>
       </c>
       <c r="N222" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:14" ht="16.3">
       <c r="B223" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C223" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D223" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G223" s="40" t="s">
         <v>66</v>
@@ -10134,28 +10134,28 @@
       </c>
       <c r="K223" s="31"/>
       <c r="L223" s="19" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="M223" s="19" t="s">
         <v>68</v>
       </c>
       <c r="N223" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="16.3">
       <c r="B224" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C224" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D224" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G224" s="40" t="s">
         <v>66</v>
@@ -10174,19 +10174,19 @@
         <v>68</v>
       </c>
       <c r="N224" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="225" spans="1:14" ht="16.3">
       <c r="A225" s="35"/>
       <c r="B225" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C225" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D225" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" s="32" t="s">
@@ -10207,26 +10207,26 @@
         <v>71</v>
       </c>
       <c r="M225" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N225" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="16.3">
       <c r="A226" s="35"/>
       <c r="B226" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C226" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G226" s="40" t="s">
         <v>66</v>
@@ -10240,28 +10240,28 @@
       </c>
       <c r="K226" s="31"/>
       <c r="L226" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M226" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N226" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="16.3">
       <c r="B227" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D227" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G227" s="40" t="s">
         <v>66</v>
@@ -10280,19 +10280,19 @@
         <v>68</v>
       </c>
       <c r="N227" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="16.3">
       <c r="A228" s="35"/>
       <c r="B228" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D228" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" s="32" t="s">
@@ -10313,26 +10313,26 @@
         <v>71</v>
       </c>
       <c r="M228" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N228" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="16.3">
       <c r="A229" s="35"/>
       <c r="B229" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D229" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E229" s="19"/>
       <c r="F229" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G229" s="40" t="s">
         <v>66</v>
@@ -10346,28 +10346,28 @@
       </c>
       <c r="K229" s="31"/>
       <c r="L229" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M229" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N229" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="16.3">
       <c r="B230" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D230" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E230" s="19"/>
       <c r="F230" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G230" s="40" t="s">
         <v>66</v>
@@ -10386,19 +10386,19 @@
         <v>68</v>
       </c>
       <c r="N230" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="16.3">
       <c r="A231" s="35"/>
       <c r="B231" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D231" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E231" s="19"/>
       <c r="F231" s="32" t="s">
@@ -10419,26 +10419,26 @@
         <v>71</v>
       </c>
       <c r="M231" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N231" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="16.3">
       <c r="A232" s="35"/>
       <c r="B232" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D232" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E232" s="19"/>
       <c r="F232" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G232" s="40" t="s">
         <v>66</v>
@@ -10452,28 +10452,28 @@
       </c>
       <c r="K232" s="31"/>
       <c r="L232" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M232" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N232" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="16.3">
       <c r="B233" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D233" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G233" s="40" t="s">
         <v>66</v>
@@ -10492,19 +10492,19 @@
         <v>68</v>
       </c>
       <c r="N233" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:14" ht="16.3">
       <c r="A234" s="35"/>
       <c r="B234" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D234" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E234" s="19"/>
       <c r="F234" s="32" t="s">
@@ -10525,25 +10525,25 @@
         <v>71</v>
       </c>
       <c r="M234" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N234" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="16.3">
       <c r="B235" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D235" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E235" s="19"/>
       <c r="F235" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G235" s="40" t="s">
         <v>66</v>
@@ -10557,28 +10557,28 @@
       </c>
       <c r="K235" s="31"/>
       <c r="L235" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M235" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N235" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="16.3">
       <c r="B236" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D236" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G236" s="40" t="s">
         <v>66</v>
@@ -10597,19 +10597,19 @@
         <v>68</v>
       </c>
       <c r="N236" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="16.3">
       <c r="A237" s="35"/>
       <c r="B237" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D237" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E237" s="19"/>
       <c r="F237" s="32" t="s">
@@ -10630,25 +10630,25 @@
         <v>71</v>
       </c>
       <c r="M237" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N237" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="16.3">
       <c r="B238" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D238" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E238" s="19"/>
       <c r="F238" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G238" s="40" t="s">
         <v>66</v>
@@ -10662,28 +10662,28 @@
       </c>
       <c r="K238" s="31"/>
       <c r="L238" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M238" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N238" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="239" spans="1:14" ht="16.3">
       <c r="B239" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D239" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E239" s="19"/>
       <c r="F239" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G239" s="40" t="s">
         <v>66</v>
@@ -10702,19 +10702,19 @@
         <v>68</v>
       </c>
       <c r="N239" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="16.3">
       <c r="A240" s="35"/>
       <c r="B240" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D240" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E240" s="19"/>
       <c r="F240" s="32" t="s">
@@ -10735,25 +10735,25 @@
         <v>71</v>
       </c>
       <c r="M240" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N240" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="241" spans="1:14" ht="16.3">
       <c r="B241" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D241" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E241" s="19"/>
       <c r="F241" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G241" s="40" t="s">
         <v>66</v>
@@ -10767,28 +10767,28 @@
       </c>
       <c r="K241" s="31"/>
       <c r="L241" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M241" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N241" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="16.3">
       <c r="B242" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C242" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D242" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E242" s="19"/>
       <c r="F242" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G242" s="40" t="s">
         <v>66</v>
@@ -10807,19 +10807,19 @@
         <v>68</v>
       </c>
       <c r="N242" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="16.3">
       <c r="A243" s="35"/>
       <c r="B243" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C243" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D243" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="32" t="s">
@@ -10840,25 +10840,25 @@
         <v>71</v>
       </c>
       <c r="M243" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N243" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="244" spans="1:14" ht="16.3">
       <c r="B244" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C244" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D244" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E244" s="19"/>
       <c r="F244" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G244" s="40" t="s">
         <v>66</v>
@@ -10872,28 +10872,28 @@
       </c>
       <c r="K244" s="31"/>
       <c r="L244" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M244" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N244" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="16.3">
       <c r="B245" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C245" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D245" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G245" s="40" t="s">
         <v>66</v>
@@ -10912,19 +10912,19 @@
         <v>68</v>
       </c>
       <c r="N245" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="16.3">
       <c r="A246" s="35"/>
       <c r="B246" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C246" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D246" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E246" s="19"/>
       <c r="F246" s="32" t="s">
@@ -10945,25 +10945,25 @@
         <v>71</v>
       </c>
       <c r="M246" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N246" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="16.3">
       <c r="B247" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C247" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D247" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E247" s="19"/>
       <c r="F247" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G247" s="40" t="s">
         <v>66</v>
@@ -10977,28 +10977,28 @@
       </c>
       <c r="K247" s="31"/>
       <c r="L247" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M247" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N247" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="16.3">
       <c r="B248" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C248" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D248" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E248" s="19"/>
       <c r="F248" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G248" s="40" t="s">
         <v>66</v>
@@ -11017,19 +11017,19 @@
         <v>68</v>
       </c>
       <c r="N248" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="16.3">
       <c r="A249" s="35"/>
       <c r="B249" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C249" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D249" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E249" s="19"/>
       <c r="F249" s="32" t="s">
@@ -11050,25 +11050,25 @@
         <v>71</v>
       </c>
       <c r="M249" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N249" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="16.3">
       <c r="B250" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C250" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D250" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E250" s="19"/>
       <c r="F250" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G250" s="40" t="s">
         <v>66</v>
@@ -11082,28 +11082,28 @@
       </c>
       <c r="K250" s="31"/>
       <c r="L250" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M250" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N250" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="251" spans="1:14" ht="16.3">
       <c r="B251" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C251" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D251" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E251" s="19"/>
       <c r="F251" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G251" s="40" t="s">
         <v>66</v>
@@ -11122,19 +11122,19 @@
         <v>68</v>
       </c>
       <c r="N251" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="252" spans="1:14" ht="16.3">
       <c r="A252" s="35"/>
       <c r="B252" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C252" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D252" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E252" s="19"/>
       <c r="F252" s="32" t="s">
@@ -11155,25 +11155,25 @@
         <v>71</v>
       </c>
       <c r="M252" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N252" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="253" spans="1:14" ht="16.3">
       <c r="B253" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C253" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D253" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E253" s="19"/>
       <c r="F253" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G253" s="40" t="s">
         <v>66</v>
@@ -11187,28 +11187,28 @@
       </c>
       <c r="K253" s="31"/>
       <c r="L253" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M253" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N253" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="254" spans="1:14" ht="16.3">
       <c r="B254" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C254" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D254" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E254" s="19"/>
       <c r="F254" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G254" s="40" t="s">
         <v>66</v>
@@ -11227,19 +11227,19 @@
         <v>68</v>
       </c>
       <c r="N254" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="16.3">
       <c r="A255" s="35"/>
       <c r="B255" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C255" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D255" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E255" s="19"/>
       <c r="F255" s="32" t="s">
@@ -11260,25 +11260,25 @@
         <v>71</v>
       </c>
       <c r="M255" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N255" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="256" spans="1:14" ht="16.3">
       <c r="B256" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C256" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D256" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E256" s="19"/>
       <c r="F256" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G256" s="40" t="s">
         <v>66</v>
@@ -11292,13 +11292,13 @@
       </c>
       <c r="K256" s="31"/>
       <c r="L256" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M256" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N256" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13618,6 +13618,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -13632,11 +13637,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -13719,8 +13719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF606DBD-3A4A-499A-8547-EB49BCCFE371}">
   <dimension ref="A2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -13738,45 +13738,42 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3">
         <f>B2/SUM(B2:J2)</f>
-        <v>0.18181818181818182</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C3">
         <f>C2/SUM(B2:J2)</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D3">
         <f>D2/SUM(B2:J2)</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E3">
         <f>E2/SUM(B2:J2)</f>
-        <v>0.18181818181818182</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F3">
         <f>F2/SUM(B2:J2)</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
         <f>G2/SUM(B2:J2)</f>
-        <v>0.18181818181818182</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>H2/SUM(B2:J2)</f>
@@ -13797,27 +13794,27 @@
       </c>
       <c r="B4" s="38">
         <f>B3*100</f>
-        <v>18.181818181818183</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="C4" s="38">
         <f t="shared" ref="C4:J4" si="0">C3*100</f>
-        <v>18.181818181818183</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="D4" s="38">
         <f t="shared" si="0"/>
-        <v>18.181818181818183</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="E4" s="38">
         <f t="shared" si="0"/>
-        <v>18.181818181818183</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F4" s="38">
         <f t="shared" si="0"/>
-        <v>9.0909090909090917</v>
+        <v>25</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" si="0"/>
-        <v>18.181818181818183</v>
+        <v>0</v>
       </c>
       <c r="H4" s="38">
         <f t="shared" si="0"/>
@@ -13835,7 +13832,7 @@
     <row r="5" spans="1:10">
       <c r="H5" s="38">
         <f>SUM(B4:G4)</f>
-        <v>100.00000000000001</v>
+        <v>99.999999999999986</v>
       </c>
     </row>
   </sheetData>

--- a/Leon_Contribution_102424.xlsx
+++ b/Leon_Contribution_102424.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ACFD59-4431-4F56-86AA-240E078ABEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2DB88C-8BE4-41A2-80E4-37BCF3FA089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,6 +1667,33 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1716,33 +1743,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="E53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -2065,19 +2065,19 @@
       <c r="B2" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -2087,17 +2087,17 @@
       <c r="B3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -2115,43 +2115,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="49" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2162,19 +2162,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="68"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2219,7 +2219,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="51"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2232,35 +2232,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63" t="s">
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="64"/>
+      <c r="N8" s="73"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="70" t="s">
+      <c r="P8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="72"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="54"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -4371,7 +4371,7 @@
         <v>100</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>66</v>
@@ -4407,7 +4407,7 @@
         <v>100</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>66</v>
@@ -4444,7 +4444,7 @@
         <v>100</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>66</v>
@@ -4479,7 +4479,7 @@
         <v>100</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G66" s="40" t="s">
         <v>66</v>
@@ -13618,11 +13618,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -13637,6 +13632,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -13720,7 +13720,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -13738,42 +13738,45 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3">
         <f>B2/SUM(B2:J2)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="C3">
         <f>C2/SUM(B2:J2)</f>
-        <v>0.16666666666666666</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="D3">
         <f>D2/SUM(B2:J2)</f>
-        <v>0.16666666666666666</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="E3">
         <f>E2/SUM(B2:J2)</f>
-        <v>0.33333333333333331</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="F3">
         <f>F2/SUM(B2:J2)</f>
-        <v>0.25</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="G3">
         <f>G2/SUM(B2:J2)</f>
-        <v>0</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="H3">
         <f>H2/SUM(B2:J2)</f>
@@ -13794,27 +13797,27 @@
       </c>
       <c r="B4" s="38">
         <f>B3*100</f>
-        <v>8.3333333333333321</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="C4" s="38">
         <f t="shared" ref="C4:J4" si="0">C3*100</f>
-        <v>16.666666666666664</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="D4" s="38">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="E4" s="38">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="F4" s="38">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="H4" s="38">
         <f t="shared" si="0"/>
@@ -13832,7 +13835,7 @@
     <row r="5" spans="1:10">
       <c r="H5" s="38">
         <f>SUM(B4:G4)</f>
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Leon_Contribution_102424.xlsx
+++ b/Leon_Contribution_102424.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2DB88C-8BE4-41A2-80E4-37BCF3FA089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB74443-4926-43F2-A8F1-D8A7F210C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="217">
   <si>
     <t>Name:</t>
   </si>
@@ -537,10 +537,6 @@
   </si>
   <si>
     <t>T2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultimate compressive strain</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1667,33 +1663,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1743,6 +1712,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2028,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63:F66"/>
+    <sheetView tabSelected="1" topLeftCell="E216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N228" sqref="N228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -2065,19 +2061,19 @@
       <c r="B2" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -2087,17 +2083,17 @@
       <c r="B3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -2115,43 +2111,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="67" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2162,19 +2158,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="50"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2219,7 +2215,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="51"/>
+      <c r="O7" s="69"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2232,35 +2228,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="73"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="54"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="72"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -2335,7 +2331,7 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>66</v>
@@ -2357,7 +2353,7 @@
         <v>68</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O10" s="19"/>
     </row>
@@ -2374,7 +2370,7 @@
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>66</v>
@@ -2394,7 +2390,7 @@
         <v>68</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O11" s="19"/>
     </row>
@@ -2411,7 +2407,7 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>66</v>
@@ -2433,7 +2429,7 @@
         <v>68</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O12" s="19"/>
     </row>
@@ -2450,7 +2446,7 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>66</v>
@@ -2470,7 +2466,7 @@
         <v>68</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O13" s="19"/>
     </row>
@@ -2509,7 +2505,7 @@
         <v>68</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O14" s="19"/>
     </row>
@@ -2526,7 +2522,7 @@
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>66</v>
@@ -2565,7 +2561,7 @@
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>66</v>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>66</v>
@@ -2643,7 +2639,7 @@
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>66</v>
@@ -2682,7 +2678,7 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>66</v>
@@ -2721,7 +2717,7 @@
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>66</v>
@@ -2760,7 +2756,7 @@
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>66</v>
@@ -2798,7 +2794,7 @@
         <v>90</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>66</v>
@@ -2836,7 +2832,7 @@
         <v>89</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>66</v>
@@ -2872,7 +2868,7 @@
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>66</v>
@@ -2910,7 +2906,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>66</v>
@@ -2948,7 +2944,7 @@
         <v>89</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>66</v>
@@ -2984,7 +2980,7 @@
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>66</v>
@@ -3022,7 +3018,7 @@
         <v>90</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>66</v>
@@ -3060,7 +3056,7 @@
         <v>89</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>66</v>
@@ -3096,7 +3092,7 @@
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="40" t="s">
         <v>66</v>
@@ -3134,7 +3130,7 @@
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>66</v>
@@ -3248,7 +3244,7 @@
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>66</v>
@@ -3286,7 +3282,7 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>66</v>
@@ -3326,7 +3322,7 @@
         <v>100</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>66</v>
@@ -3366,7 +3362,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>66</v>
@@ -3406,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>66</v>
@@ -3446,7 +3442,7 @@
         <v>100</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>66</v>
@@ -3486,7 +3482,7 @@
         <v>100</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>66</v>
@@ -3514,7 +3510,7 @@
     <row r="41" spans="1:14" ht="16.3">
       <c r="A41" s="35"/>
       <c r="B41" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>102</v>
@@ -3526,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>66</v>
@@ -3566,7 +3562,7 @@
         <v>100</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="40" t="s">
         <v>66</v>
@@ -3606,7 +3602,7 @@
         <v>100</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>66</v>
@@ -3646,7 +3642,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>66</v>
@@ -3686,7 +3682,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>66</v>
@@ -3726,7 +3722,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>66</v>
@@ -3754,7 +3750,7 @@
     <row r="47" spans="1:14" ht="16.3">
       <c r="A47" s="35"/>
       <c r="B47" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>102</v>
@@ -3766,7 +3762,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>66</v>
@@ -3788,7 +3784,7 @@
         <v>108</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="16.3">
@@ -3806,7 +3802,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>66</v>
@@ -3846,7 +3842,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" s="40" t="s">
         <v>66</v>
@@ -3886,7 +3882,7 @@
         <v>100</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G50" s="40" t="s">
         <v>66</v>
@@ -3926,7 +3922,7 @@
         <v>100</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>66</v>
@@ -3966,7 +3962,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>66</v>
@@ -4006,7 +4002,7 @@
         <v>100</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>66</v>
@@ -4046,7 +4042,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G54" s="40" t="s">
         <v>66</v>
@@ -4085,7 +4081,7 @@
         <v>100</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G55" s="40" t="s">
         <v>66</v>
@@ -4103,7 +4099,7 @@
         <v>116</v>
       </c>
       <c r="N55" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.3">
@@ -4121,7 +4117,7 @@
         <v>100</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>66</v>
@@ -4141,7 +4137,7 @@
         <v>116</v>
       </c>
       <c r="N56" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.3">
@@ -4158,7 +4154,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G57" s="40" t="s">
         <v>66</v>
@@ -4176,7 +4172,7 @@
         <v>115</v>
       </c>
       <c r="N57" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.3">
@@ -4193,7 +4189,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>66</v>
@@ -4211,7 +4207,7 @@
         <v>115</v>
       </c>
       <c r="N58" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.3">
@@ -4228,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>66</v>
@@ -4246,7 +4242,7 @@
         <v>115</v>
       </c>
       <c r="N59" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="16.3">
@@ -4264,7 +4260,7 @@
         <v>100</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G60" s="40" t="s">
         <v>66</v>
@@ -4284,7 +4280,7 @@
         <v>115</v>
       </c>
       <c r="N60" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.3">
@@ -4301,7 +4297,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>66</v>
@@ -4319,7 +4315,7 @@
         <v>115</v>
       </c>
       <c r="N61" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.3">
@@ -4336,7 +4332,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>66</v>
@@ -4354,7 +4350,7 @@
         <v>115</v>
       </c>
       <c r="N62" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="16.3">
@@ -4371,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>66</v>
@@ -4389,7 +4385,7 @@
         <v>115</v>
       </c>
       <c r="N63" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.3">
@@ -4407,7 +4403,7 @@
         <v>100</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G64" s="40" t="s">
         <v>66</v>
@@ -4427,7 +4423,7 @@
         <v>115</v>
       </c>
       <c r="N64" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.3">
@@ -4444,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>66</v>
@@ -4462,7 +4458,7 @@
         <v>115</v>
       </c>
       <c r="N65" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.3">
@@ -4479,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G66" s="40" t="s">
         <v>66</v>
@@ -4497,7 +4493,7 @@
         <v>115</v>
       </c>
       <c r="N66" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.3">
@@ -4514,7 +4510,7 @@
         <v>100</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G67" s="40" t="s">
         <v>66</v>
@@ -4532,7 +4528,7 @@
         <v>115</v>
       </c>
       <c r="N67" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.3">
@@ -4550,7 +4546,7 @@
         <v>100</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>66</v>
@@ -4570,7 +4566,7 @@
         <v>115</v>
       </c>
       <c r="N68" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.3">
@@ -4587,7 +4583,7 @@
         <v>100</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>66</v>
@@ -4605,7 +4601,7 @@
         <v>115</v>
       </c>
       <c r="N69" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.3">
@@ -4622,7 +4618,7 @@
         <v>100</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G70" s="40" t="s">
         <v>66</v>
@@ -4640,7 +4636,7 @@
         <v>115</v>
       </c>
       <c r="N70" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.3">
@@ -4657,7 +4653,7 @@
         <v>100</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G71" s="40" t="s">
         <v>66</v>
@@ -4666,7 +4662,7 @@
         <v>1723</v>
       </c>
       <c r="J71" s="31">
-        <v>449</v>
+        <v>449000000</v>
       </c>
       <c r="L71" s="19" t="s">
         <v>85</v>
@@ -4675,7 +4671,7 @@
         <v>115</v>
       </c>
       <c r="N71" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.3">
@@ -4693,7 +4689,7 @@
         <v>100</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G72" s="40" t="s">
         <v>66</v>
@@ -4703,7 +4699,7 @@
         <v>1723</v>
       </c>
       <c r="J72" s="31">
-        <v>628</v>
+        <v>628000000</v>
       </c>
       <c r="K72" s="31"/>
       <c r="L72" s="19" t="s">
@@ -4713,7 +4709,7 @@
         <v>115</v>
       </c>
       <c r="N72" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.3">
@@ -4730,7 +4726,7 @@
         <v>100</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G73" s="40" t="s">
         <v>66</v>
@@ -4739,7 +4735,7 @@
         <v>1723</v>
       </c>
       <c r="J73" s="31">
-        <v>877</v>
+        <v>877000000</v>
       </c>
       <c r="L73" s="19" t="s">
         <v>85</v>
@@ -4748,7 +4744,7 @@
         <v>115</v>
       </c>
       <c r="N73" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.3">
@@ -4765,7 +4761,7 @@
         <v>100</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G74" s="40" t="s">
         <v>66</v>
@@ -4774,7 +4770,7 @@
         <v>1723</v>
       </c>
       <c r="J74" s="31">
-        <v>798</v>
+        <v>798000000</v>
       </c>
       <c r="L74" s="19" t="s">
         <v>85</v>
@@ -4783,7 +4779,7 @@
         <v>115</v>
       </c>
       <c r="N74" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.3">
@@ -4800,7 +4796,7 @@
         <v>100</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>66</v>
@@ -4818,7 +4814,7 @@
         <v>115</v>
       </c>
       <c r="N75" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.3">
@@ -4836,7 +4832,7 @@
         <v>100</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G76" s="40" t="s">
         <v>66</v>
@@ -4855,7 +4851,7 @@
         <v>115</v>
       </c>
       <c r="N76" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.3">
@@ -4872,7 +4868,7 @@
         <v>100</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>66</v>
@@ -4890,7 +4886,7 @@
         <v>115</v>
       </c>
       <c r="N77" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.3">
@@ -4907,7 +4903,7 @@
         <v>100</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G78" s="40" t="s">
         <v>66</v>
@@ -4925,13 +4921,13 @@
         <v>115</v>
       </c>
       <c r="N78" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.3">
       <c r="A79" s="35"/>
       <c r="B79" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C79" s="32" t="s">
         <v>94</v>
@@ -4941,7 +4937,7 @@
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G79" s="40" t="s">
         <v>66</v>
@@ -4958,16 +4954,16 @@
         <v>67</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N79" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.3">
       <c r="A80" s="35"/>
       <c r="B80" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C80" s="32" t="s">
         <v>94</v>
@@ -4977,7 +4973,7 @@
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>66</v>
@@ -4994,16 +4990,16 @@
         <v>67</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N80" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16.3">
       <c r="A81" s="35"/>
       <c r="B81" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C81" s="32" t="s">
         <v>94</v>
@@ -5013,7 +5009,7 @@
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G81" s="40" t="s">
         <v>66</v>
@@ -5030,16 +5026,16 @@
         <v>67</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N81" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16.3">
       <c r="A82" s="35"/>
       <c r="B82" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="32" t="s">
         <v>94</v>
@@ -5049,7 +5045,7 @@
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G82" s="40" t="s">
         <v>66</v>
@@ -5066,26 +5062,26 @@
         <v>67</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N82" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.3">
       <c r="A83" s="35"/>
       <c r="B83" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G83" s="40" t="s">
         <v>66</v>
@@ -5102,16 +5098,16 @@
         <v>67</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N83" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="16.3">
       <c r="A84" s="35"/>
       <c r="B84" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="32" t="s">
         <v>94</v>
@@ -5121,7 +5117,7 @@
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G84" s="40" t="s">
         <v>66</v>
@@ -5138,16 +5134,16 @@
         <v>85</v>
       </c>
       <c r="M84" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N84" s="44" t="s">
         <v>129</v>
-      </c>
-      <c r="N84" s="44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="16.3">
       <c r="A85" s="35"/>
       <c r="B85" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" s="32" t="s">
         <v>94</v>
@@ -5157,7 +5153,7 @@
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G85" s="40" t="s">
         <v>66</v>
@@ -5174,16 +5170,16 @@
         <v>85</v>
       </c>
       <c r="M85" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N85" s="44" t="s">
         <v>129</v>
-      </c>
-      <c r="N85" s="44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="16.3">
       <c r="A86" s="35"/>
       <c r="B86" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C86" s="32" t="s">
         <v>94</v>
@@ -5193,7 +5189,7 @@
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G86" s="40" t="s">
         <v>66</v>
@@ -5210,16 +5206,16 @@
         <v>85</v>
       </c>
       <c r="M86" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N86" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="16.3">
       <c r="A87" s="35"/>
       <c r="B87" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C87" s="32" t="s">
         <v>94</v>
@@ -5229,7 +5225,7 @@
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G87" s="40" t="s">
         <v>66</v>
@@ -5246,26 +5242,26 @@
         <v>85</v>
       </c>
       <c r="M87" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N87" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="16.3">
       <c r="A88" s="35"/>
       <c r="B88" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G88" s="40" t="s">
         <v>66</v>
@@ -5282,16 +5278,16 @@
         <v>85</v>
       </c>
       <c r="M88" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N88" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="16.3">
       <c r="A89" s="35"/>
       <c r="B89" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="32" t="s">
         <v>94</v>
@@ -5301,7 +5297,7 @@
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G89" s="40" t="s">
         <v>66</v>
@@ -5318,16 +5314,16 @@
         <v>96</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N89" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16.3">
       <c r="A90" s="35"/>
       <c r="B90" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" s="32" t="s">
         <v>94</v>
@@ -5337,7 +5333,7 @@
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G90" s="40" t="s">
         <v>66</v>
@@ -5353,16 +5349,16 @@
         <v>96</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N90" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="16.3">
       <c r="A91" s="35"/>
       <c r="B91" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>94</v>
@@ -5372,7 +5368,7 @@
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G91" s="40" t="s">
         <v>66</v>
@@ -5388,16 +5384,16 @@
         <v>96</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N91" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="16.3">
       <c r="A92" s="35"/>
       <c r="B92" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92" s="32" t="s">
         <v>94</v>
@@ -5407,7 +5403,7 @@
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G92" s="40" t="s">
         <v>66</v>
@@ -5423,26 +5419,26 @@
         <v>96</v>
       </c>
       <c r="M92" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N92" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="16.3">
       <c r="A93" s="35"/>
       <c r="B93" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D93" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G93" s="40" t="s">
         <v>66</v>
@@ -5458,26 +5454,26 @@
         <v>96</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N93" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.3">
       <c r="A94" s="35"/>
       <c r="B94" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D94" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G94" s="40" t="s">
         <v>66</v>
@@ -5497,23 +5493,23 @@
         <v>116</v>
       </c>
       <c r="N94" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="16.3">
       <c r="A95" s="35"/>
       <c r="B95" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D95" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G95" s="40" t="s">
         <v>66</v>
@@ -5533,23 +5529,23 @@
         <v>116</v>
       </c>
       <c r="N95" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="16.3">
       <c r="A96" s="35"/>
       <c r="B96" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G96" s="40" t="s">
         <v>66</v>
@@ -5569,23 +5565,23 @@
         <v>115</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.3">
       <c r="A97" s="35"/>
       <c r="B97" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G97" s="40" t="s">
         <v>66</v>
@@ -5605,23 +5601,23 @@
         <v>115</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="16.3">
       <c r="A98" s="35"/>
       <c r="B98" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G98" s="40" t="s">
         <v>66</v>
@@ -5641,23 +5637,23 @@
         <v>115</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="16.3">
       <c r="A99" s="35"/>
       <c r="B99" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E99" s="19"/>
       <c r="F99" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G99" s="40" t="s">
         <v>66</v>
@@ -5677,23 +5673,23 @@
         <v>115</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="16.3">
       <c r="A100" s="35"/>
       <c r="B100" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="D100" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G100" s="40" t="s">
         <v>66</v>
@@ -5713,23 +5709,23 @@
         <v>115</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="16.3">
       <c r="A101" s="35"/>
       <c r="B101" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D101" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G101" s="40" t="s">
         <v>66</v>
@@ -5749,16 +5745,16 @@
         <v>115</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="16.3">
       <c r="A102" s="35"/>
       <c r="B102" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D102" s="32" t="s">
         <v>103</v>
@@ -5785,16 +5781,16 @@
         <v>115</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="16.3">
       <c r="A103" s="35"/>
       <c r="B103" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D103" s="32" t="s">
         <v>103</v>
@@ -5821,16 +5817,16 @@
         <v>115</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="16.3">
       <c r="A104" s="35"/>
       <c r="B104" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="D104" s="32" t="s">
         <v>103</v>
@@ -5857,16 +5853,16 @@
         <v>115</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="16.3">
       <c r="A105" s="35"/>
       <c r="B105" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D105" s="32" t="s">
         <v>103</v>
@@ -5893,23 +5889,23 @@
         <v>115</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="16.3">
       <c r="A106" s="35"/>
       <c r="B106" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D106" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G106" s="40" t="s">
         <v>66</v>
@@ -5929,23 +5925,23 @@
         <v>115</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="16.3">
       <c r="A107" s="35"/>
       <c r="B107" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D107" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G107" s="40" t="s">
         <v>66</v>
@@ -5965,23 +5961,23 @@
         <v>115</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="16.3">
       <c r="A108" s="35"/>
       <c r="B108" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="D108" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G108" s="40" t="s">
         <v>66</v>
@@ -6001,23 +5997,23 @@
         <v>115</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="16.3">
       <c r="A109" s="35"/>
       <c r="B109" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D109" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G109" s="40" t="s">
         <v>66</v>
@@ -6037,23 +6033,23 @@
         <v>115</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.3">
       <c r="A110" s="35"/>
       <c r="B110" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C110" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D110" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D110" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G110" s="40" t="s">
         <v>66</v>
@@ -6069,25 +6065,25 @@
         <v>42000000</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M110" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N110" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="16.3">
       <c r="A111" s="35"/>
       <c r="B111" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D111" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D111" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="32" t="s">
@@ -6107,29 +6103,29 @@
         <v>3.4</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M111" s="19" t="s">
         <v>115</v>
       </c>
       <c r="N111" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="16.3">
       <c r="A112" s="35"/>
       <c r="B112" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D112" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D112" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G112" s="40" t="s">
         <v>66</v>
@@ -6149,23 +6145,23 @@
         <v>115</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="16.3">
       <c r="A113" s="35"/>
       <c r="B113" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C113" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D113" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G113" s="40" t="s">
         <v>66</v>
@@ -6181,29 +6177,29 @@
         <v>25000000</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M113" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N113" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="16.3">
       <c r="A114" s="35"/>
       <c r="B114" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="D114" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D114" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G114" s="40" t="s">
         <v>66</v>
@@ -6219,25 +6215,25 @@
         <v>25000000</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M114" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N114" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="16.3">
       <c r="A115" s="35"/>
       <c r="B115" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="D115" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="32" t="s">
@@ -6257,29 +6253,29 @@
         <v>2</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M115" s="19" t="s">
         <v>115</v>
       </c>
       <c r="N115" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="16.3">
       <c r="A116" s="35"/>
       <c r="B116" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G116" s="40" t="s">
         <v>66</v>
@@ -6299,23 +6295,23 @@
         <v>115</v>
       </c>
       <c r="N116" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A117" s="35"/>
       <c r="B117" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C117" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G117" s="40" t="s">
         <v>66</v>
@@ -6331,29 +6327,29 @@
         <v>40000000</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M117" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N117" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="16.3">
       <c r="A118" s="35"/>
       <c r="B118" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C118" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D118" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D118" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G118" s="40" t="s">
         <v>66</v>
@@ -6369,25 +6365,25 @@
         <v>70000000</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M118" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N118" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.3">
       <c r="A119" s="35"/>
       <c r="B119" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C119" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D119" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="32" t="s">
@@ -6407,29 +6403,29 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M119" s="19" t="s">
         <v>115</v>
       </c>
       <c r="N119" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.3">
       <c r="A120" s="35"/>
       <c r="B120" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D120" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D120" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G120" s="40" t="s">
         <v>66</v>
@@ -6449,23 +6445,23 @@
         <v>115</v>
       </c>
       <c r="N120" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.3">
       <c r="A121" s="35"/>
       <c r="B121" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C121" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D121" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G121" s="40" t="s">
         <v>66</v>
@@ -6481,29 +6477,29 @@
         <v>46000000</v>
       </c>
       <c r="L121" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M121" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N121" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.3">
       <c r="A122" s="35"/>
       <c r="B122" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D122" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G122" s="40" t="s">
         <v>66</v>
@@ -6519,25 +6515,25 @@
         <v>68000000</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M122" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N122" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.3">
       <c r="A123" s="35"/>
       <c r="B123" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C123" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D123" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D123" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="32" t="s">
@@ -6557,29 +6553,29 @@
         <v>2.1</v>
       </c>
       <c r="L123" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M123" s="19" t="s">
         <v>115</v>
       </c>
       <c r="N123" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="16.3">
       <c r="A124" s="35"/>
       <c r="B124" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C124" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D124" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D124" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G124" s="40" t="s">
         <v>66</v>
@@ -6599,23 +6595,23 @@
         <v>115</v>
       </c>
       <c r="N124" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="16.3">
       <c r="A125" s="35"/>
       <c r="B125" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C125" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="D125" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G125" s="40" t="s">
         <v>66</v>
@@ -6631,29 +6627,29 @@
         <v>2000000</v>
       </c>
       <c r="L125" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M125" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N125" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="16.3">
       <c r="A126" s="35"/>
       <c r="B126" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G126" s="40" t="s">
         <v>66</v>
@@ -6669,25 +6665,25 @@
         <v>68000000</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M126" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N126" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="16.3">
       <c r="A127" s="35"/>
       <c r="B127" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="32" t="s">
@@ -6707,29 +6703,29 @@
         <v>0</v>
       </c>
       <c r="L127" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M127" s="19" t="s">
         <v>115</v>
       </c>
       <c r="N127" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="16.3">
       <c r="A128" s="35"/>
       <c r="B128" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G128" s="40" t="s">
         <v>66</v>
@@ -6749,23 +6745,23 @@
         <v>115</v>
       </c>
       <c r="N128" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="16.3">
       <c r="A129" s="35"/>
       <c r="B129" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G129" s="40" t="s">
         <v>66</v>
@@ -6781,29 +6777,29 @@
         <v>43000000</v>
       </c>
       <c r="L129" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M129" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N129" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="16.3">
       <c r="A130" s="35"/>
       <c r="B130" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G130" s="40" t="s">
         <v>66</v>
@@ -6819,25 +6815,25 @@
         <v>6000000</v>
       </c>
       <c r="L130" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M130" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N130" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="16.3">
       <c r="A131" s="35"/>
       <c r="B131" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="32" t="s">
@@ -6857,29 +6853,29 @@
         <v>7.6</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M131" s="19" t="s">
         <v>115</v>
       </c>
       <c r="N131" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="16.3">
       <c r="A132" s="35"/>
       <c r="B132" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G132" s="40" t="s">
         <v>66</v>
@@ -6899,23 +6895,23 @@
         <v>115</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="16.3">
       <c r="A133" s="35"/>
       <c r="B133" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G133" s="40" t="s">
         <v>66</v>
@@ -6931,29 +6927,29 @@
         <v>38000000</v>
       </c>
       <c r="L133" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M133" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N133" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="16.3">
       <c r="A134" s="35"/>
       <c r="B134" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G134" s="40" t="s">
         <v>66</v>
@@ -6975,23 +6971,23 @@
         <v>68</v>
       </c>
       <c r="N134" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="16.3">
       <c r="A135" s="35"/>
       <c r="B135" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G135" s="40" t="s">
         <v>66</v>
@@ -7011,21 +7007,21 @@
         <v>115</v>
       </c>
       <c r="N135" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="16.3">
       <c r="B136" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C136" s="32" t="s">
-        <v>167</v>
-      </c>
       <c r="D136" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G136" s="40" t="s">
         <v>66</v>
@@ -7046,19 +7042,19 @@
         <v>68</v>
       </c>
       <c r="N136" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="16.3">
       <c r="A137" s="35"/>
       <c r="B137" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C137" s="32" t="s">
-        <v>167</v>
-      </c>
       <c r="D137" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="32" t="s">
@@ -7082,23 +7078,23 @@
         <v>115</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="16.3">
       <c r="A138" s="35"/>
       <c r="B138" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C138" s="32" t="s">
-        <v>167</v>
-      </c>
       <c r="D138" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G138" s="40" t="s">
         <v>66</v>
@@ -7118,23 +7114,23 @@
         <v>115</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="16.3">
       <c r="A139" s="35"/>
       <c r="B139" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G139" s="40" t="s">
         <v>66</v>
@@ -7156,23 +7152,23 @@
         <v>68</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="16.3">
       <c r="A140" s="35"/>
       <c r="B140" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G140" s="40" t="s">
         <v>66</v>
@@ -7192,23 +7188,23 @@
         <v>115</v>
       </c>
       <c r="N140" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="16.3">
       <c r="A141" s="35"/>
       <c r="B141" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C141" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C141" s="32" t="s">
-        <v>169</v>
-      </c>
       <c r="D141" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G141" s="40" t="s">
         <v>66</v>
@@ -7228,23 +7224,23 @@
         <v>68</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="16.3">
       <c r="A142" s="35"/>
       <c r="B142" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C142" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G142" s="40" t="s">
         <v>66</v>
@@ -7264,23 +7260,23 @@
         <v>115</v>
       </c>
       <c r="N142" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="16.3">
       <c r="A143" s="35"/>
       <c r="B143" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G143" s="40" t="s">
         <v>66</v>
@@ -7300,23 +7296,23 @@
         <v>68</v>
       </c>
       <c r="N143" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="16.3">
       <c r="A144" s="35"/>
       <c r="B144" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E144" s="19"/>
       <c r="F144" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G144" s="40" t="s">
         <v>66</v>
@@ -7336,23 +7332,23 @@
         <v>115</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="16.3">
       <c r="A145" s="35"/>
       <c r="B145" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E145" s="19"/>
       <c r="F145" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G145" s="40" t="s">
         <v>66</v>
@@ -7372,23 +7368,23 @@
         <v>68</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="16.3">
       <c r="A146" s="35"/>
       <c r="B146" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E146" s="19"/>
       <c r="F146" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G146" s="40" t="s">
         <v>66</v>
@@ -7408,23 +7404,23 @@
         <v>115</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="16.3">
       <c r="A147" s="35"/>
       <c r="B147" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G147" s="40" t="s">
         <v>66</v>
@@ -7444,23 +7440,23 @@
         <v>68</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="16.3">
       <c r="A148" s="35"/>
       <c r="B148" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C148" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E148" s="19"/>
       <c r="F148" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G148" s="40" t="s">
         <v>66</v>
@@ -7480,23 +7476,23 @@
         <v>115</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="16.3">
       <c r="A149" s="35"/>
       <c r="B149" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E149" s="19"/>
       <c r="F149" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G149" s="40" t="s">
         <v>66</v>
@@ -7516,23 +7512,23 @@
         <v>68</v>
       </c>
       <c r="N149" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="16.3">
       <c r="A150" s="35"/>
       <c r="B150" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E150" s="19"/>
       <c r="F150" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G150" s="40" t="s">
         <v>66</v>
@@ -7552,23 +7548,23 @@
         <v>115</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="16.3">
       <c r="A151" s="35"/>
       <c r="B151" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G151" s="40" t="s">
         <v>66</v>
@@ -7588,23 +7584,23 @@
         <v>68</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="16.3">
       <c r="A152" s="35"/>
       <c r="B152" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C152" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D152" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G152" s="40" t="s">
         <v>66</v>
@@ -7624,21 +7620,21 @@
         <v>115</v>
       </c>
       <c r="N152" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="16.3">
       <c r="B153" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C153" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D153" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G153" s="40" t="s">
         <v>66</v>
@@ -7657,19 +7653,19 @@
         <v>68</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="16.3">
       <c r="A154" s="35"/>
       <c r="B154" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C154" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D154" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E154" s="19"/>
       <c r="F154" s="32" t="s">
@@ -7693,23 +7689,23 @@
         <v>115</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16.3">
       <c r="A155" s="35"/>
       <c r="B155" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C155" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D155" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G155" s="40" t="s">
         <v>66</v>
@@ -7729,21 +7725,21 @@
         <v>115</v>
       </c>
       <c r="N155" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="16.3">
       <c r="B156" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C156" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G156" s="40" t="s">
         <v>66</v>
@@ -7762,19 +7758,19 @@
         <v>68</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="16.3">
       <c r="A157" s="35"/>
       <c r="B157" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C157" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="32" t="s">
@@ -7798,23 +7794,23 @@
         <v>115</v>
       </c>
       <c r="N157" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="16.3">
       <c r="A158" s="35"/>
       <c r="B158" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C158" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G158" s="40" t="s">
         <v>66</v>
@@ -7834,21 +7830,21 @@
         <v>115</v>
       </c>
       <c r="N158" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="16.3">
       <c r="B159" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C159" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G159" s="40" t="s">
         <v>66</v>
@@ -7867,19 +7863,19 @@
         <v>68</v>
       </c>
       <c r="N159" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="16.3">
       <c r="A160" s="35"/>
       <c r="B160" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C160" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="32" t="s">
@@ -7903,23 +7899,23 @@
         <v>115</v>
       </c>
       <c r="N160" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="16.3">
       <c r="A161" s="35"/>
       <c r="B161" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D161" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G161" s="40" t="s">
         <v>66</v>
@@ -7939,21 +7935,21 @@
         <v>115</v>
       </c>
       <c r="N161" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="16.3">
       <c r="B162" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C162" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D162" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F162" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G162" s="40" t="s">
         <v>66</v>
@@ -7974,19 +7970,19 @@
         <v>68</v>
       </c>
       <c r="N162" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="16.3">
       <c r="A163" s="35"/>
       <c r="B163" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C163" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D163" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="32" t="s">
@@ -8010,23 +8006,23 @@
         <v>115</v>
       </c>
       <c r="N163" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="16.3">
       <c r="A164" s="35"/>
       <c r="B164" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C164" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D164" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G164" s="40" t="s">
         <v>66</v>
@@ -8046,21 +8042,21 @@
         <v>115</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="16.3">
       <c r="B165" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C165" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D165" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F165" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G165" s="40" t="s">
         <v>66</v>
@@ -8081,19 +8077,19 @@
         <v>68</v>
       </c>
       <c r="N165" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="16.3">
       <c r="A166" s="35"/>
       <c r="B166" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C166" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D166" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="32" t="s">
@@ -8117,23 +8113,23 @@
         <v>115</v>
       </c>
       <c r="N166" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="16.3">
       <c r="A167" s="35"/>
       <c r="B167" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C167" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D167" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G167" s="40" t="s">
         <v>66</v>
@@ -8153,21 +8149,21 @@
         <v>115</v>
       </c>
       <c r="N167" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="16.3">
       <c r="B168" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C168" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D168" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F168" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G168" s="40" t="s">
         <v>66</v>
@@ -8188,19 +8184,19 @@
         <v>68</v>
       </c>
       <c r="N168" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="16.3">
       <c r="A169" s="35"/>
       <c r="B169" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C169" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D169" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E169" s="19"/>
       <c r="F169" s="32" t="s">
@@ -8224,23 +8220,23 @@
         <v>115</v>
       </c>
       <c r="N169" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="16.3">
       <c r="A170" s="35"/>
       <c r="B170" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C170" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D170" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G170" s="40" t="s">
         <v>66</v>
@@ -8260,21 +8256,21 @@
         <v>115</v>
       </c>
       <c r="N170" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="16.3">
       <c r="B171" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C171" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D171" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F171" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G171" s="40" t="s">
         <v>66</v>
@@ -8295,19 +8291,19 @@
         <v>68</v>
       </c>
       <c r="N171" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="16.3">
       <c r="A172" s="35"/>
       <c r="B172" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C172" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D172" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="32" t="s">
@@ -8331,23 +8327,23 @@
         <v>115</v>
       </c>
       <c r="N172" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="16.3">
       <c r="A173" s="35"/>
       <c r="B173" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C173" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D173" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E173" s="19"/>
       <c r="F173" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G173" s="40" t="s">
         <v>66</v>
@@ -8367,22 +8363,22 @@
         <v>115</v>
       </c>
       <c r="N173" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="16.3">
       <c r="A174" s="35"/>
       <c r="B174" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C174" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D174" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F174" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G174" s="40" t="s">
         <v>66</v>
@@ -8403,19 +8399,19 @@
         <v>68</v>
       </c>
       <c r="N174" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="16.3">
       <c r="A175" s="35"/>
       <c r="B175" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C175" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D175" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E175" s="19"/>
       <c r="F175" s="32" t="s">
@@ -8439,23 +8435,23 @@
         <v>115</v>
       </c>
       <c r="N175" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="16.3">
       <c r="A176" s="35"/>
       <c r="B176" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D176" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E176" s="19"/>
       <c r="F176" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G176" s="40" t="s">
         <v>66</v>
@@ -8475,23 +8471,23 @@
         <v>115</v>
       </c>
       <c r="N176" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="16.3">
       <c r="A177" s="35"/>
       <c r="B177" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D177" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E177" s="19"/>
       <c r="F177" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G177" s="40" t="s">
         <v>66</v>
@@ -8510,19 +8506,19 @@
         <v>68</v>
       </c>
       <c r="N177" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="16.3">
       <c r="A178" s="35"/>
       <c r="B178" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D178" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E178" s="19"/>
       <c r="F178" s="32" t="s">
@@ -8546,23 +8542,23 @@
         <v>115</v>
       </c>
       <c r="N178" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="16.3">
       <c r="A179" s="35"/>
       <c r="B179" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D179" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G179" s="40" t="s">
         <v>66</v>
@@ -8582,23 +8578,23 @@
         <v>115</v>
       </c>
       <c r="N179" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="16.3">
       <c r="A180" s="35"/>
       <c r="B180" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D180" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G180" s="40" t="s">
         <v>66</v>
@@ -8617,23 +8613,23 @@
         <v>68</v>
       </c>
       <c r="N180" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="16.3">
       <c r="A181" s="35"/>
       <c r="B181" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D181" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E181" s="19"/>
       <c r="F181" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G181" s="40" t="s">
         <v>66</v>
@@ -8653,23 +8649,23 @@
         <v>115</v>
       </c>
       <c r="N181" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="16.3">
       <c r="A182" s="35"/>
       <c r="B182" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D182" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E182" s="19"/>
       <c r="F182" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G182" s="40" t="s">
         <v>66</v>
@@ -8688,19 +8684,19 @@
         <v>68</v>
       </c>
       <c r="N182" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="16.3">
       <c r="A183" s="35"/>
       <c r="B183" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D183" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" s="32" t="s">
@@ -8724,23 +8720,23 @@
         <v>115</v>
       </c>
       <c r="N183" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="16.3">
       <c r="A184" s="35"/>
       <c r="B184" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D184" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E184" s="19"/>
       <c r="F184" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G184" s="40" t="s">
         <v>66</v>
@@ -8760,23 +8756,23 @@
         <v>115</v>
       </c>
       <c r="N184" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="16.3">
       <c r="A185" s="35"/>
       <c r="B185" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D185" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G185" s="40" t="s">
         <v>66</v>
@@ -8795,19 +8791,19 @@
         <v>68</v>
       </c>
       <c r="N185" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="16.3">
       <c r="A186" s="35"/>
       <c r="B186" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" s="32" t="s">
@@ -8831,23 +8827,23 @@
         <v>115</v>
       </c>
       <c r="N186" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="16.3">
       <c r="A187" s="35"/>
       <c r="B187" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D187" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G187" s="40" t="s">
         <v>66</v>
@@ -8867,23 +8863,23 @@
         <v>115</v>
       </c>
       <c r="N187" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="16.3">
       <c r="A188" s="35"/>
       <c r="B188" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G188" s="40" t="s">
         <v>66</v>
@@ -8902,19 +8898,19 @@
         <v>68</v>
       </c>
       <c r="N188" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="16.3">
       <c r="A189" s="35"/>
       <c r="B189" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D189" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E189" s="19"/>
       <c r="F189" s="32" t="s">
@@ -8938,23 +8934,23 @@
         <v>115</v>
       </c>
       <c r="N189" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="16.3">
       <c r="A190" s="35"/>
       <c r="B190" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D190" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G190" s="40" t="s">
         <v>66</v>
@@ -8974,23 +8970,23 @@
         <v>115</v>
       </c>
       <c r="N190" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="16.3">
       <c r="A191" s="35"/>
       <c r="B191" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D191" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G191" s="40" t="s">
         <v>66</v>
@@ -9009,19 +9005,19 @@
         <v>68</v>
       </c>
       <c r="N191" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="16.3">
       <c r="A192" s="35"/>
       <c r="B192" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D192" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" s="32" t="s">
@@ -9045,23 +9041,23 @@
         <v>115</v>
       </c>
       <c r="N192" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="16.3">
       <c r="A193" s="35"/>
       <c r="B193" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D193" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E193" s="19"/>
       <c r="F193" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G193" s="40" t="s">
         <v>66</v>
@@ -9081,23 +9077,23 @@
         <v>115</v>
       </c>
       <c r="N193" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="16.3">
       <c r="A194" s="35"/>
       <c r="B194" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C194" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C194" s="32" t="s">
-        <v>188</v>
-      </c>
       <c r="D194" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G194" s="40" t="s">
         <v>66</v>
@@ -9116,19 +9112,19 @@
         <v>68</v>
       </c>
       <c r="N194" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="16.3">
       <c r="A195" s="35"/>
       <c r="B195" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C195" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C195" s="32" t="s">
-        <v>188</v>
-      </c>
       <c r="D195" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" s="32" t="s">
@@ -9152,23 +9148,23 @@
         <v>115</v>
       </c>
       <c r="N195" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="16.3">
       <c r="A196" s="35"/>
       <c r="B196" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C196" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C196" s="32" t="s">
-        <v>188</v>
-      </c>
       <c r="D196" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G196" s="40" t="s">
         <v>66</v>
@@ -9188,23 +9184,23 @@
         <v>115</v>
       </c>
       <c r="N196" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="16.3">
       <c r="A197" s="35"/>
       <c r="B197" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D197" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E197" s="19"/>
       <c r="F197" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G197" s="40" t="s">
         <v>66</v>
@@ -9223,19 +9219,19 @@
         <v>68</v>
       </c>
       <c r="N197" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="16.3">
       <c r="A198" s="35"/>
       <c r="B198" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D198" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="32" t="s">
@@ -9259,23 +9255,23 @@
         <v>115</v>
       </c>
       <c r="N198" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="16.3">
       <c r="A199" s="35"/>
       <c r="B199" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D199" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E199" s="19"/>
       <c r="F199" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G199" s="40" t="s">
         <v>66</v>
@@ -9295,23 +9291,23 @@
         <v>115</v>
       </c>
       <c r="N199" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="16.3">
       <c r="A200" s="19"/>
       <c r="B200" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D200" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G200" s="40" t="s">
         <v>66</v>
@@ -9330,19 +9326,19 @@
         <v>68</v>
       </c>
       <c r="N200" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="16.3">
       <c r="A201" s="35"/>
       <c r="B201" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D201" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E201" s="19"/>
       <c r="F201" s="32" t="s">
@@ -9366,23 +9362,23 @@
         <v>115</v>
       </c>
       <c r="N201" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="16.3">
       <c r="A202" s="35"/>
       <c r="B202" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D202" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G202" s="40" t="s">
         <v>66</v>
@@ -9402,22 +9398,22 @@
         <v>115</v>
       </c>
       <c r="N202" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="16.3">
       <c r="B203" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C203" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C203" s="32" t="s">
-        <v>191</v>
-      </c>
       <c r="D203" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G203" s="40" t="s">
         <v>66</v>
@@ -9436,19 +9432,19 @@
         <v>68</v>
       </c>
       <c r="N203" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="16.3">
       <c r="A204" s="35"/>
       <c r="B204" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C204" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C204" s="32" t="s">
-        <v>191</v>
-      </c>
       <c r="D204" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E204" s="19"/>
       <c r="F204" s="32" t="s">
@@ -9472,23 +9468,23 @@
         <v>115</v>
       </c>
       <c r="N204" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="16.3">
       <c r="A205" s="35"/>
       <c r="B205" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C205" s="32" t="s">
-        <v>191</v>
-      </c>
       <c r="D205" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G205" s="40" t="s">
         <v>66</v>
@@ -9508,22 +9504,22 @@
         <v>115</v>
       </c>
       <c r="N205" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="16.3">
       <c r="B206" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D206" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G206" s="40" t="s">
         <v>66</v>
@@ -9542,19 +9538,19 @@
         <v>68</v>
       </c>
       <c r="N206" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="16.3">
       <c r="A207" s="35"/>
       <c r="B207" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D207" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" s="32" t="s">
@@ -9578,23 +9574,23 @@
         <v>115</v>
       </c>
       <c r="N207" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="16.3">
       <c r="A208" s="35"/>
       <c r="B208" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D208" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G208" s="40" t="s">
         <v>66</v>
@@ -9614,22 +9610,22 @@
         <v>115</v>
       </c>
       <c r="N208" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:14" ht="16.3">
       <c r="B209" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D209" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G209" s="40" t="s">
         <v>66</v>
@@ -9648,19 +9644,19 @@
         <v>68</v>
       </c>
       <c r="N209" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="16.3">
       <c r="A210" s="35"/>
       <c r="B210" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D210" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" s="32" t="s">
@@ -9684,23 +9680,23 @@
         <v>115</v>
       </c>
       <c r="N210" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:14" ht="16.3">
       <c r="A211" s="35"/>
       <c r="B211" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D211" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G211" s="40" t="s">
         <v>66</v>
@@ -9720,22 +9716,22 @@
         <v>115</v>
       </c>
       <c r="N211" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="16.3">
       <c r="B212" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D212" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G212" s="40" t="s">
         <v>66</v>
@@ -9754,19 +9750,19 @@
         <v>68</v>
       </c>
       <c r="N212" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="16.3">
       <c r="A213" s="35"/>
       <c r="B213" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D213" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="32" t="s">
@@ -9790,23 +9786,23 @@
         <v>115</v>
       </c>
       <c r="N213" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="16.3">
       <c r="A214" s="35"/>
       <c r="B214" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D214" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G214" s="40" t="s">
         <v>66</v>
@@ -9826,22 +9822,22 @@
         <v>115</v>
       </c>
       <c r="N214" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="16.3">
       <c r="B215" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D215" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G215" s="40" t="s">
         <v>66</v>
@@ -9860,19 +9856,19 @@
         <v>68</v>
       </c>
       <c r="N215" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="16.3">
       <c r="A216" s="35"/>
       <c r="B216" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D216" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="32" t="s">
@@ -9896,23 +9892,23 @@
         <v>115</v>
       </c>
       <c r="N216" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="217" spans="1:14" ht="16.3">
       <c r="A217" s="35"/>
       <c r="B217" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D217" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G217" s="40" t="s">
         <v>66</v>
@@ -9932,22 +9928,22 @@
         <v>115</v>
       </c>
       <c r="N217" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="16.3">
       <c r="B218" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D218" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E218" s="19"/>
       <c r="F218" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G218" s="40" t="s">
         <v>66</v>
@@ -9966,23 +9962,23 @@
         <v>68</v>
       </c>
       <c r="N218" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="16.3">
       <c r="A219" s="35"/>
       <c r="B219" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C219" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D219" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G219" s="40" t="s">
         <v>66</v>
@@ -10002,22 +9998,22 @@
         <v>115</v>
       </c>
       <c r="N219" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" spans="1:14" ht="16.3">
       <c r="B220" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C220" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D220" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E220" s="19"/>
       <c r="F220" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G220" s="40" t="s">
         <v>66</v>
@@ -10036,23 +10032,23 @@
         <v>68</v>
       </c>
       <c r="N220" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="16.3">
       <c r="A221" s="35"/>
       <c r="B221" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C221" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D221" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G221" s="40" t="s">
         <v>66</v>
@@ -10072,22 +10068,22 @@
         <v>115</v>
       </c>
       <c r="N221" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="16.3">
       <c r="B222" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C222" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D222" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G222" s="40" t="s">
         <v>66</v>
@@ -10096,7 +10092,7 @@
         <v>298</v>
       </c>
       <c r="J222" s="31">
-        <v>1313000000</v>
+        <v>1373000000</v>
       </c>
       <c r="K222" s="31"/>
       <c r="L222" s="19" t="s">
@@ -10106,22 +10102,22 @@
         <v>68</v>
       </c>
       <c r="N222" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="223" spans="1:14" ht="16.3">
       <c r="B223" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C223" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D223" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G223" s="40" t="s">
         <v>66</v>
@@ -10140,22 +10136,22 @@
         <v>68</v>
       </c>
       <c r="N223" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="16.3">
       <c r="B224" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C224" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D224" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G224" s="40" t="s">
         <v>66</v>
@@ -10174,19 +10170,19 @@
         <v>68</v>
       </c>
       <c r="N224" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="225" spans="1:14" ht="16.3">
       <c r="A225" s="35"/>
       <c r="B225" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C225" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D225" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" s="32" t="s">
@@ -10210,23 +10206,23 @@
         <v>115</v>
       </c>
       <c r="N225" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="16.3">
       <c r="A226" s="35"/>
       <c r="B226" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C226" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G226" s="40" t="s">
         <v>66</v>
@@ -10246,22 +10242,22 @@
         <v>115</v>
       </c>
       <c r="N226" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="16.3">
       <c r="B227" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D227" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G227" s="40" t="s">
         <v>66</v>
@@ -10280,19 +10276,19 @@
         <v>68</v>
       </c>
       <c r="N227" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="16.3">
       <c r="A228" s="35"/>
       <c r="B228" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D228" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" s="32" t="s">
@@ -10316,23 +10312,23 @@
         <v>115</v>
       </c>
       <c r="N228" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="16.3">
       <c r="A229" s="35"/>
       <c r="B229" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D229" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E229" s="19"/>
       <c r="F229" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G229" s="40" t="s">
         <v>66</v>
@@ -10352,22 +10348,22 @@
         <v>115</v>
       </c>
       <c r="N229" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="16.3">
       <c r="B230" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D230" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E230" s="19"/>
       <c r="F230" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G230" s="40" t="s">
         <v>66</v>
@@ -10386,19 +10382,19 @@
         <v>68</v>
       </c>
       <c r="N230" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="16.3">
       <c r="A231" s="35"/>
       <c r="B231" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D231" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E231" s="19"/>
       <c r="F231" s="32" t="s">
@@ -10422,23 +10418,23 @@
         <v>115</v>
       </c>
       <c r="N231" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="16.3">
       <c r="A232" s="35"/>
       <c r="B232" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D232" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E232" s="19"/>
       <c r="F232" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G232" s="40" t="s">
         <v>66</v>
@@ -10458,22 +10454,22 @@
         <v>115</v>
       </c>
       <c r="N232" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="16.3">
       <c r="B233" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D233" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E233" s="19"/>
       <c r="F233" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G233" s="40" t="s">
         <v>66</v>
@@ -10492,19 +10488,19 @@
         <v>68</v>
       </c>
       <c r="N233" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="234" spans="1:14" ht="16.3">
       <c r="A234" s="35"/>
       <c r="B234" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D234" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E234" s="19"/>
       <c r="F234" s="32" t="s">
@@ -10528,22 +10524,22 @@
         <v>115</v>
       </c>
       <c r="N234" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="16.3">
       <c r="B235" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D235" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E235" s="19"/>
       <c r="F235" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G235" s="40" t="s">
         <v>66</v>
@@ -10563,22 +10559,22 @@
         <v>115</v>
       </c>
       <c r="N235" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="16.3">
       <c r="B236" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D236" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G236" s="40" t="s">
         <v>66</v>
@@ -10597,19 +10593,19 @@
         <v>68</v>
       </c>
       <c r="N236" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="16.3">
       <c r="A237" s="35"/>
       <c r="B237" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D237" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E237" s="19"/>
       <c r="F237" s="32" t="s">
@@ -10633,22 +10629,22 @@
         <v>115</v>
       </c>
       <c r="N237" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="16.3">
       <c r="B238" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D238" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E238" s="19"/>
       <c r="F238" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G238" s="40" t="s">
         <v>66</v>
@@ -10668,22 +10664,22 @@
         <v>115</v>
       </c>
       <c r="N238" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239" spans="1:14" ht="16.3">
       <c r="B239" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C239" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C239" s="32" t="s">
-        <v>205</v>
-      </c>
       <c r="D239" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E239" s="19"/>
       <c r="F239" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G239" s="40" t="s">
         <v>66</v>
@@ -10702,19 +10698,19 @@
         <v>68</v>
       </c>
       <c r="N239" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="16.3">
       <c r="A240" s="35"/>
       <c r="B240" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C240" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C240" s="32" t="s">
-        <v>205</v>
-      </c>
       <c r="D240" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E240" s="19"/>
       <c r="F240" s="32" t="s">
@@ -10738,22 +10734,22 @@
         <v>115</v>
       </c>
       <c r="N240" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="241" spans="1:14" ht="16.3">
       <c r="B241" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C241" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C241" s="32" t="s">
-        <v>205</v>
-      </c>
       <c r="D241" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E241" s="19"/>
       <c r="F241" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G241" s="40" t="s">
         <v>66</v>
@@ -10773,22 +10769,22 @@
         <v>115</v>
       </c>
       <c r="N241" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="16.3">
       <c r="B242" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C242" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D242" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E242" s="19"/>
       <c r="F242" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G242" s="40" t="s">
         <v>66</v>
@@ -10807,19 +10803,19 @@
         <v>68</v>
       </c>
       <c r="N242" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="16.3">
       <c r="A243" s="35"/>
       <c r="B243" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C243" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D243" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="32" t="s">
@@ -10843,22 +10839,22 @@
         <v>115</v>
       </c>
       <c r="N243" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="244" spans="1:14" ht="16.3">
       <c r="B244" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C244" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D244" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E244" s="19"/>
       <c r="F244" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G244" s="40" t="s">
         <v>66</v>
@@ -10878,22 +10874,22 @@
         <v>115</v>
       </c>
       <c r="N244" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="16.3">
       <c r="B245" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C245" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D245" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G245" s="40" t="s">
         <v>66</v>
@@ -10912,19 +10908,19 @@
         <v>68</v>
       </c>
       <c r="N245" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="16.3">
       <c r="A246" s="35"/>
       <c r="B246" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C246" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D246" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E246" s="19"/>
       <c r="F246" s="32" t="s">
@@ -10948,22 +10944,22 @@
         <v>115</v>
       </c>
       <c r="N246" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="16.3">
       <c r="B247" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C247" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D247" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E247" s="19"/>
       <c r="F247" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G247" s="40" t="s">
         <v>66</v>
@@ -10983,22 +10979,22 @@
         <v>115</v>
       </c>
       <c r="N247" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="16.3">
       <c r="B248" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C248" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D248" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E248" s="19"/>
       <c r="F248" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G248" s="40" t="s">
         <v>66</v>
@@ -11017,19 +11013,19 @@
         <v>68</v>
       </c>
       <c r="N248" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="16.3">
       <c r="A249" s="35"/>
       <c r="B249" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C249" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D249" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E249" s="19"/>
       <c r="F249" s="32" t="s">
@@ -11053,22 +11049,22 @@
         <v>115</v>
       </c>
       <c r="N249" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="16.3">
       <c r="B250" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C250" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D250" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E250" s="19"/>
       <c r="F250" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G250" s="40" t="s">
         <v>66</v>
@@ -11088,22 +11084,22 @@
         <v>115</v>
       </c>
       <c r="N250" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="251" spans="1:14" ht="16.3">
       <c r="B251" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C251" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D251" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E251" s="19"/>
       <c r="F251" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G251" s="40" t="s">
         <v>66</v>
@@ -11122,19 +11118,19 @@
         <v>68</v>
       </c>
       <c r="N251" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="252" spans="1:14" ht="16.3">
       <c r="A252" s="35"/>
       <c r="B252" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C252" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D252" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E252" s="19"/>
       <c r="F252" s="32" t="s">
@@ -11158,22 +11154,22 @@
         <v>115</v>
       </c>
       <c r="N252" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="253" spans="1:14" ht="16.3">
       <c r="B253" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C253" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D253" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E253" s="19"/>
       <c r="F253" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G253" s="40" t="s">
         <v>66</v>
@@ -11193,22 +11189,22 @@
         <v>115</v>
       </c>
       <c r="N253" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="254" spans="1:14" ht="16.3">
       <c r="B254" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C254" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D254" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E254" s="19"/>
       <c r="F254" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G254" s="40" t="s">
         <v>66</v>
@@ -11227,19 +11223,19 @@
         <v>68</v>
       </c>
       <c r="N254" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="16.3">
       <c r="A255" s="35"/>
       <c r="B255" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C255" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D255" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E255" s="19"/>
       <c r="F255" s="32" t="s">
@@ -11263,22 +11259,22 @@
         <v>115</v>
       </c>
       <c r="N255" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="256" spans="1:14" ht="16.3">
       <c r="B256" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C256" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D256" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E256" s="19"/>
       <c r="F256" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G256" s="40" t="s">
         <v>66</v>
@@ -11298,7 +11294,7 @@
         <v>115</v>
       </c>
       <c r="N256" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13618,6 +13614,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -13632,11 +13633,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/Leon_Contribution_102424.xlsx
+++ b/Leon_Contribution_102424.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB74443-4926-43F2-A8F1-D8A7F210C5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73DD5C1-E12A-4FA1-85A3-1ABD4540D8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1663,6 +1663,33 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1712,33 +1739,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N228" sqref="N228"/>
+    <sheetView tabSelected="1" topLeftCell="I242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O254" sqref="O254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -2061,19 +2061,19 @@
       <c r="B2" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -2083,17 +2083,17 @@
       <c r="B3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -2111,43 +2111,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="49" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2158,19 +2158,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="68"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2215,7 +2215,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="69"/>
+      <c r="O7" s="51"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2228,35 +2228,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63" t="s">
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="64"/>
+      <c r="N8" s="73"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="70" t="s">
+      <c r="P8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="72"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="54"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -13614,11 +13614,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -13633,6 +13628,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/Leon_Contribution_102424.xlsx
+++ b/Leon_Contribution_102424.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github-Codes\ULTERA-contribute-Leon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73DD5C1-E12A-4FA1-85A3-1ABD4540D8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA7CEC5-6FDD-412E-BB71-6103FD1065D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1663,33 +1663,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1739,6 +1712,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O254" sqref="O254"/>
+    <sheetView tabSelected="1" topLeftCell="C249" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K262" sqref="K262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.45"/>
@@ -2061,19 +2061,19 @@
       <c r="B2" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1">
@@ -2083,17 +2083,17 @@
       <c r="B3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -2111,43 +2111,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="67" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2158,19 +2158,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="50"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:20" ht="17.149999999999999" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2215,7 +2215,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="51"/>
+      <c r="O7" s="69"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2228,35 +2228,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="73"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="54"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="72"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G223" s="40" t="s">
         <v>66</v>
@@ -13614,6 +13614,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -13628,11 +13633,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
